--- a/02 - EstimatingWorkSheet_Nathan.xlsx
+++ b/02 - EstimatingWorkSheet_Nathan.xlsx
@@ -9,10 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11595"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11595" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Duration Worksheet" sheetId="1" r:id="rId1"/>
+    <sheet name="Nathan" sheetId="2" r:id="rId2"/>
+    <sheet name="Tyler" sheetId="3" r:id="rId3"/>
+    <sheet name="Final" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="71">
   <si>
     <t>Duration Estimating Worksheet</t>
   </si>
@@ -214,12 +217,36 @@
   <si>
     <t>SweetSpot</t>
   </si>
+  <si>
+    <t>New Employee button for adding Employee</t>
+  </si>
+  <si>
+    <t>New Customer button for adding customer</t>
+  </si>
+  <si>
+    <t>New Add Item Page</t>
+  </si>
+  <si>
+    <t>New Add Customer Page</t>
+  </si>
+  <si>
+    <t>New add Employee Page</t>
+  </si>
+  <si>
+    <t>Bulk load functionality for items</t>
+  </si>
+  <si>
+    <t>Bulk load functionality for customers</t>
+  </si>
+  <si>
+    <t>Bulk load functionality for employees</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -314,6 +341,12 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="13"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -341,7 +374,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -481,11 +514,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFBDD6EE"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFBDD6EE"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -539,6 +583,12 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -563,14 +613,17 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -865,8 +918,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:O95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7:H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -877,31 +930,31 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
+      <c r="B2" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
     </row>
     <row r="3" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B4" s="2"/>
@@ -932,16 +985,16 @@
       <c r="B6" s="1"/>
     </row>
     <row r="7" spans="1:15" ht="86.25" x14ac:dyDescent="0.25">
-      <c r="B7" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="22" t="s">
+      <c r="B7" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="D7" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="22" t="s">
+      <c r="E7" s="24" t="s">
         <v>4</v>
       </c>
       <c r="F7" s="5" t="s">
@@ -959,18 +1012,18 @@
       <c r="J7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="K7" s="24" t="s">
+      <c r="K7" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="L7" s="25"/>
-      <c r="M7" s="25"/>
-      <c r="N7" s="25"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="27"/>
+      <c r="N7" s="27"/>
     </row>
     <row r="8" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
       <c r="F8" s="6" t="s">
         <v>6</v>
       </c>
@@ -978,36 +1031,42 @@
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
       <c r="J8" s="11"/>
-      <c r="K8" s="26" t="s">
+      <c r="K8" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="L8" s="27"/>
-      <c r="M8" s="28" t="s">
+      <c r="L8" s="29"/>
+      <c r="M8" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="N8" s="28"/>
+      <c r="N8" s="30"/>
     </row>
     <row r="9" spans="1:15" ht="28.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
+      <c r="C9" s="32">
+        <v>0.1</v>
+      </c>
+      <c r="D9" s="32">
+        <v>0.2</v>
+      </c>
+      <c r="E9" s="32">
+        <v>0.5</v>
+      </c>
       <c r="F9" s="8">
         <f>(C9+4*D9+E9)/6</f>
-        <v>0</v>
+        <v>0.23333333333333331</v>
       </c>
       <c r="G9" s="3">
         <v>0</v>
       </c>
       <c r="H9" s="8">
         <f>$F9+$G9</f>
-        <v>0</v>
+        <v>0.23333333333333331</v>
       </c>
       <c r="I9" s="9">
         <f>H9/2</f>
-        <v>0</v>
+        <v>0.11666666666666665</v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="8"/>
@@ -1022,26 +1081,32 @@
       </c>
     </row>
     <row r="10" spans="1:15" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
+      <c r="C10" s="32">
+        <v>0.1</v>
+      </c>
+      <c r="D10" s="32">
+        <v>0.2</v>
+      </c>
+      <c r="E10" s="32">
+        <v>0.5</v>
+      </c>
       <c r="F10" s="8">
         <f>(C10+4*D10+E10)/6</f>
-        <v>0</v>
+        <v>0.23333333333333331</v>
       </c>
       <c r="G10" s="3">
         <v>0</v>
       </c>
       <c r="H10" s="8">
         <f t="shared" ref="H10:H14" si="0">F10+G10</f>
-        <v>0</v>
+        <v>0.23333333333333331</v>
       </c>
       <c r="I10" s="9">
         <f t="shared" ref="I10:I14" si="1">H10/2</f>
-        <v>0</v>
+        <v>0.11666666666666665</v>
       </c>
       <c r="J10" s="12"/>
       <c r="K10" s="12"/>
@@ -1056,26 +1121,32 @@
       </c>
     </row>
     <row r="11" spans="1:15" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
+      <c r="C11" s="32">
+        <v>0.1</v>
+      </c>
+      <c r="D11" s="32">
+        <v>0.2</v>
+      </c>
+      <c r="E11" s="32">
+        <v>0.5</v>
+      </c>
       <c r="F11" s="8">
         <f t="shared" ref="F11:F14" si="4">(C11+4*D11+E11)/6</f>
-        <v>0</v>
+        <v>0.23333333333333331</v>
       </c>
       <c r="G11" s="3">
         <v>0</v>
       </c>
       <c r="H11" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.23333333333333331</v>
       </c>
       <c r="I11" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.11666666666666665</v>
       </c>
       <c r="J11" s="12"/>
       <c r="K11" s="12"/>
@@ -1090,26 +1161,32 @@
       </c>
     </row>
     <row r="12" spans="1:15" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="30" t="s">
+      <c r="B12" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
+      <c r="C12" s="32">
+        <v>0.1</v>
+      </c>
+      <c r="D12" s="32">
+        <v>0.2</v>
+      </c>
+      <c r="E12" s="32">
+        <v>0.5</v>
+      </c>
       <c r="F12" s="8">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.23333333333333331</v>
       </c>
       <c r="G12" s="3">
         <v>0</v>
       </c>
       <c r="H12" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.23333333333333331</v>
       </c>
       <c r="I12" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.11666666666666665</v>
       </c>
       <c r="J12" s="13"/>
       <c r="K12" s="14"/>
@@ -1124,26 +1201,32 @@
       </c>
     </row>
     <row r="13" spans="1:15" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="30" t="s">
+      <c r="B13" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
+      <c r="C13" s="32">
+        <v>0.1</v>
+      </c>
+      <c r="D13" s="32">
+        <v>0.2</v>
+      </c>
+      <c r="E13" s="32">
+        <v>0.5</v>
+      </c>
       <c r="F13" s="8">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.23333333333333331</v>
       </c>
       <c r="G13" s="3">
         <v>0</v>
       </c>
       <c r="H13" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.23333333333333331</v>
       </c>
       <c r="I13" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.11666666666666665</v>
       </c>
       <c r="J13" s="12"/>
       <c r="K13" s="14"/>
@@ -1158,26 +1241,32 @@
       </c>
     </row>
     <row r="14" spans="1:15" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="30" t="s">
+      <c r="B14" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
+      <c r="C14" s="32">
+        <v>0.1</v>
+      </c>
+      <c r="D14" s="32">
+        <v>0.2</v>
+      </c>
+      <c r="E14" s="32">
+        <v>0.5</v>
+      </c>
       <c r="F14" s="8">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.23333333333333331</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
       <c r="H14" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.23333333333333331</v>
       </c>
       <c r="I14" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.11666666666666665</v>
       </c>
       <c r="J14" s="12"/>
       <c r="K14" s="14"/>
@@ -1192,26 +1281,32 @@
       </c>
     </row>
     <row r="15" spans="1:15" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="29" t="s">
+      <c r="B15" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
+      <c r="C15" s="32">
+        <v>0.1</v>
+      </c>
+      <c r="D15" s="32">
+        <v>0.2</v>
+      </c>
+      <c r="E15" s="32">
+        <v>0.5</v>
+      </c>
       <c r="F15" s="8">
         <f>(C15+4*D15+E15)/6</f>
-        <v>0</v>
+        <v>0.23333333333333331</v>
       </c>
       <c r="G15" s="3">
         <v>0</v>
       </c>
       <c r="H15" s="8">
         <f t="shared" ref="H15:H24" si="5">F15+G15</f>
-        <v>0</v>
+        <v>0.23333333333333331</v>
       </c>
       <c r="I15" s="9">
         <f t="shared" ref="I15:I24" si="6">H15/2</f>
-        <v>0</v>
+        <v>0.11666666666666665</v>
       </c>
       <c r="J15" s="12"/>
       <c r="K15" s="12"/>
@@ -1226,26 +1321,32 @@
       </c>
     </row>
     <row r="16" spans="1:15" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="29" t="s">
+      <c r="B16" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
+      <c r="C16" s="32">
+        <v>0.1</v>
+      </c>
+      <c r="D16" s="32">
+        <v>0.2</v>
+      </c>
+      <c r="E16" s="32">
+        <v>0.5</v>
+      </c>
       <c r="F16" s="8">
         <f t="shared" ref="F16:F19" si="8">(C16+4*D16+E16)/6</f>
-        <v>0</v>
+        <v>0.23333333333333331</v>
       </c>
       <c r="G16" s="3">
         <v>0</v>
       </c>
       <c r="H16" s="8">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.23333333333333331</v>
       </c>
       <c r="I16" s="9">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.11666666666666665</v>
       </c>
       <c r="J16" s="12"/>
       <c r="K16" s="12"/>
@@ -1260,26 +1361,32 @@
       </c>
     </row>
     <row r="17" spans="2:14" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="30" t="s">
+      <c r="B17" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
+      <c r="C17" s="32">
+        <v>0.1</v>
+      </c>
+      <c r="D17" s="32">
+        <v>0.2</v>
+      </c>
+      <c r="E17" s="32">
+        <v>0.5</v>
+      </c>
       <c r="F17" s="8">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>0.23333333333333331</v>
       </c>
       <c r="G17" s="3">
         <v>0</v>
       </c>
       <c r="H17" s="8">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.23333333333333331</v>
       </c>
       <c r="I17" s="9">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.11666666666666665</v>
       </c>
       <c r="J17" s="13"/>
       <c r="K17" s="14"/>
@@ -1294,26 +1401,32 @@
       </c>
     </row>
     <row r="18" spans="2:14" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="30" t="s">
+      <c r="B18" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
+      <c r="C18" s="32">
+        <v>0.1</v>
+      </c>
+      <c r="D18" s="32">
+        <v>0.2</v>
+      </c>
+      <c r="E18" s="32">
+        <v>0.5</v>
+      </c>
       <c r="F18" s="8">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>0.23333333333333331</v>
       </c>
       <c r="G18" s="3">
         <v>0</v>
       </c>
       <c r="H18" s="8">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.23333333333333331</v>
       </c>
       <c r="I18" s="9">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.11666666666666665</v>
       </c>
       <c r="J18" s="12"/>
       <c r="K18" s="14"/>
@@ -1328,26 +1441,32 @@
       </c>
     </row>
     <row r="19" spans="2:14" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="30" t="s">
+      <c r="B19" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
+      <c r="C19" s="32">
+        <v>0.1</v>
+      </c>
+      <c r="D19" s="32">
+        <v>0.2</v>
+      </c>
+      <c r="E19" s="32">
+        <v>0.5</v>
+      </c>
       <c r="F19" s="8">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>0.23333333333333331</v>
       </c>
       <c r="G19" s="3">
         <v>0</v>
       </c>
       <c r="H19" s="8">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.23333333333333331</v>
       </c>
       <c r="I19" s="9">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.11666666666666665</v>
       </c>
       <c r="J19" s="12"/>
       <c r="K19" s="14"/>
@@ -1362,26 +1481,32 @@
       </c>
     </row>
     <row r="20" spans="2:14" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="29" t="s">
+      <c r="B20" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
+      <c r="C20" s="32">
+        <v>0.1</v>
+      </c>
+      <c r="D20" s="32">
+        <v>0.2</v>
+      </c>
+      <c r="E20" s="32">
+        <v>0.5</v>
+      </c>
       <c r="F20" s="8">
         <f>(C20+4*D20+E20)/6</f>
-        <v>0</v>
+        <v>0.23333333333333331</v>
       </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
       <c r="H20" s="8">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.23333333333333331</v>
       </c>
       <c r="I20" s="9">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.11666666666666665</v>
       </c>
       <c r="J20" s="12"/>
       <c r="K20" s="12"/>
@@ -1396,26 +1521,32 @@
       </c>
     </row>
     <row r="21" spans="2:14" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="29" t="s">
+      <c r="B21" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
+      <c r="C21" s="32">
+        <v>0.1</v>
+      </c>
+      <c r="D21" s="32">
+        <v>0.2</v>
+      </c>
+      <c r="E21" s="32">
+        <v>0.5</v>
+      </c>
       <c r="F21" s="8">
         <f t="shared" ref="F21:F24" si="9">(C21+4*D21+E21)/6</f>
-        <v>0</v>
+        <v>0.23333333333333331</v>
       </c>
       <c r="G21" s="3">
         <v>0</v>
       </c>
       <c r="H21" s="8">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.23333333333333331</v>
       </c>
       <c r="I21" s="9">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.11666666666666665</v>
       </c>
       <c r="J21" s="12"/>
       <c r="K21" s="12"/>
@@ -1430,26 +1561,32 @@
       </c>
     </row>
     <row r="22" spans="2:14" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="30" t="s">
+      <c r="B22" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
+      <c r="C22" s="32">
+        <v>0.1</v>
+      </c>
+      <c r="D22" s="32">
+        <v>0.2</v>
+      </c>
+      <c r="E22" s="32">
+        <v>0.5</v>
+      </c>
       <c r="F22" s="8">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>0.23333333333333331</v>
       </c>
       <c r="G22" s="3">
         <v>0</v>
       </c>
       <c r="H22" s="8">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.23333333333333331</v>
       </c>
       <c r="I22" s="9">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.11666666666666665</v>
       </c>
       <c r="J22" s="13"/>
       <c r="K22" s="14"/>
@@ -1464,26 +1601,32 @@
       </c>
     </row>
     <row r="23" spans="2:14" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="30" t="s">
+      <c r="B23" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
+      <c r="C23" s="32">
+        <v>0.1</v>
+      </c>
+      <c r="D23" s="32">
+        <v>0.2</v>
+      </c>
+      <c r="E23" s="32">
+        <v>0.5</v>
+      </c>
       <c r="F23" s="8">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>0.23333333333333331</v>
       </c>
       <c r="G23" s="3">
         <v>0</v>
       </c>
       <c r="H23" s="8">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.23333333333333331</v>
       </c>
       <c r="I23" s="9">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.11666666666666665</v>
       </c>
       <c r="J23" s="12"/>
       <c r="K23" s="14"/>
@@ -1498,26 +1641,32 @@
       </c>
     </row>
     <row r="24" spans="2:14" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="30" t="s">
+      <c r="B24" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
+      <c r="C24" s="32">
+        <v>0.2</v>
+      </c>
+      <c r="D24" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="E24" s="32">
+        <v>1</v>
+      </c>
       <c r="F24" s="8">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>0.53333333333333333</v>
       </c>
       <c r="G24" s="3">
         <v>0</v>
       </c>
       <c r="H24" s="8">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.53333333333333333</v>
       </c>
       <c r="I24" s="9">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.26666666666666666</v>
       </c>
       <c r="J24" s="12"/>
       <c r="K24" s="14"/>
@@ -1532,26 +1681,32 @@
       </c>
     </row>
     <row r="25" spans="2:14" ht="53.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="29" t="s">
+      <c r="B25" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
+      <c r="C25" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="D25" s="32">
+        <v>1</v>
+      </c>
+      <c r="E25" s="32">
+        <v>1.5</v>
+      </c>
       <c r="F25" s="8">
         <f>(C25+4*D25+E25)/6</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25" s="3">
         <v>0</v>
       </c>
       <c r="H25" s="8">
         <f t="shared" ref="H25:H44" si="10">F25+G25</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" s="9">
         <f t="shared" ref="I25:I44" si="11">H25/2</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="J25" s="12"/>
       <c r="K25" s="12"/>
@@ -1566,26 +1721,32 @@
       </c>
     </row>
     <row r="26" spans="2:14" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="29" t="s">
+      <c r="B26" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
+      <c r="C26" s="32">
+        <v>2</v>
+      </c>
+      <c r="D26" s="32">
+        <v>4</v>
+      </c>
+      <c r="E26" s="32">
+        <v>8</v>
+      </c>
       <c r="F26" s="8">
         <f t="shared" ref="F26:F29" si="13">(C26+4*D26+E26)/6</f>
-        <v>0</v>
+        <v>4.333333333333333</v>
       </c>
       <c r="G26" s="3">
         <v>0</v>
       </c>
       <c r="H26" s="8">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>4.333333333333333</v>
       </c>
       <c r="I26" s="9">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>2.1666666666666665</v>
       </c>
       <c r="J26" s="12"/>
       <c r="K26" s="12"/>
@@ -1600,26 +1761,32 @@
       </c>
     </row>
     <row r="27" spans="2:14" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="30" t="s">
+      <c r="B27" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
+      <c r="C27" s="32">
+        <v>3</v>
+      </c>
+      <c r="D27" s="32">
+        <v>4.5</v>
+      </c>
+      <c r="E27" s="32">
+        <v>8</v>
+      </c>
       <c r="F27" s="8">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>4.833333333333333</v>
       </c>
       <c r="G27" s="3">
         <v>0</v>
       </c>
       <c r="H27" s="8">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>4.833333333333333</v>
       </c>
       <c r="I27" s="9">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>2.4166666666666665</v>
       </c>
       <c r="J27" s="13"/>
       <c r="K27" s="14"/>
@@ -1634,26 +1801,32 @@
       </c>
     </row>
     <row r="28" spans="2:14" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="30" t="s">
+      <c r="B28" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
+      <c r="C28" s="32">
+        <v>1</v>
+      </c>
+      <c r="D28" s="32">
+        <v>3</v>
+      </c>
+      <c r="E28" s="32">
+        <v>5</v>
+      </c>
       <c r="F28" s="8">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G28" s="3">
         <v>0</v>
       </c>
       <c r="H28" s="8">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I28" s="9">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="J28" s="12"/>
       <c r="K28" s="14"/>
@@ -1668,26 +1841,32 @@
       </c>
     </row>
     <row r="29" spans="2:14" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="30" t="s">
+      <c r="B29" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
+      <c r="C29" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="D29" s="32">
+        <v>1</v>
+      </c>
+      <c r="E29" s="32">
+        <v>2</v>
+      </c>
       <c r="F29" s="8">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1.0833333333333333</v>
       </c>
       <c r="G29" s="3">
         <v>0</v>
       </c>
       <c r="H29" s="8">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1.0833333333333333</v>
       </c>
       <c r="I29" s="9">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="J29" s="12"/>
       <c r="K29" s="14"/>
@@ -1702,26 +1881,32 @@
       </c>
     </row>
     <row r="30" spans="2:14" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="29" t="s">
+      <c r="B30" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
+      <c r="C30" s="32">
+        <v>3</v>
+      </c>
+      <c r="D30" s="32">
+        <v>4</v>
+      </c>
+      <c r="E30" s="32">
+        <v>6</v>
+      </c>
       <c r="F30" s="8">
         <f>(C30+4*D30+E30)/6</f>
-        <v>0</v>
+        <v>4.166666666666667</v>
       </c>
       <c r="G30" s="3">
         <v>0</v>
       </c>
       <c r="H30" s="8">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>4.166666666666667</v>
       </c>
       <c r="I30" s="9">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>2.0833333333333335</v>
       </c>
       <c r="J30" s="12"/>
       <c r="K30" s="12"/>
@@ -1736,26 +1921,32 @@
       </c>
     </row>
     <row r="31" spans="2:14" ht="40.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="29" t="s">
+      <c r="B31" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
+      <c r="C31" s="32">
+        <v>1</v>
+      </c>
+      <c r="D31" s="32">
+        <v>1.5</v>
+      </c>
+      <c r="E31" s="32">
+        <v>3</v>
+      </c>
       <c r="F31" s="8">
         <f t="shared" ref="F31:F34" si="14">(C31+4*D31+E31)/6</f>
-        <v>0</v>
+        <v>1.6666666666666667</v>
       </c>
       <c r="G31" s="3">
         <v>0</v>
       </c>
       <c r="H31" s="8">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1.6666666666666667</v>
       </c>
       <c r="I31" s="9">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="J31" s="12"/>
       <c r="K31" s="12"/>
@@ -1770,26 +1961,32 @@
       </c>
     </row>
     <row r="32" spans="2:14" ht="53.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="30" t="s">
+      <c r="B32" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
+      <c r="C32" s="32">
+        <v>2</v>
+      </c>
+      <c r="D32" s="32">
+        <v>4</v>
+      </c>
+      <c r="E32" s="32">
+        <v>6</v>
+      </c>
       <c r="F32" s="8">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
       <c r="H32" s="8">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I32" s="9">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J32" s="13"/>
       <c r="K32" s="14"/>
@@ -1804,26 +2001,32 @@
       </c>
     </row>
     <row r="33" spans="2:14" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="30" t="s">
+      <c r="B33" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
+      <c r="C33" s="32">
+        <v>0.1</v>
+      </c>
+      <c r="D33" s="32">
+        <v>0.2</v>
+      </c>
+      <c r="E33" s="32">
+        <v>0.5</v>
+      </c>
       <c r="F33" s="8">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>0.23333333333333331</v>
       </c>
       <c r="G33" s="3">
         <v>0</v>
       </c>
       <c r="H33" s="8">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>0.23333333333333331</v>
       </c>
       <c r="I33" s="9">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>0.11666666666666665</v>
       </c>
       <c r="J33" s="12"/>
       <c r="K33" s="14"/>
@@ -1838,26 +2041,32 @@
       </c>
     </row>
     <row r="34" spans="2:14" ht="40.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="30" t="s">
+      <c r="B34" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
+      <c r="C34" s="32">
+        <v>1</v>
+      </c>
+      <c r="D34" s="32">
+        <v>1.5</v>
+      </c>
+      <c r="E34" s="32">
+        <v>3</v>
+      </c>
       <c r="F34" s="8">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1.6666666666666667</v>
       </c>
       <c r="G34" s="3">
         <v>0</v>
       </c>
       <c r="H34" s="8">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1.6666666666666667</v>
       </c>
       <c r="I34" s="9">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="J34" s="12"/>
       <c r="K34" s="14"/>
@@ -1872,26 +2081,32 @@
       </c>
     </row>
     <row r="35" spans="2:14" ht="40.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="29" t="s">
+      <c r="B35" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
+      <c r="C35" s="32">
+        <v>1</v>
+      </c>
+      <c r="D35" s="32">
+        <v>1.5</v>
+      </c>
+      <c r="E35" s="32">
+        <v>3</v>
+      </c>
       <c r="F35" s="8">
         <f>(C35+4*D35+E35)/6</f>
-        <v>0</v>
+        <v>1.6666666666666667</v>
       </c>
       <c r="G35" s="3">
         <v>0</v>
       </c>
       <c r="H35" s="8">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1.6666666666666667</v>
       </c>
       <c r="I35" s="9">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="J35" s="12"/>
       <c r="K35" s="12"/>
@@ -1906,26 +2121,32 @@
       </c>
     </row>
     <row r="36" spans="2:14" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="29" t="s">
+      <c r="B36" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
+      <c r="C36" s="32">
+        <v>1</v>
+      </c>
+      <c r="D36" s="32">
+        <v>2</v>
+      </c>
+      <c r="E36" s="32">
+        <v>3</v>
+      </c>
       <c r="F36" s="8">
         <f t="shared" ref="F36:F39" si="15">(C36+4*D36+E36)/6</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G36" s="3">
         <v>0</v>
       </c>
       <c r="H36" s="8">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" s="9">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J36" s="12"/>
       <c r="K36" s="12"/>
@@ -1940,26 +2161,32 @@
       </c>
     </row>
     <row r="37" spans="2:14" ht="40.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="30" t="s">
+      <c r="B37" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
+      <c r="C37" s="32">
+        <v>2</v>
+      </c>
+      <c r="D37" s="32">
+        <v>2.5</v>
+      </c>
+      <c r="E37" s="32">
+        <v>4</v>
+      </c>
       <c r="F37" s="8">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>2.6666666666666665</v>
       </c>
       <c r="G37" s="3">
         <v>0</v>
       </c>
       <c r="H37" s="8">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>2.6666666666666665</v>
       </c>
       <c r="I37" s="9">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="J37" s="13"/>
       <c r="K37" s="14"/>
@@ -1974,26 +2201,32 @@
       </c>
     </row>
     <row r="38" spans="2:14" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="30" t="s">
+      <c r="B38" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
+      <c r="C38" s="32">
+        <v>1</v>
+      </c>
+      <c r="D38" s="32">
+        <v>2</v>
+      </c>
+      <c r="E38" s="32">
+        <v>3</v>
+      </c>
       <c r="F38" s="8">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G38" s="3">
         <v>0</v>
       </c>
       <c r="H38" s="8">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" s="9">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38" s="12"/>
       <c r="K38" s="14"/>
@@ -2008,26 +2241,32 @@
       </c>
     </row>
     <row r="39" spans="2:14" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="30" t="s">
+      <c r="B39" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
+      <c r="C39" s="32">
+        <v>2</v>
+      </c>
+      <c r="D39" s="32">
+        <v>2.5</v>
+      </c>
+      <c r="E39" s="32">
+        <v>3</v>
+      </c>
       <c r="F39" s="8">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="G39" s="3">
         <v>0</v>
       </c>
       <c r="H39" s="8">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="I39" s="9">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="J39" s="12"/>
       <c r="K39" s="14"/>
@@ -2042,26 +2281,32 @@
       </c>
     </row>
     <row r="40" spans="2:14" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="29" t="s">
+      <c r="B40" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
+      <c r="C40" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="D40" s="32">
+        <v>1</v>
+      </c>
+      <c r="E40" s="32">
+        <v>1.5</v>
+      </c>
       <c r="F40" s="8">
         <f>(C40+4*D40+E40)/6</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G40" s="3">
         <v>0</v>
       </c>
       <c r="H40" s="8">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I40" s="9">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="J40" s="12"/>
       <c r="K40" s="12"/>
@@ -2076,26 +2321,32 @@
       </c>
     </row>
     <row r="41" spans="2:14" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="29" t="s">
+      <c r="B41" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
+      <c r="C41" s="32">
+        <v>3</v>
+      </c>
+      <c r="D41" s="32">
+        <v>5</v>
+      </c>
+      <c r="E41" s="32">
+        <v>7</v>
+      </c>
       <c r="F41" s="8">
         <f t="shared" ref="F41:F44" si="16">(C41+4*D41+E41)/6</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G41" s="3">
         <v>0</v>
       </c>
       <c r="H41" s="8">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I41" s="9">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="J41" s="12"/>
       <c r="K41" s="12"/>
@@ -2110,26 +2361,32 @@
       </c>
     </row>
     <row r="42" spans="2:14" ht="40.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="30" t="s">
+      <c r="B42" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
+      <c r="C42" s="32">
+        <v>2</v>
+      </c>
+      <c r="D42" s="32">
+        <v>4</v>
+      </c>
+      <c r="E42" s="32">
+        <v>6</v>
+      </c>
       <c r="F42" s="8">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G42" s="3">
         <v>0</v>
       </c>
       <c r="H42" s="8">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I42" s="9">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J42" s="13"/>
       <c r="K42" s="14"/>
@@ -2144,26 +2401,32 @@
       </c>
     </row>
     <row r="43" spans="2:14" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="30" t="s">
+      <c r="B43" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="4"/>
+      <c r="C43" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="D43" s="32">
+        <v>1</v>
+      </c>
+      <c r="E43" s="32">
+        <v>3</v>
+      </c>
       <c r="F43" s="8">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="G43" s="3">
         <v>0</v>
       </c>
       <c r="H43" s="8">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="I43" s="9">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>0.625</v>
       </c>
       <c r="J43" s="12"/>
       <c r="K43" s="14"/>
@@ -2178,26 +2441,32 @@
       </c>
     </row>
     <row r="44" spans="2:14" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="30" t="s">
+      <c r="B44" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="C44" s="4"/>
-      <c r="D44" s="4"/>
-      <c r="E44" s="4"/>
+      <c r="C44" s="32">
+        <v>1</v>
+      </c>
+      <c r="D44" s="32">
+        <v>1.5</v>
+      </c>
+      <c r="E44" s="32">
+        <v>3</v>
+      </c>
       <c r="F44" s="8">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>1.6666666666666667</v>
       </c>
       <c r="G44" s="3">
         <v>0</v>
       </c>
       <c r="H44" s="8">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1.6666666666666667</v>
       </c>
       <c r="I44" s="9">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="J44" s="12"/>
       <c r="K44" s="14"/>
@@ -2212,26 +2481,32 @@
       </c>
     </row>
     <row r="45" spans="2:14" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="29" t="s">
+      <c r="B45" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
-      <c r="E45" s="3"/>
+      <c r="C45" s="32">
+        <v>1</v>
+      </c>
+      <c r="D45" s="32">
+        <v>1.5</v>
+      </c>
+      <c r="E45" s="32">
+        <v>3</v>
+      </c>
       <c r="F45" s="8">
         <f>(C45+4*D45+E45)/6</f>
-        <v>0</v>
+        <v>1.6666666666666667</v>
       </c>
       <c r="G45" s="3">
         <v>0</v>
       </c>
       <c r="H45" s="8">
         <f t="shared" ref="H45:H84" si="17">F45+G45</f>
-        <v>0</v>
+        <v>1.6666666666666667</v>
       </c>
       <c r="I45" s="9">
         <f t="shared" ref="I45:I84" si="18">H45/2</f>
-        <v>0</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="J45" s="12"/>
       <c r="K45" s="12"/>
@@ -2246,26 +2521,32 @@
       </c>
     </row>
     <row r="46" spans="2:14" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="29" t="s">
+      <c r="B46" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="3"/>
+      <c r="C46" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="D46" s="32">
+        <v>1</v>
+      </c>
+      <c r="E46" s="32">
+        <v>1.5</v>
+      </c>
       <c r="F46" s="8">
         <f t="shared" ref="F46:F49" si="20">(C46+4*D46+E46)/6</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G46" s="3">
         <v>0</v>
       </c>
       <c r="H46" s="8">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I46" s="9">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="J46" s="12"/>
       <c r="K46" s="12"/>
@@ -2280,26 +2561,32 @@
       </c>
     </row>
     <row r="47" spans="2:14" ht="53.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="30" t="s">
+      <c r="B47" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="C47" s="4"/>
-      <c r="D47" s="4"/>
-      <c r="E47" s="4"/>
+      <c r="C47" s="32">
+        <v>1</v>
+      </c>
+      <c r="D47" s="32">
+        <v>1.5</v>
+      </c>
+      <c r="E47" s="32">
+        <v>3</v>
+      </c>
       <c r="F47" s="8">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>1.6666666666666667</v>
       </c>
       <c r="G47" s="3">
         <v>0</v>
       </c>
       <c r="H47" s="8">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1.6666666666666667</v>
       </c>
       <c r="I47" s="9">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="J47" s="13"/>
       <c r="K47" s="14"/>
@@ -2314,26 +2601,32 @@
       </c>
     </row>
     <row r="48" spans="2:14" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="30" t="s">
+      <c r="B48" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="C48" s="4"/>
-      <c r="D48" s="4"/>
-      <c r="E48" s="4"/>
+      <c r="C48" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="D48" s="32">
+        <v>1</v>
+      </c>
+      <c r="E48" s="32">
+        <v>1.5</v>
+      </c>
       <c r="F48" s="8">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G48" s="3">
         <v>0</v>
       </c>
       <c r="H48" s="8">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I48" s="9">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="J48" s="12"/>
       <c r="K48" s="14"/>
@@ -2348,26 +2641,32 @@
       </c>
     </row>
     <row r="49" spans="2:14" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="30" t="s">
+      <c r="B49" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="C49" s="4"/>
-      <c r="D49" s="4"/>
-      <c r="E49" s="4"/>
+      <c r="C49" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="D49" s="32">
+        <v>1</v>
+      </c>
+      <c r="E49" s="32">
+        <v>1.5</v>
+      </c>
       <c r="F49" s="8">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G49" s="3">
         <v>0</v>
       </c>
       <c r="H49" s="8">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I49" s="9">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="J49" s="12"/>
       <c r="K49" s="14"/>
@@ -2382,26 +2681,32 @@
       </c>
     </row>
     <row r="50" spans="2:14" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B50" s="29" t="s">
+      <c r="B50" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="C50" s="3"/>
-      <c r="D50" s="3"/>
-      <c r="E50" s="3"/>
+      <c r="C50" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="D50" s="32">
+        <v>1</v>
+      </c>
+      <c r="E50" s="32">
+        <v>1.5</v>
+      </c>
       <c r="F50" s="8">
         <f>(C50+4*D50+E50)/6</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G50" s="3">
         <v>0</v>
       </c>
       <c r="H50" s="8">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I50" s="9">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="J50" s="12"/>
       <c r="K50" s="12"/>
@@ -2416,26 +2721,32 @@
       </c>
     </row>
     <row r="51" spans="2:14" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B51" s="29" t="s">
+      <c r="B51" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="C51" s="3"/>
-      <c r="D51" s="3"/>
-      <c r="E51" s="3"/>
+      <c r="C51" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="D51" s="32">
+        <v>1</v>
+      </c>
+      <c r="E51" s="32">
+        <v>1.5</v>
+      </c>
       <c r="F51" s="8">
         <f t="shared" ref="F51:F54" si="21">(C51+4*D51+E51)/6</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G51" s="3">
         <v>0</v>
       </c>
       <c r="H51" s="8">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I51" s="9">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="J51" s="12"/>
       <c r="K51" s="12"/>
@@ -2450,26 +2761,32 @@
       </c>
     </row>
     <row r="52" spans="2:14" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B52" s="30" t="s">
+      <c r="B52" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="C52" s="4"/>
-      <c r="D52" s="4"/>
-      <c r="E52" s="4"/>
+      <c r="C52" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="D52" s="32">
+        <v>1</v>
+      </c>
+      <c r="E52" s="32">
+        <v>1.5</v>
+      </c>
       <c r="F52" s="8">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G52" s="3">
         <v>0</v>
       </c>
       <c r="H52" s="8">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I52" s="9">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="J52" s="13"/>
       <c r="K52" s="14"/>
@@ -2483,25 +2800,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="2:14" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B53" s="30"/>
-      <c r="C53" s="4"/>
-      <c r="D53" s="4"/>
-      <c r="E53" s="4"/>
+    <row r="53" spans="2:14" ht="40.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B53" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="C53" s="32">
+        <v>1</v>
+      </c>
+      <c r="D53" s="32">
+        <v>1.5</v>
+      </c>
+      <c r="E53" s="32">
+        <v>2</v>
+      </c>
       <c r="F53" s="8">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="G53" s="3">
         <v>0</v>
       </c>
       <c r="H53" s="8">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="I53" s="9">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="J53" s="12"/>
       <c r="K53" s="14"/>
@@ -2515,25 +2840,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:14" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B54" s="30"/>
-      <c r="C54" s="4"/>
-      <c r="D54" s="4"/>
-      <c r="E54" s="4"/>
+    <row r="54" spans="2:14" ht="40.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B54" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="C54" s="32">
+        <v>1</v>
+      </c>
+      <c r="D54" s="32">
+        <v>1.5</v>
+      </c>
+      <c r="E54" s="32">
+        <v>2</v>
+      </c>
       <c r="F54" s="8">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="G54" s="3">
         <v>0</v>
       </c>
       <c r="H54" s="8">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="I54" s="9">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="J54" s="12"/>
       <c r="K54" s="14"/>
@@ -2548,24 +2881,32 @@
       </c>
     </row>
     <row r="55" spans="2:14" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B55" s="29"/>
-      <c r="C55" s="3"/>
-      <c r="D55" s="3"/>
-      <c r="E55" s="3"/>
+      <c r="B55" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="C55" s="32">
+        <v>1</v>
+      </c>
+      <c r="D55" s="32">
+        <v>1.5</v>
+      </c>
+      <c r="E55" s="32">
+        <v>2</v>
+      </c>
       <c r="F55" s="8">
         <f>(C55+4*D55+E55)/6</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="G55" s="3">
         <v>0</v>
       </c>
       <c r="H55" s="8">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="I55" s="9">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="J55" s="12"/>
       <c r="K55" s="12"/>
@@ -2579,25 +2920,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:14" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B56" s="29"/>
-      <c r="C56" s="3"/>
-      <c r="D56" s="3"/>
-      <c r="E56" s="3"/>
+    <row r="56" spans="2:14" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B56" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="C56" s="32">
+        <v>1</v>
+      </c>
+      <c r="D56" s="32">
+        <v>1.5</v>
+      </c>
+      <c r="E56" s="32">
+        <v>2</v>
+      </c>
       <c r="F56" s="8">
         <f t="shared" ref="F56:F59" si="22">(C56+4*D56+E56)/6</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="G56" s="3">
         <v>0</v>
       </c>
       <c r="H56" s="8">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="I56" s="9">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="J56" s="12"/>
       <c r="K56" s="12"/>
@@ -2611,25 +2960,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="2:14" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B57" s="30"/>
-      <c r="C57" s="4"/>
-      <c r="D57" s="4"/>
-      <c r="E57" s="4"/>
+    <row r="57" spans="2:14" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B57" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="C57" s="32">
+        <v>1</v>
+      </c>
+      <c r="D57" s="32">
+        <v>1.5</v>
+      </c>
+      <c r="E57" s="32">
+        <v>2</v>
+      </c>
       <c r="F57" s="8">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="G57" s="3">
         <v>0</v>
       </c>
       <c r="H57" s="8">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="I57" s="9">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="J57" s="13"/>
       <c r="K57" s="14"/>
@@ -2643,25 +3000,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="2:14" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B58" s="30"/>
-      <c r="C58" s="4"/>
-      <c r="D58" s="4"/>
-      <c r="E58" s="4"/>
+    <row r="58" spans="2:14" ht="40.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B58" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="C58" s="32">
+        <v>3</v>
+      </c>
+      <c r="D58" s="32">
+        <v>4</v>
+      </c>
+      <c r="E58" s="32">
+        <v>6</v>
+      </c>
       <c r="F58" s="8">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>4.166666666666667</v>
       </c>
       <c r="G58" s="3">
         <v>0</v>
       </c>
       <c r="H58" s="8">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>4.166666666666667</v>
       </c>
       <c r="I58" s="9">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>2.0833333333333335</v>
       </c>
       <c r="J58" s="12"/>
       <c r="K58" s="14"/>
@@ -2675,25 +3040,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="2:14" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B59" s="30"/>
-      <c r="C59" s="4"/>
-      <c r="D59" s="4"/>
-      <c r="E59" s="4"/>
+    <row r="59" spans="2:14" ht="40.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B59" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="C59" s="32">
+        <v>3</v>
+      </c>
+      <c r="D59" s="32">
+        <v>4</v>
+      </c>
+      <c r="E59" s="32">
+        <v>6</v>
+      </c>
       <c r="F59" s="8">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>4.166666666666667</v>
       </c>
       <c r="G59" s="3">
         <v>0</v>
       </c>
       <c r="H59" s="8">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>4.166666666666667</v>
       </c>
       <c r="I59" s="9">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>2.0833333333333335</v>
       </c>
       <c r="J59" s="12"/>
       <c r="K59" s="14"/>
@@ -2707,25 +3080,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="2:14" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B60" s="29"/>
-      <c r="C60" s="3"/>
-      <c r="D60" s="3"/>
-      <c r="E60" s="3"/>
+    <row r="60" spans="2:14" ht="40.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B60" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="C60" s="32">
+        <v>3</v>
+      </c>
+      <c r="D60" s="32">
+        <v>4</v>
+      </c>
+      <c r="E60" s="32">
+        <v>6</v>
+      </c>
       <c r="F60" s="8">
         <f>(C60+4*D60+E60)/6</f>
-        <v>0</v>
+        <v>4.166666666666667</v>
       </c>
       <c r="G60" s="3">
         <v>0</v>
       </c>
       <c r="H60" s="8">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>4.166666666666667</v>
       </c>
       <c r="I60" s="9">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>2.0833333333333335</v>
       </c>
       <c r="J60" s="12"/>
       <c r="K60" s="12"/>
@@ -2740,7 +3121,7 @@
       </c>
     </row>
     <row r="61" spans="2:14" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B61" s="29"/>
+      <c r="B61" s="21"/>
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
@@ -2772,7 +3153,7 @@
       </c>
     </row>
     <row r="62" spans="2:14" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B62" s="30"/>
+      <c r="B62" s="22"/>
       <c r="C62" s="4"/>
       <c r="D62" s="4"/>
       <c r="E62" s="4"/>
@@ -2804,7 +3185,7 @@
       </c>
     </row>
     <row r="63" spans="2:14" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B63" s="30"/>
+      <c r="B63" s="22"/>
       <c r="C63" s="4"/>
       <c r="D63" s="4"/>
       <c r="E63" s="4"/>
@@ -2836,7 +3217,7 @@
       </c>
     </row>
     <row r="64" spans="2:14" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B64" s="30"/>
+      <c r="B64" s="22"/>
       <c r="C64" s="4"/>
       <c r="D64" s="4"/>
       <c r="E64" s="4"/>
@@ -2868,7 +3249,7 @@
       </c>
     </row>
     <row r="65" spans="2:14" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B65" s="29"/>
+      <c r="B65" s="21"/>
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
@@ -2900,7 +3281,7 @@
       </c>
     </row>
     <row r="66" spans="2:14" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B66" s="29"/>
+      <c r="B66" s="21"/>
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
@@ -2932,7 +3313,7 @@
       </c>
     </row>
     <row r="67" spans="2:14" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B67" s="30"/>
+      <c r="B67" s="22"/>
       <c r="C67" s="4"/>
       <c r="D67" s="4"/>
       <c r="E67" s="4"/>
@@ -2964,7 +3345,7 @@
       </c>
     </row>
     <row r="68" spans="2:14" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B68" s="30"/>
+      <c r="B68" s="22"/>
       <c r="C68" s="4"/>
       <c r="D68" s="4"/>
       <c r="E68" s="4"/>
@@ -2996,7 +3377,7 @@
       </c>
     </row>
     <row r="69" spans="2:14" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B69" s="30"/>
+      <c r="B69" s="22"/>
       <c r="C69" s="4"/>
       <c r="D69" s="4"/>
       <c r="E69" s="4"/>
@@ -3028,7 +3409,7 @@
       </c>
     </row>
     <row r="70" spans="2:14" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B70" s="29"/>
+      <c r="B70" s="21"/>
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
       <c r="E70" s="3"/>
@@ -3060,7 +3441,7 @@
       </c>
     </row>
     <row r="71" spans="2:14" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B71" s="29"/>
+      <c r="B71" s="21"/>
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
       <c r="E71" s="3"/>
@@ -3092,7 +3473,7 @@
       </c>
     </row>
     <row r="72" spans="2:14" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B72" s="30"/>
+      <c r="B72" s="22"/>
       <c r="C72" s="4"/>
       <c r="D72" s="4"/>
       <c r="E72" s="4"/>
@@ -3124,7 +3505,7 @@
       </c>
     </row>
     <row r="73" spans="2:14" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B73" s="30"/>
+      <c r="B73" s="22"/>
       <c r="C73" s="4"/>
       <c r="D73" s="4"/>
       <c r="E73" s="4"/>
@@ -3156,7 +3537,7 @@
       </c>
     </row>
     <row r="74" spans="2:14" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B74" s="30"/>
+      <c r="B74" s="22"/>
       <c r="C74" s="4"/>
       <c r="D74" s="4"/>
       <c r="E74" s="4"/>
@@ -3188,7 +3569,7 @@
       </c>
     </row>
     <row r="75" spans="2:14" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B75" s="29"/>
+      <c r="B75" s="21"/>
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>
       <c r="E75" s="3"/>
@@ -3220,7 +3601,7 @@
       </c>
     </row>
     <row r="76" spans="2:14" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B76" s="29"/>
+      <c r="B76" s="21"/>
       <c r="C76" s="3"/>
       <c r="D76" s="3"/>
       <c r="E76" s="3"/>
@@ -3252,7 +3633,7 @@
       </c>
     </row>
     <row r="77" spans="2:14" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B77" s="30"/>
+      <c r="B77" s="22"/>
       <c r="C77" s="4"/>
       <c r="D77" s="4"/>
       <c r="E77" s="4"/>
@@ -3284,7 +3665,7 @@
       </c>
     </row>
     <row r="78" spans="2:14" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B78" s="30"/>
+      <c r="B78" s="22"/>
       <c r="C78" s="4"/>
       <c r="D78" s="4"/>
       <c r="E78" s="4"/>
@@ -3316,7 +3697,7 @@
       </c>
     </row>
     <row r="79" spans="2:14" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B79" s="30"/>
+      <c r="B79" s="22"/>
       <c r="C79" s="4"/>
       <c r="D79" s="4"/>
       <c r="E79" s="4"/>
@@ -3348,7 +3729,7 @@
       </c>
     </row>
     <row r="80" spans="2:14" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B80" s="29"/>
+      <c r="B80" s="21"/>
       <c r="C80" s="3"/>
       <c r="D80" s="3"/>
       <c r="E80" s="3"/>
@@ -3380,7 +3761,7 @@
       </c>
     </row>
     <row r="81" spans="2:14" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B81" s="29"/>
+      <c r="B81" s="21"/>
       <c r="C81" s="3"/>
       <c r="D81" s="3"/>
       <c r="E81" s="3"/>
@@ -3412,7 +3793,7 @@
       </c>
     </row>
     <row r="82" spans="2:14" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B82" s="30"/>
+      <c r="B82" s="22"/>
       <c r="C82" s="4"/>
       <c r="D82" s="4"/>
       <c r="E82" s="4"/>
@@ -3444,7 +3825,7 @@
       </c>
     </row>
     <row r="83" spans="2:14" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B83" s="30"/>
+      <c r="B83" s="22"/>
       <c r="C83" s="4"/>
       <c r="D83" s="4"/>
       <c r="E83" s="4"/>
@@ -3476,7 +3857,7 @@
       </c>
     </row>
     <row r="84" spans="2:14" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B84" s="30"/>
+      <c r="B84" s="22"/>
       <c r="C84" s="4"/>
       <c r="D84" s="4"/>
       <c r="E84" s="4"/>
@@ -3508,7 +3889,7 @@
       </c>
     </row>
     <row r="85" spans="2:14" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B85" s="29"/>
+      <c r="B85" s="21"/>
       <c r="C85" s="3"/>
       <c r="D85" s="3"/>
       <c r="E85" s="3"/>
@@ -3540,7 +3921,7 @@
       </c>
     </row>
     <row r="86" spans="2:14" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B86" s="29"/>
+      <c r="B86" s="21"/>
       <c r="C86" s="3"/>
       <c r="D86" s="3"/>
       <c r="E86" s="3"/>
@@ -3572,7 +3953,7 @@
       </c>
     </row>
     <row r="87" spans="2:14" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B87" s="30"/>
+      <c r="B87" s="22"/>
       <c r="C87" s="4"/>
       <c r="D87" s="4"/>
       <c r="E87" s="4"/>
@@ -3604,7 +3985,7 @@
       </c>
     </row>
     <row r="88" spans="2:14" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B88" s="30"/>
+      <c r="B88" s="22"/>
       <c r="C88" s="4"/>
       <c r="D88" s="4"/>
       <c r="E88" s="4"/>
@@ -3636,7 +4017,7 @@
       </c>
     </row>
     <row r="89" spans="2:14" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B89" s="30"/>
+      <c r="B89" s="22"/>
       <c r="C89" s="4"/>
       <c r="D89" s="4"/>
       <c r="E89" s="4"/>
@@ -3668,7 +4049,7 @@
       </c>
     </row>
     <row r="90" spans="2:14" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B90" s="30"/>
+      <c r="B90" s="22"/>
       <c r="C90" s="4"/>
       <c r="D90" s="4"/>
       <c r="E90" s="4"/>
@@ -3700,7 +4081,7 @@
       </c>
     </row>
     <row r="91" spans="2:14" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B91" s="30"/>
+      <c r="B91" s="22"/>
       <c r="C91" s="4"/>
       <c r="D91" s="4"/>
       <c r="E91" s="4"/>
@@ -3751,11 +4132,11 @@
       </c>
       <c r="H93" s="5">
         <f>SUM(H9:H91)</f>
-        <v>0</v>
+        <v>83.100000000000009</v>
       </c>
       <c r="I93" s="10">
         <f>H93/2</f>
-        <v>0</v>
+        <v>41.550000000000004</v>
       </c>
       <c r="J93" s="13"/>
       <c r="K93" s="5">
@@ -3791,7 +4172,7 @@
       </c>
       <c r="H95" s="5">
         <f>H94-H93</f>
-        <v>0</v>
+        <v>-83.100000000000009</v>
       </c>
       <c r="I95" s="5"/>
       <c r="L95" s="20">
@@ -3823,4 +4204,2949 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D85"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+    </row>
+    <row r="3" spans="1:4" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="32">
+        <v>0.1</v>
+      </c>
+      <c r="C3" s="32">
+        <v>0.2</v>
+      </c>
+      <c r="D3" s="32">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="32">
+        <v>0.1</v>
+      </c>
+      <c r="C4" s="32">
+        <v>0.2</v>
+      </c>
+      <c r="D4" s="32">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="32">
+        <v>0.1</v>
+      </c>
+      <c r="C5" s="32">
+        <v>0.2</v>
+      </c>
+      <c r="D5" s="32">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="32">
+        <v>0.1</v>
+      </c>
+      <c r="C6" s="32">
+        <v>0.2</v>
+      </c>
+      <c r="D6" s="32">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="32">
+        <v>0.1</v>
+      </c>
+      <c r="C7" s="32">
+        <v>0.2</v>
+      </c>
+      <c r="D7" s="32">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="32">
+        <v>0.1</v>
+      </c>
+      <c r="C8" s="32">
+        <v>0.2</v>
+      </c>
+      <c r="D8" s="32">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="32">
+        <v>0.1</v>
+      </c>
+      <c r="C9" s="32">
+        <v>0.2</v>
+      </c>
+      <c r="D9" s="32">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="32">
+        <v>0.1</v>
+      </c>
+      <c r="C10" s="32">
+        <v>0.2</v>
+      </c>
+      <c r="D10" s="32">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="32">
+        <v>0.1</v>
+      </c>
+      <c r="C11" s="32">
+        <v>0.2</v>
+      </c>
+      <c r="D11" s="32">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="32">
+        <v>0.1</v>
+      </c>
+      <c r="C12" s="32">
+        <v>0.2</v>
+      </c>
+      <c r="D12" s="32">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="32">
+        <v>0.1</v>
+      </c>
+      <c r="C13" s="32">
+        <v>0.2</v>
+      </c>
+      <c r="D13" s="32">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="32">
+        <v>0.1</v>
+      </c>
+      <c r="C14" s="32">
+        <v>0.2</v>
+      </c>
+      <c r="D14" s="32">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="32">
+        <v>0.1</v>
+      </c>
+      <c r="C15" s="32">
+        <v>0.2</v>
+      </c>
+      <c r="D15" s="32">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="32">
+        <v>0.1</v>
+      </c>
+      <c r="C16" s="32">
+        <v>0.2</v>
+      </c>
+      <c r="D16" s="32">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="32">
+        <v>0.1</v>
+      </c>
+      <c r="C17" s="32">
+        <v>0.2</v>
+      </c>
+      <c r="D17" s="32">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="32">
+        <v>0.2</v>
+      </c>
+      <c r="C18" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="D18" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="C19" s="32">
+        <v>1</v>
+      </c>
+      <c r="D19" s="32">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="32">
+        <v>2</v>
+      </c>
+      <c r="C20" s="32">
+        <v>4</v>
+      </c>
+      <c r="D20" s="32">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" s="32">
+        <v>3</v>
+      </c>
+      <c r="C21" s="32">
+        <v>4.5</v>
+      </c>
+      <c r="D21" s="32">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" s="32">
+        <v>1</v>
+      </c>
+      <c r="C22" s="32">
+        <v>3</v>
+      </c>
+      <c r="D22" s="32">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="C23" s="32">
+        <v>1</v>
+      </c>
+      <c r="D23" s="32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" s="32">
+        <v>3</v>
+      </c>
+      <c r="C24" s="32">
+        <v>4</v>
+      </c>
+      <c r="D24" s="32">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25" s="32">
+        <v>1</v>
+      </c>
+      <c r="C25" s="32">
+        <v>1.5</v>
+      </c>
+      <c r="D25" s="32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="B26" s="32">
+        <v>2</v>
+      </c>
+      <c r="C26" s="32">
+        <v>4</v>
+      </c>
+      <c r="D26" s="32">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B27" s="32">
+        <v>0.1</v>
+      </c>
+      <c r="C27" s="32">
+        <v>0.2</v>
+      </c>
+      <c r="D27" s="32">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="B28" s="32">
+        <v>1</v>
+      </c>
+      <c r="C28" s="32">
+        <v>1.5</v>
+      </c>
+      <c r="D28" s="32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="B29" s="32">
+        <v>1</v>
+      </c>
+      <c r="C29" s="32">
+        <v>1.5</v>
+      </c>
+      <c r="D29" s="32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="B30" s="32">
+        <v>1</v>
+      </c>
+      <c r="C30" s="32">
+        <v>2</v>
+      </c>
+      <c r="D30" s="32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="B31" s="32">
+        <v>2</v>
+      </c>
+      <c r="C31" s="32">
+        <v>2.5</v>
+      </c>
+      <c r="D31" s="32">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B32" s="32">
+        <v>1</v>
+      </c>
+      <c r="C32" s="32">
+        <v>2</v>
+      </c>
+      <c r="D32" s="32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="B33" s="32">
+        <v>2</v>
+      </c>
+      <c r="C33" s="32">
+        <v>2.5</v>
+      </c>
+      <c r="D33" s="32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="B34" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="C34" s="32">
+        <v>1</v>
+      </c>
+      <c r="D34" s="32">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="B35" s="32">
+        <v>3</v>
+      </c>
+      <c r="C35" s="32">
+        <v>5</v>
+      </c>
+      <c r="D35" s="32">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="B36" s="32">
+        <v>2</v>
+      </c>
+      <c r="C36" s="32">
+        <v>4</v>
+      </c>
+      <c r="D36" s="32">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="B37" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="C37" s="32">
+        <v>1</v>
+      </c>
+      <c r="D37" s="32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="B38" s="32">
+        <v>1</v>
+      </c>
+      <c r="C38" s="32">
+        <v>1.5</v>
+      </c>
+      <c r="D38" s="32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="B39" s="32">
+        <v>1</v>
+      </c>
+      <c r="C39" s="32">
+        <v>1.5</v>
+      </c>
+      <c r="D39" s="32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="B40" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="C40" s="32">
+        <v>1</v>
+      </c>
+      <c r="D40" s="32">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="B41" s="32">
+        <v>1</v>
+      </c>
+      <c r="C41" s="32">
+        <v>1.5</v>
+      </c>
+      <c r="D41" s="32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="B42" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="C42" s="32">
+        <v>1</v>
+      </c>
+      <c r="D42" s="32">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="B43" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="C43" s="32">
+        <v>1</v>
+      </c>
+      <c r="D43" s="32">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="B44" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="C44" s="32">
+        <v>1</v>
+      </c>
+      <c r="D44" s="32">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="B45" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="C45" s="32">
+        <v>1</v>
+      </c>
+      <c r="D45" s="32">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="B46" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="C46" s="32">
+        <v>1</v>
+      </c>
+      <c r="D46" s="32">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="B47" s="32">
+        <v>1</v>
+      </c>
+      <c r="C47" s="32">
+        <v>1.5</v>
+      </c>
+      <c r="D47" s="32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="B48" s="32">
+        <v>1</v>
+      </c>
+      <c r="C48" s="32">
+        <v>1.5</v>
+      </c>
+      <c r="D48" s="32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="B49" s="32">
+        <v>1</v>
+      </c>
+      <c r="C49" s="32">
+        <v>1.5</v>
+      </c>
+      <c r="D49" s="32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="B50" s="32">
+        <v>1</v>
+      </c>
+      <c r="C50" s="32">
+        <v>1.5</v>
+      </c>
+      <c r="D50" s="32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="B51" s="32">
+        <v>1</v>
+      </c>
+      <c r="C51" s="32">
+        <v>1.5</v>
+      </c>
+      <c r="D51" s="32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="B52" s="32">
+        <v>3</v>
+      </c>
+      <c r="C52" s="32">
+        <v>4</v>
+      </c>
+      <c r="D52" s="32">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="B53" s="32">
+        <v>3</v>
+      </c>
+      <c r="C53" s="32">
+        <v>4</v>
+      </c>
+      <c r="D53" s="32">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="B54" s="32">
+        <v>3</v>
+      </c>
+      <c r="C54" s="32">
+        <v>4</v>
+      </c>
+      <c r="D54" s="32">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="21"/>
+      <c r="B55" s="3"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3"/>
+    </row>
+    <row r="56" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="22"/>
+      <c r="B56" s="4"/>
+      <c r="C56" s="4"/>
+      <c r="D56" s="4"/>
+    </row>
+    <row r="57" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="22"/>
+      <c r="B57" s="4"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="4"/>
+    </row>
+    <row r="58" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="22"/>
+      <c r="B58" s="4"/>
+      <c r="C58" s="4"/>
+      <c r="D58" s="4"/>
+    </row>
+    <row r="59" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="21"/>
+      <c r="B59" s="3"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
+    </row>
+    <row r="60" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="21"/>
+      <c r="B60" s="3"/>
+      <c r="C60" s="3"/>
+      <c r="D60" s="3"/>
+    </row>
+    <row r="61" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="22"/>
+      <c r="B61" s="4"/>
+      <c r="C61" s="4"/>
+      <c r="D61" s="4"/>
+    </row>
+    <row r="62" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="22"/>
+      <c r="B62" s="4"/>
+      <c r="C62" s="4"/>
+      <c r="D62" s="4"/>
+    </row>
+    <row r="63" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="22"/>
+      <c r="B63" s="4"/>
+      <c r="C63" s="4"/>
+      <c r="D63" s="4"/>
+    </row>
+    <row r="64" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="21"/>
+      <c r="B64" s="3"/>
+      <c r="C64" s="3"/>
+      <c r="D64" s="3"/>
+    </row>
+    <row r="65" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="21"/>
+      <c r="B65" s="3"/>
+      <c r="C65" s="3"/>
+      <c r="D65" s="3"/>
+    </row>
+    <row r="66" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="22"/>
+      <c r="B66" s="4"/>
+      <c r="C66" s="4"/>
+      <c r="D66" s="4"/>
+    </row>
+    <row r="67" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="22"/>
+      <c r="B67" s="4"/>
+      <c r="C67" s="4"/>
+      <c r="D67" s="4"/>
+    </row>
+    <row r="68" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="22"/>
+      <c r="B68" s="4"/>
+      <c r="C68" s="4"/>
+      <c r="D68" s="4"/>
+    </row>
+    <row r="69" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="21"/>
+      <c r="B69" s="3"/>
+      <c r="C69" s="3"/>
+      <c r="D69" s="3"/>
+    </row>
+    <row r="70" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="21"/>
+      <c r="B70" s="3"/>
+      <c r="C70" s="3"/>
+      <c r="D70" s="3"/>
+    </row>
+    <row r="71" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="22"/>
+      <c r="B71" s="4"/>
+      <c r="C71" s="4"/>
+      <c r="D71" s="4"/>
+    </row>
+    <row r="72" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="22"/>
+      <c r="B72" s="4"/>
+      <c r="C72" s="4"/>
+      <c r="D72" s="4"/>
+    </row>
+    <row r="73" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="22"/>
+      <c r="B73" s="4"/>
+      <c r="C73" s="4"/>
+      <c r="D73" s="4"/>
+    </row>
+    <row r="74" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="21"/>
+      <c r="B74" s="3"/>
+      <c r="C74" s="3"/>
+      <c r="D74" s="3"/>
+    </row>
+    <row r="75" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="21"/>
+      <c r="B75" s="3"/>
+      <c r="C75" s="3"/>
+      <c r="D75" s="3"/>
+    </row>
+    <row r="76" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="22"/>
+      <c r="B76" s="4"/>
+      <c r="C76" s="4"/>
+      <c r="D76" s="4"/>
+    </row>
+    <row r="77" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="22"/>
+      <c r="B77" s="4"/>
+      <c r="C77" s="4"/>
+      <c r="D77" s="4"/>
+    </row>
+    <row r="78" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="22"/>
+      <c r="B78" s="4"/>
+      <c r="C78" s="4"/>
+      <c r="D78" s="4"/>
+    </row>
+    <row r="79" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="21"/>
+      <c r="B79" s="3"/>
+      <c r="C79" s="3"/>
+      <c r="D79" s="3"/>
+    </row>
+    <row r="80" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="21"/>
+      <c r="B80" s="3"/>
+      <c r="C80" s="3"/>
+      <c r="D80" s="3"/>
+    </row>
+    <row r="81" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="22"/>
+      <c r="B81" s="4"/>
+      <c r="C81" s="4"/>
+      <c r="D81" s="4"/>
+    </row>
+    <row r="82" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="22"/>
+      <c r="B82" s="4"/>
+      <c r="C82" s="4"/>
+      <c r="D82" s="4"/>
+    </row>
+    <row r="83" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="22"/>
+      <c r="B83" s="4"/>
+      <c r="C83" s="4"/>
+      <c r="D83" s="4"/>
+    </row>
+    <row r="84" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="22"/>
+      <c r="B84" s="4"/>
+      <c r="C84" s="4"/>
+      <c r="D84" s="4"/>
+    </row>
+    <row r="85" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="22"/>
+      <c r="B85" s="4"/>
+      <c r="C85" s="4"/>
+      <c r="D85" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D54"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="33.5703125" customWidth="1"/>
+    <col min="2" max="2" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+    </row>
+    <row r="3" spans="1:4" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+    </row>
+    <row r="4" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+    </row>
+    <row r="5" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+    </row>
+    <row r="6" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+    </row>
+    <row r="7" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+    </row>
+    <row r="8" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+    </row>
+    <row r="9" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+    </row>
+    <row r="10" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="32"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+    </row>
+    <row r="11" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="32"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
+    </row>
+    <row r="12" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="32"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
+    </row>
+    <row r="13" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="32"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
+    </row>
+    <row r="14" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="32"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
+    </row>
+    <row r="15" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="32"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="32"/>
+    </row>
+    <row r="16" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="32"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="32"/>
+    </row>
+    <row r="17" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="32"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="32"/>
+    </row>
+    <row r="18" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="32"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="32"/>
+    </row>
+    <row r="19" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="32"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="32"/>
+    </row>
+    <row r="20" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="32"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="32"/>
+    </row>
+    <row r="21" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" s="32"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="32"/>
+    </row>
+    <row r="22" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" s="32"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="32"/>
+    </row>
+    <row r="23" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" s="32"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="32"/>
+    </row>
+    <row r="24" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" s="32"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="32"/>
+    </row>
+    <row r="25" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25" s="32"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="32"/>
+    </row>
+    <row r="26" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="B26" s="32"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="32"/>
+    </row>
+    <row r="27" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B27" s="32"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="32"/>
+    </row>
+    <row r="28" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="B28" s="32"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="32"/>
+    </row>
+    <row r="29" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="B29" s="32"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="32"/>
+    </row>
+    <row r="30" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="B30" s="32"/>
+      <c r="C30" s="32"/>
+      <c r="D30" s="32"/>
+    </row>
+    <row r="31" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="B31" s="32"/>
+      <c r="C31" s="32"/>
+      <c r="D31" s="32"/>
+    </row>
+    <row r="32" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B32" s="32"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="32"/>
+    </row>
+    <row r="33" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="B33" s="32"/>
+      <c r="C33" s="32"/>
+      <c r="D33" s="32"/>
+    </row>
+    <row r="34" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="B34" s="32"/>
+      <c r="C34" s="32"/>
+      <c r="D34" s="32"/>
+    </row>
+    <row r="35" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="B35" s="32"/>
+      <c r="C35" s="32"/>
+      <c r="D35" s="32"/>
+    </row>
+    <row r="36" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="B36" s="32"/>
+      <c r="C36" s="32"/>
+      <c r="D36" s="32"/>
+    </row>
+    <row r="37" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="B37" s="32"/>
+      <c r="C37" s="32"/>
+      <c r="D37" s="32"/>
+    </row>
+    <row r="38" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="B38" s="32"/>
+      <c r="C38" s="32"/>
+      <c r="D38" s="32"/>
+    </row>
+    <row r="39" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="B39" s="32"/>
+      <c r="C39" s="32"/>
+      <c r="D39" s="32"/>
+    </row>
+    <row r="40" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="B40" s="32"/>
+      <c r="C40" s="32"/>
+      <c r="D40" s="32"/>
+    </row>
+    <row r="41" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="B41" s="32"/>
+      <c r="C41" s="32"/>
+      <c r="D41" s="32"/>
+    </row>
+    <row r="42" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="B42" s="32"/>
+      <c r="C42" s="32"/>
+      <c r="D42" s="32"/>
+    </row>
+    <row r="43" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="B43" s="32"/>
+      <c r="C43" s="32"/>
+      <c r="D43" s="32"/>
+    </row>
+    <row r="44" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="B44" s="32"/>
+      <c r="C44" s="32"/>
+      <c r="D44" s="32"/>
+    </row>
+    <row r="45" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="B45" s="32"/>
+      <c r="C45" s="32"/>
+      <c r="D45" s="32"/>
+    </row>
+    <row r="46" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="B46" s="32"/>
+      <c r="C46" s="32"/>
+      <c r="D46" s="32"/>
+    </row>
+    <row r="47" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="B47" s="32"/>
+      <c r="C47" s="32"/>
+      <c r="D47" s="32"/>
+    </row>
+    <row r="48" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="B48" s="32"/>
+      <c r="C48" s="32"/>
+      <c r="D48" s="32"/>
+    </row>
+    <row r="49" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="B49" s="32"/>
+      <c r="C49" s="32"/>
+      <c r="D49" s="32"/>
+    </row>
+    <row r="50" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="B50" s="32"/>
+      <c r="C50" s="32"/>
+      <c r="D50" s="32"/>
+    </row>
+    <row r="51" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="B51" s="32"/>
+      <c r="C51" s="32"/>
+      <c r="D51" s="32"/>
+    </row>
+    <row r="52" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="B52" s="32"/>
+      <c r="C52" s="32"/>
+      <c r="D52" s="32"/>
+    </row>
+    <row r="53" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="B53" s="32"/>
+      <c r="C53" s="32"/>
+      <c r="D53" s="32"/>
+    </row>
+    <row r="54" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="B54" s="32"/>
+      <c r="C54" s="32"/>
+      <c r="D54" s="32"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G54"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="33.5703125" customWidth="1"/>
+    <col min="2" max="2" width="23.85546875" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="22.28515625" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="24.7109375" hidden="1" customWidth="1"/>
+    <col min="5" max="6" width="0" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="23.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="34" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+    </row>
+    <row r="3" spans="1:7" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="32">
+        <f>(Nathan!B3+Tyler!B3)/2</f>
+        <v>0.05</v>
+      </c>
+      <c r="C3" s="32">
+        <f>(Nathan!C3+Tyler!C3)/2</f>
+        <v>0.1</v>
+      </c>
+      <c r="D3" s="32">
+        <f>(Nathan!D3+Tyler!D3)/2</f>
+        <v>0.25</v>
+      </c>
+      <c r="E3" s="8">
+        <f>(B3+4*C3+D3)/6</f>
+        <v>0.11666666666666665</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0</v>
+      </c>
+      <c r="G3" s="8">
+        <f ca="1">$F3+$G3</f>
+        <v>0.23333333333333331</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="32">
+        <f>(Nathan!B4+Tyler!B4)/2</f>
+        <v>0.05</v>
+      </c>
+      <c r="C4" s="32">
+        <f>(Nathan!C4+Tyler!C4)/2</f>
+        <v>0.1</v>
+      </c>
+      <c r="D4" s="32">
+        <f>(Nathan!D4+Tyler!D4)/2</f>
+        <v>0.25</v>
+      </c>
+      <c r="E4" s="8">
+        <f>(B4+4*C4+D4)/6</f>
+        <v>0.11666666666666665</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0</v>
+      </c>
+      <c r="G4" s="8">
+        <f t="shared" ref="G4:G54" si="0">E4+F4</f>
+        <v>0.11666666666666665</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="32">
+        <f>(Nathan!B5+Tyler!B5)/2</f>
+        <v>0.05</v>
+      </c>
+      <c r="C5" s="32">
+        <f>(Nathan!C5+Tyler!C5)/2</f>
+        <v>0.1</v>
+      </c>
+      <c r="D5" s="32">
+        <f>(Nathan!D5+Tyler!D5)/2</f>
+        <v>0.25</v>
+      </c>
+      <c r="E5" s="8">
+        <f t="shared" ref="E5:E8" si="1">(B5+4*C5+D5)/6</f>
+        <v>0.11666666666666665</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0</v>
+      </c>
+      <c r="G5" s="8">
+        <f t="shared" si="0"/>
+        <v>0.11666666666666665</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="32">
+        <f>(Nathan!B6+Tyler!B6)/2</f>
+        <v>0.05</v>
+      </c>
+      <c r="C6" s="32">
+        <f>(Nathan!C6+Tyler!C6)/2</f>
+        <v>0.1</v>
+      </c>
+      <c r="D6" s="32">
+        <f>(Nathan!D6+Tyler!D6)/2</f>
+        <v>0.25</v>
+      </c>
+      <c r="E6" s="8">
+        <f t="shared" si="1"/>
+        <v>0.11666666666666665</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0</v>
+      </c>
+      <c r="G6" s="8">
+        <f t="shared" si="0"/>
+        <v>0.11666666666666665</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="32">
+        <f>(Nathan!B7+Tyler!B7)/2</f>
+        <v>0.05</v>
+      </c>
+      <c r="C7" s="32">
+        <f>(Nathan!C7+Tyler!C7)/2</f>
+        <v>0.1</v>
+      </c>
+      <c r="D7" s="32">
+        <f>(Nathan!D7+Tyler!D7)/2</f>
+        <v>0.25</v>
+      </c>
+      <c r="E7" s="8">
+        <f t="shared" si="1"/>
+        <v>0.11666666666666665</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0</v>
+      </c>
+      <c r="G7" s="8">
+        <f t="shared" si="0"/>
+        <v>0.11666666666666665</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="32">
+        <f>(Nathan!B8+Tyler!B8)/2</f>
+        <v>0.05</v>
+      </c>
+      <c r="C8" s="32">
+        <f>(Nathan!C8+Tyler!C8)/2</f>
+        <v>0.1</v>
+      </c>
+      <c r="D8" s="32">
+        <f>(Nathan!D8+Tyler!D8)/2</f>
+        <v>0.25</v>
+      </c>
+      <c r="E8" s="8">
+        <f t="shared" si="1"/>
+        <v>0.11666666666666665</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0</v>
+      </c>
+      <c r="G8" s="8">
+        <f t="shared" si="0"/>
+        <v>0.11666666666666665</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="32">
+        <f>(Nathan!B9+Tyler!B9)/2</f>
+        <v>0.05</v>
+      </c>
+      <c r="C9" s="32">
+        <f>(Nathan!C9+Tyler!C9)/2</f>
+        <v>0.1</v>
+      </c>
+      <c r="D9" s="32">
+        <f>(Nathan!D9+Tyler!D9)/2</f>
+        <v>0.25</v>
+      </c>
+      <c r="E9" s="8">
+        <f>(B9+4*C9+D9)/6</f>
+        <v>0.11666666666666665</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0</v>
+      </c>
+      <c r="G9" s="8">
+        <f t="shared" si="0"/>
+        <v>0.11666666666666665</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="32">
+        <f>(Nathan!B10+Tyler!B10)/2</f>
+        <v>0.05</v>
+      </c>
+      <c r="C10" s="32">
+        <f>(Nathan!C10+Tyler!C10)/2</f>
+        <v>0.1</v>
+      </c>
+      <c r="D10" s="32">
+        <f>(Nathan!D10+Tyler!D10)/2</f>
+        <v>0.25</v>
+      </c>
+      <c r="E10" s="8">
+        <f t="shared" ref="E10:E13" si="2">(B10+4*C10+D10)/6</f>
+        <v>0.11666666666666665</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0</v>
+      </c>
+      <c r="G10" s="8">
+        <f t="shared" si="0"/>
+        <v>0.11666666666666665</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="32">
+        <f>(Nathan!B11+Tyler!B11)/2</f>
+        <v>0.05</v>
+      </c>
+      <c r="C11" s="32">
+        <f>(Nathan!C11+Tyler!C11)/2</f>
+        <v>0.1</v>
+      </c>
+      <c r="D11" s="32">
+        <f>(Nathan!D11+Tyler!D11)/2</f>
+        <v>0.25</v>
+      </c>
+      <c r="E11" s="8">
+        <f t="shared" si="2"/>
+        <v>0.11666666666666665</v>
+      </c>
+      <c r="F11" s="3">
+        <v>0</v>
+      </c>
+      <c r="G11" s="8">
+        <f t="shared" si="0"/>
+        <v>0.11666666666666665</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="32">
+        <f>(Nathan!B12+Tyler!B12)/2</f>
+        <v>0.05</v>
+      </c>
+      <c r="C12" s="32">
+        <f>(Nathan!C12+Tyler!C12)/2</f>
+        <v>0.1</v>
+      </c>
+      <c r="D12" s="32">
+        <f>(Nathan!D12+Tyler!D12)/2</f>
+        <v>0.25</v>
+      </c>
+      <c r="E12" s="8">
+        <f t="shared" si="2"/>
+        <v>0.11666666666666665</v>
+      </c>
+      <c r="F12" s="3">
+        <v>0</v>
+      </c>
+      <c r="G12" s="8">
+        <f t="shared" si="0"/>
+        <v>0.11666666666666665</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="32">
+        <f>(Nathan!B13+Tyler!B13)/2</f>
+        <v>0.05</v>
+      </c>
+      <c r="C13" s="32">
+        <f>(Nathan!C13+Tyler!C13)/2</f>
+        <v>0.1</v>
+      </c>
+      <c r="D13" s="32">
+        <f>(Nathan!D13+Tyler!D13)/2</f>
+        <v>0.25</v>
+      </c>
+      <c r="E13" s="8">
+        <f t="shared" si="2"/>
+        <v>0.11666666666666665</v>
+      </c>
+      <c r="F13" s="3">
+        <v>0</v>
+      </c>
+      <c r="G13" s="8">
+        <f t="shared" si="0"/>
+        <v>0.11666666666666665</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="32">
+        <f>(Nathan!B14+Tyler!B14)/2</f>
+        <v>0.05</v>
+      </c>
+      <c r="C14" s="32">
+        <f>(Nathan!C14+Tyler!C14)/2</f>
+        <v>0.1</v>
+      </c>
+      <c r="D14" s="32">
+        <f>(Nathan!D14+Tyler!D14)/2</f>
+        <v>0.25</v>
+      </c>
+      <c r="E14" s="8">
+        <f>(B14+4*C14+D14)/6</f>
+        <v>0.11666666666666665</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="8">
+        <f t="shared" si="0"/>
+        <v>0.11666666666666665</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="32">
+        <f>(Nathan!B15+Tyler!B15)/2</f>
+        <v>0.05</v>
+      </c>
+      <c r="C15" s="32">
+        <f>(Nathan!C15+Tyler!C15)/2</f>
+        <v>0.1</v>
+      </c>
+      <c r="D15" s="32">
+        <f>(Nathan!D15+Tyler!D15)/2</f>
+        <v>0.25</v>
+      </c>
+      <c r="E15" s="8">
+        <f t="shared" ref="E15:E18" si="3">(B15+4*C15+D15)/6</f>
+        <v>0.11666666666666665</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0</v>
+      </c>
+      <c r="G15" s="8">
+        <f t="shared" si="0"/>
+        <v>0.11666666666666665</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="32">
+        <f>(Nathan!B16+Tyler!B16)/2</f>
+        <v>0.05</v>
+      </c>
+      <c r="C16" s="32">
+        <f>(Nathan!C16+Tyler!C16)/2</f>
+        <v>0.1</v>
+      </c>
+      <c r="D16" s="32">
+        <f>(Nathan!D16+Tyler!D16)/2</f>
+        <v>0.25</v>
+      </c>
+      <c r="E16" s="8">
+        <f t="shared" si="3"/>
+        <v>0.11666666666666665</v>
+      </c>
+      <c r="F16" s="3">
+        <v>0</v>
+      </c>
+      <c r="G16" s="8">
+        <f t="shared" si="0"/>
+        <v>0.11666666666666665</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="32">
+        <f>(Nathan!B17+Tyler!B17)/2</f>
+        <v>0.05</v>
+      </c>
+      <c r="C17" s="32">
+        <f>(Nathan!C17+Tyler!C17)/2</f>
+        <v>0.1</v>
+      </c>
+      <c r="D17" s="32">
+        <f>(Nathan!D17+Tyler!D17)/2</f>
+        <v>0.25</v>
+      </c>
+      <c r="E17" s="8">
+        <f t="shared" si="3"/>
+        <v>0.11666666666666665</v>
+      </c>
+      <c r="F17" s="3">
+        <v>0</v>
+      </c>
+      <c r="G17" s="8">
+        <f t="shared" si="0"/>
+        <v>0.11666666666666665</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="32">
+        <f>(Nathan!B18+Tyler!B18)/2</f>
+        <v>0.1</v>
+      </c>
+      <c r="C18" s="32">
+        <f>(Nathan!C18+Tyler!C18)/2</f>
+        <v>0.25</v>
+      </c>
+      <c r="D18" s="32">
+        <f>(Nathan!D18+Tyler!D18)/2</f>
+        <v>0.5</v>
+      </c>
+      <c r="E18" s="8">
+        <f t="shared" si="3"/>
+        <v>0.26666666666666666</v>
+      </c>
+      <c r="F18" s="3">
+        <v>0</v>
+      </c>
+      <c r="G18" s="8">
+        <f t="shared" si="0"/>
+        <v>0.26666666666666666</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="32">
+        <f>(Nathan!B19+Tyler!B19)/2</f>
+        <v>0.25</v>
+      </c>
+      <c r="C19" s="32">
+        <f>(Nathan!C19+Tyler!C19)/2</f>
+        <v>0.5</v>
+      </c>
+      <c r="D19" s="32">
+        <f>(Nathan!D19+Tyler!D19)/2</f>
+        <v>0.75</v>
+      </c>
+      <c r="E19" s="8">
+        <f>(B19+4*C19+D19)/6</f>
+        <v>0.5</v>
+      </c>
+      <c r="F19" s="3">
+        <v>0</v>
+      </c>
+      <c r="G19" s="8">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="32">
+        <f>(Nathan!B20+Tyler!B20)/2</f>
+        <v>1</v>
+      </c>
+      <c r="C20" s="32">
+        <f>(Nathan!C20+Tyler!C20)/2</f>
+        <v>2</v>
+      </c>
+      <c r="D20" s="32">
+        <f>(Nathan!D20+Tyler!D20)/2</f>
+        <v>4</v>
+      </c>
+      <c r="E20" s="8">
+        <f t="shared" ref="E20:E23" si="4">(B20+4*C20+D20)/6</f>
+        <v>2.1666666666666665</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="8">
+        <f t="shared" si="0"/>
+        <v>2.1666666666666665</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" s="32">
+        <f>(Nathan!B21+Tyler!B21)/2</f>
+        <v>1.5</v>
+      </c>
+      <c r="C21" s="32">
+        <f>(Nathan!C21+Tyler!C21)/2</f>
+        <v>2.25</v>
+      </c>
+      <c r="D21" s="32">
+        <f>(Nathan!D21+Tyler!D21)/2</f>
+        <v>4</v>
+      </c>
+      <c r="E21" s="8">
+        <f t="shared" si="4"/>
+        <v>2.4166666666666665</v>
+      </c>
+      <c r="F21" s="3">
+        <v>0</v>
+      </c>
+      <c r="G21" s="8">
+        <f t="shared" si="0"/>
+        <v>2.4166666666666665</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" s="32">
+        <f>(Nathan!B22+Tyler!B22)/2</f>
+        <v>0.5</v>
+      </c>
+      <c r="C22" s="32">
+        <f>(Nathan!C22+Tyler!C22)/2</f>
+        <v>1.5</v>
+      </c>
+      <c r="D22" s="32">
+        <f>(Nathan!D22+Tyler!D22)/2</f>
+        <v>2.5</v>
+      </c>
+      <c r="E22" s="8">
+        <f t="shared" si="4"/>
+        <v>1.5</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="8">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" s="32">
+        <f>(Nathan!B23+Tyler!B23)/2</f>
+        <v>0.25</v>
+      </c>
+      <c r="C23" s="32">
+        <f>(Nathan!C23+Tyler!C23)/2</f>
+        <v>0.5</v>
+      </c>
+      <c r="D23" s="32">
+        <f>(Nathan!D23+Tyler!D23)/2</f>
+        <v>1</v>
+      </c>
+      <c r="E23" s="8">
+        <f t="shared" si="4"/>
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="F23" s="3">
+        <v>0</v>
+      </c>
+      <c r="G23" s="8">
+        <f t="shared" si="0"/>
+        <v>0.54166666666666663</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" s="32">
+        <f>(Nathan!B24+Tyler!B24)/2</f>
+        <v>1.5</v>
+      </c>
+      <c r="C24" s="32">
+        <f>(Nathan!C24+Tyler!C24)/2</f>
+        <v>2</v>
+      </c>
+      <c r="D24" s="32">
+        <f>(Nathan!D24+Tyler!D24)/2</f>
+        <v>3</v>
+      </c>
+      <c r="E24" s="8">
+        <f>(B24+4*C24+D24)/6</f>
+        <v>2.0833333333333335</v>
+      </c>
+      <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="8">
+        <f t="shared" si="0"/>
+        <v>2.0833333333333335</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25" s="32">
+        <f>(Nathan!B25+Tyler!B25)/2</f>
+        <v>0.5</v>
+      </c>
+      <c r="C25" s="32">
+        <f>(Nathan!C25+Tyler!C25)/2</f>
+        <v>0.75</v>
+      </c>
+      <c r="D25" s="32">
+        <f>(Nathan!D25+Tyler!D25)/2</f>
+        <v>1.5</v>
+      </c>
+      <c r="E25" s="8">
+        <f t="shared" ref="E25:E28" si="5">(B25+4*C25+D25)/6</f>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="F25" s="3">
+        <v>0</v>
+      </c>
+      <c r="G25" s="8">
+        <f t="shared" si="0"/>
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="B26" s="32">
+        <f>(Nathan!B26+Tyler!B26)/2</f>
+        <v>1</v>
+      </c>
+      <c r="C26" s="32">
+        <f>(Nathan!C26+Tyler!C26)/2</f>
+        <v>2</v>
+      </c>
+      <c r="D26" s="32">
+        <f>(Nathan!D26+Tyler!D26)/2</f>
+        <v>3</v>
+      </c>
+      <c r="E26" s="8">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="F26" s="3">
+        <v>0</v>
+      </c>
+      <c r="G26" s="8">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B27" s="32">
+        <f>(Nathan!B27+Tyler!B27)/2</f>
+        <v>0.05</v>
+      </c>
+      <c r="C27" s="32">
+        <f>(Nathan!C27+Tyler!C27)/2</f>
+        <v>0.1</v>
+      </c>
+      <c r="D27" s="32">
+        <f>(Nathan!D27+Tyler!D27)/2</f>
+        <v>0.25</v>
+      </c>
+      <c r="E27" s="8">
+        <f t="shared" si="5"/>
+        <v>0.11666666666666665</v>
+      </c>
+      <c r="F27" s="3">
+        <v>0</v>
+      </c>
+      <c r="G27" s="8">
+        <f t="shared" si="0"/>
+        <v>0.11666666666666665</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="B28" s="32">
+        <f>(Nathan!B28+Tyler!B28)/2</f>
+        <v>0.5</v>
+      </c>
+      <c r="C28" s="32">
+        <f>(Nathan!C28+Tyler!C28)/2</f>
+        <v>0.75</v>
+      </c>
+      <c r="D28" s="32">
+        <f>(Nathan!D28+Tyler!D28)/2</f>
+        <v>1.5</v>
+      </c>
+      <c r="E28" s="8">
+        <f t="shared" si="5"/>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="F28" s="3">
+        <v>0</v>
+      </c>
+      <c r="G28" s="8">
+        <f t="shared" si="0"/>
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="B29" s="32">
+        <f>(Nathan!B29+Tyler!B29)/2</f>
+        <v>0.5</v>
+      </c>
+      <c r="C29" s="32">
+        <f>(Nathan!C29+Tyler!C29)/2</f>
+        <v>0.75</v>
+      </c>
+      <c r="D29" s="32">
+        <f>(Nathan!D29+Tyler!D29)/2</f>
+        <v>1.5</v>
+      </c>
+      <c r="E29" s="8">
+        <f>(B29+4*C29+D29)/6</f>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="8">
+        <f t="shared" si="0"/>
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="B30" s="32">
+        <f>(Nathan!B30+Tyler!B30)/2</f>
+        <v>0.5</v>
+      </c>
+      <c r="C30" s="32">
+        <f>(Nathan!C30+Tyler!C30)/2</f>
+        <v>1</v>
+      </c>
+      <c r="D30" s="32">
+        <f>(Nathan!D30+Tyler!D30)/2</f>
+        <v>1.5</v>
+      </c>
+      <c r="E30" s="8">
+        <f t="shared" ref="E30:E33" si="6">(B30+4*C30+D30)/6</f>
+        <v>1</v>
+      </c>
+      <c r="F30" s="3">
+        <v>0</v>
+      </c>
+      <c r="G30" s="8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="B31" s="32">
+        <f>(Nathan!B31+Tyler!B31)/2</f>
+        <v>1</v>
+      </c>
+      <c r="C31" s="32">
+        <f>(Nathan!C31+Tyler!C31)/2</f>
+        <v>1.25</v>
+      </c>
+      <c r="D31" s="32">
+        <f>(Nathan!D31+Tyler!D31)/2</f>
+        <v>2</v>
+      </c>
+      <c r="E31" s="8">
+        <f t="shared" si="6"/>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="F31" s="3">
+        <v>0</v>
+      </c>
+      <c r="G31" s="8">
+        <f t="shared" si="0"/>
+        <v>1.3333333333333333</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B32" s="32">
+        <f>(Nathan!B32+Tyler!B32)/2</f>
+        <v>0.5</v>
+      </c>
+      <c r="C32" s="32">
+        <f>(Nathan!C32+Tyler!C32)/2</f>
+        <v>1</v>
+      </c>
+      <c r="D32" s="32">
+        <f>(Nathan!D32+Tyler!D32)/2</f>
+        <v>1.5</v>
+      </c>
+      <c r="E32" s="8">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="B33" s="32">
+        <f>(Nathan!B33+Tyler!B33)/2</f>
+        <v>1</v>
+      </c>
+      <c r="C33" s="32">
+        <f>(Nathan!C33+Tyler!C33)/2</f>
+        <v>1.25</v>
+      </c>
+      <c r="D33" s="32">
+        <f>(Nathan!D33+Tyler!D33)/2</f>
+        <v>1.5</v>
+      </c>
+      <c r="E33" s="8">
+        <f t="shared" si="6"/>
+        <v>1.25</v>
+      </c>
+      <c r="F33" s="3">
+        <v>0</v>
+      </c>
+      <c r="G33" s="8">
+        <f t="shared" si="0"/>
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="B34" s="32">
+        <f>(Nathan!B34+Tyler!B34)/2</f>
+        <v>0.25</v>
+      </c>
+      <c r="C34" s="32">
+        <f>(Nathan!C34+Tyler!C34)/2</f>
+        <v>0.5</v>
+      </c>
+      <c r="D34" s="32">
+        <f>(Nathan!D34+Tyler!D34)/2</f>
+        <v>0.75</v>
+      </c>
+      <c r="E34" s="8">
+        <f>(B34+4*C34+D34)/6</f>
+        <v>0.5</v>
+      </c>
+      <c r="F34" s="3">
+        <v>0</v>
+      </c>
+      <c r="G34" s="8">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="B35" s="32">
+        <f>(Nathan!B35+Tyler!B35)/2</f>
+        <v>1.5</v>
+      </c>
+      <c r="C35" s="32">
+        <f>(Nathan!C35+Tyler!C35)/2</f>
+        <v>2.5</v>
+      </c>
+      <c r="D35" s="32">
+        <f>(Nathan!D35+Tyler!D35)/2</f>
+        <v>3.5</v>
+      </c>
+      <c r="E35" s="8">
+        <f t="shared" ref="E35:E38" si="7">(B35+4*C35+D35)/6</f>
+        <v>2.5</v>
+      </c>
+      <c r="F35" s="3">
+        <v>0</v>
+      </c>
+      <c r="G35" s="8">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="B36" s="32">
+        <f>(Nathan!B36+Tyler!B36)/2</f>
+        <v>1</v>
+      </c>
+      <c r="C36" s="32">
+        <f>(Nathan!C36+Tyler!C36)/2</f>
+        <v>2</v>
+      </c>
+      <c r="D36" s="32">
+        <f>(Nathan!D36+Tyler!D36)/2</f>
+        <v>3</v>
+      </c>
+      <c r="E36" s="8">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="F36" s="3">
+        <v>0</v>
+      </c>
+      <c r="G36" s="8">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="B37" s="32">
+        <f>(Nathan!B37+Tyler!B37)/2</f>
+        <v>0.25</v>
+      </c>
+      <c r="C37" s="32">
+        <f>(Nathan!C37+Tyler!C37)/2</f>
+        <v>0.5</v>
+      </c>
+      <c r="D37" s="32">
+        <f>(Nathan!D37+Tyler!D37)/2</f>
+        <v>1.5</v>
+      </c>
+      <c r="E37" s="8">
+        <f t="shared" si="7"/>
+        <v>0.625</v>
+      </c>
+      <c r="F37" s="3">
+        <v>0</v>
+      </c>
+      <c r="G37" s="8">
+        <f t="shared" si="0"/>
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="B38" s="32">
+        <f>(Nathan!B38+Tyler!B38)/2</f>
+        <v>0.5</v>
+      </c>
+      <c r="C38" s="32">
+        <f>(Nathan!C38+Tyler!C38)/2</f>
+        <v>0.75</v>
+      </c>
+      <c r="D38" s="32">
+        <f>(Nathan!D38+Tyler!D38)/2</f>
+        <v>1.5</v>
+      </c>
+      <c r="E38" s="8">
+        <f t="shared" si="7"/>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="F38" s="3">
+        <v>0</v>
+      </c>
+      <c r="G38" s="8">
+        <f t="shared" si="0"/>
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="B39" s="32">
+        <f>(Nathan!B39+Tyler!B39)/2</f>
+        <v>0.5</v>
+      </c>
+      <c r="C39" s="32">
+        <f>(Nathan!C39+Tyler!C39)/2</f>
+        <v>0.75</v>
+      </c>
+      <c r="D39" s="32">
+        <f>(Nathan!D39+Tyler!D39)/2</f>
+        <v>1.5</v>
+      </c>
+      <c r="E39" s="8">
+        <f>(B39+4*C39+D39)/6</f>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="F39" s="3">
+        <v>0</v>
+      </c>
+      <c r="G39" s="8">
+        <f t="shared" si="0"/>
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="B40" s="32">
+        <f>(Nathan!B40+Tyler!B40)/2</f>
+        <v>0.25</v>
+      </c>
+      <c r="C40" s="32">
+        <f>(Nathan!C40+Tyler!C40)/2</f>
+        <v>0.5</v>
+      </c>
+      <c r="D40" s="32">
+        <f>(Nathan!D40+Tyler!D40)/2</f>
+        <v>0.75</v>
+      </c>
+      <c r="E40" s="8">
+        <f t="shared" ref="E40:E43" si="8">(B40+4*C40+D40)/6</f>
+        <v>0.5</v>
+      </c>
+      <c r="F40" s="3">
+        <v>0</v>
+      </c>
+      <c r="G40" s="8">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="B41" s="32">
+        <f>(Nathan!B41+Tyler!B41)/2</f>
+        <v>0.5</v>
+      </c>
+      <c r="C41" s="32">
+        <f>(Nathan!C41+Tyler!C41)/2</f>
+        <v>0.75</v>
+      </c>
+      <c r="D41" s="32">
+        <f>(Nathan!D41+Tyler!D41)/2</f>
+        <v>1.5</v>
+      </c>
+      <c r="E41" s="8">
+        <f t="shared" si="8"/>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="F41" s="3">
+        <v>0</v>
+      </c>
+      <c r="G41" s="8">
+        <f t="shared" si="0"/>
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="B42" s="32">
+        <f>(Nathan!B42+Tyler!B42)/2</f>
+        <v>0.25</v>
+      </c>
+      <c r="C42" s="32">
+        <f>(Nathan!C42+Tyler!C42)/2</f>
+        <v>0.5</v>
+      </c>
+      <c r="D42" s="32">
+        <f>(Nathan!D42+Tyler!D42)/2</f>
+        <v>0.75</v>
+      </c>
+      <c r="E42" s="8">
+        <f t="shared" si="8"/>
+        <v>0.5</v>
+      </c>
+      <c r="F42" s="3">
+        <v>0</v>
+      </c>
+      <c r="G42" s="8">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="B43" s="32">
+        <f>(Nathan!B43+Tyler!B43)/2</f>
+        <v>0.25</v>
+      </c>
+      <c r="C43" s="32">
+        <f>(Nathan!C43+Tyler!C43)/2</f>
+        <v>0.5</v>
+      </c>
+      <c r="D43" s="32">
+        <f>(Nathan!D43+Tyler!D43)/2</f>
+        <v>0.75</v>
+      </c>
+      <c r="E43" s="8">
+        <f t="shared" si="8"/>
+        <v>0.5</v>
+      </c>
+      <c r="F43" s="3">
+        <v>0</v>
+      </c>
+      <c r="G43" s="8">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="B44" s="32">
+        <f>(Nathan!B44+Tyler!B44)/2</f>
+        <v>0.25</v>
+      </c>
+      <c r="C44" s="32">
+        <f>(Nathan!C44+Tyler!C44)/2</f>
+        <v>0.5</v>
+      </c>
+      <c r="D44" s="32">
+        <f>(Nathan!D44+Tyler!D44)/2</f>
+        <v>0.75</v>
+      </c>
+      <c r="E44" s="8">
+        <f>(B44+4*C44+D44)/6</f>
+        <v>0.5</v>
+      </c>
+      <c r="F44" s="3">
+        <v>0</v>
+      </c>
+      <c r="G44" s="8">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="B45" s="32">
+        <f>(Nathan!B45+Tyler!B45)/2</f>
+        <v>0.25</v>
+      </c>
+      <c r="C45" s="32">
+        <f>(Nathan!C45+Tyler!C45)/2</f>
+        <v>0.5</v>
+      </c>
+      <c r="D45" s="32">
+        <f>(Nathan!D45+Tyler!D45)/2</f>
+        <v>0.75</v>
+      </c>
+      <c r="E45" s="8">
+        <f t="shared" ref="E45:E48" si="9">(B45+4*C45+D45)/6</f>
+        <v>0.5</v>
+      </c>
+      <c r="F45" s="3">
+        <v>0</v>
+      </c>
+      <c r="G45" s="8">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="B46" s="32">
+        <f>(Nathan!B46+Tyler!B46)/2</f>
+        <v>0.25</v>
+      </c>
+      <c r="C46" s="32">
+        <f>(Nathan!C46+Tyler!C46)/2</f>
+        <v>0.5</v>
+      </c>
+      <c r="D46" s="32">
+        <f>(Nathan!D46+Tyler!D46)/2</f>
+        <v>0.75</v>
+      </c>
+      <c r="E46" s="8">
+        <f t="shared" si="9"/>
+        <v>0.5</v>
+      </c>
+      <c r="F46" s="3">
+        <v>0</v>
+      </c>
+      <c r="G46" s="8">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="B47" s="32">
+        <f>(Nathan!B47+Tyler!B47)/2</f>
+        <v>0.5</v>
+      </c>
+      <c r="C47" s="32">
+        <f>(Nathan!C47+Tyler!C47)/2</f>
+        <v>0.75</v>
+      </c>
+      <c r="D47" s="32">
+        <f>(Nathan!D47+Tyler!D47)/2</f>
+        <v>1</v>
+      </c>
+      <c r="E47" s="8">
+        <f t="shared" si="9"/>
+        <v>0.75</v>
+      </c>
+      <c r="F47" s="3">
+        <v>0</v>
+      </c>
+      <c r="G47" s="8">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="B48" s="32">
+        <f>(Nathan!B48+Tyler!B48)/2</f>
+        <v>0.5</v>
+      </c>
+      <c r="C48" s="32">
+        <f>(Nathan!C48+Tyler!C48)/2</f>
+        <v>0.75</v>
+      </c>
+      <c r="D48" s="32">
+        <f>(Nathan!D48+Tyler!D48)/2</f>
+        <v>1</v>
+      </c>
+      <c r="E48" s="8">
+        <f t="shared" si="9"/>
+        <v>0.75</v>
+      </c>
+      <c r="F48" s="3">
+        <v>0</v>
+      </c>
+      <c r="G48" s="8">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="B49" s="32">
+        <f>(Nathan!B49+Tyler!B49)/2</f>
+        <v>0.5</v>
+      </c>
+      <c r="C49" s="32">
+        <f>(Nathan!C49+Tyler!C49)/2</f>
+        <v>0.75</v>
+      </c>
+      <c r="D49" s="32">
+        <f>(Nathan!D49+Tyler!D49)/2</f>
+        <v>1</v>
+      </c>
+      <c r="E49" s="8">
+        <f>(B49+4*C49+D49)/6</f>
+        <v>0.75</v>
+      </c>
+      <c r="F49" s="3">
+        <v>0</v>
+      </c>
+      <c r="G49" s="8">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="B50" s="32">
+        <f>(Nathan!B50+Tyler!B50)/2</f>
+        <v>0.5</v>
+      </c>
+      <c r="C50" s="32">
+        <f>(Nathan!C50+Tyler!C50)/2</f>
+        <v>0.75</v>
+      </c>
+      <c r="D50" s="32">
+        <f>(Nathan!D50+Tyler!D50)/2</f>
+        <v>1</v>
+      </c>
+      <c r="E50" s="8">
+        <f t="shared" ref="E50:E53" si="10">(B50+4*C50+D50)/6</f>
+        <v>0.75</v>
+      </c>
+      <c r="F50" s="3">
+        <v>0</v>
+      </c>
+      <c r="G50" s="8">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="B51" s="32">
+        <f>(Nathan!B51+Tyler!B51)/2</f>
+        <v>0.5</v>
+      </c>
+      <c r="C51" s="32">
+        <f>(Nathan!C51+Tyler!C51)/2</f>
+        <v>0.75</v>
+      </c>
+      <c r="D51" s="32">
+        <f>(Nathan!D51+Tyler!D51)/2</f>
+        <v>1</v>
+      </c>
+      <c r="E51" s="8">
+        <f t="shared" si="10"/>
+        <v>0.75</v>
+      </c>
+      <c r="F51" s="3">
+        <v>0</v>
+      </c>
+      <c r="G51" s="8">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="B52" s="32">
+        <f>(Nathan!B52+Tyler!B52)/2</f>
+        <v>1.5</v>
+      </c>
+      <c r="C52" s="32">
+        <f>(Nathan!C52+Tyler!C52)/2</f>
+        <v>2</v>
+      </c>
+      <c r="D52" s="32">
+        <f>(Nathan!D52+Tyler!D52)/2</f>
+        <v>3</v>
+      </c>
+      <c r="E52" s="8">
+        <f t="shared" si="10"/>
+        <v>2.0833333333333335</v>
+      </c>
+      <c r="F52" s="3">
+        <v>0</v>
+      </c>
+      <c r="G52" s="8">
+        <f t="shared" si="0"/>
+        <v>2.0833333333333335</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="B53" s="32">
+        <f>(Nathan!B53+Tyler!B53)/2</f>
+        <v>1.5</v>
+      </c>
+      <c r="C53" s="32">
+        <f>(Nathan!C53+Tyler!C53)/2</f>
+        <v>2</v>
+      </c>
+      <c r="D53" s="32">
+        <f>(Nathan!D53+Tyler!D53)/2</f>
+        <v>3</v>
+      </c>
+      <c r="E53" s="8">
+        <f t="shared" si="10"/>
+        <v>2.0833333333333335</v>
+      </c>
+      <c r="F53" s="3">
+        <v>0</v>
+      </c>
+      <c r="G53" s="8">
+        <f t="shared" si="0"/>
+        <v>2.0833333333333335</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="B54" s="32">
+        <f>(Nathan!B54+Tyler!B54)/2</f>
+        <v>1.5</v>
+      </c>
+      <c r="C54" s="32">
+        <f>(Nathan!C54+Tyler!C54)/2</f>
+        <v>2</v>
+      </c>
+      <c r="D54" s="32">
+        <f>(Nathan!D54+Tyler!D54)/2</f>
+        <v>3</v>
+      </c>
+      <c r="E54" s="8">
+        <f>(B54+4*C54+D54)/6</f>
+        <v>2.0833333333333335</v>
+      </c>
+      <c r="F54" s="3">
+        <v>0</v>
+      </c>
+      <c r="G54" s="8">
+        <f t="shared" si="0"/>
+        <v>2.0833333333333335</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/02 - EstimatingWorkSheet_Nathan.xlsx
+++ b/02 - EstimatingWorkSheet_Nathan.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11595" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11595" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Duration Worksheet" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="71">
   <si>
     <t>Duration Estimating Worksheet</t>
   </si>
@@ -589,6 +589,9 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -616,13 +619,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -918,8 +918,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:O95"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7:H7"/>
+    <sheetView topLeftCell="B44" workbookViewId="0">
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -930,31 +930,31 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
+      <c r="B2" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
     </row>
     <row r="3" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B4" s="2"/>
@@ -971,8 +971,8 @@
       <c r="F5" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
       <c r="I5" s="16"/>
       <c r="J5" s="16"/>
       <c r="K5" s="16"/>
@@ -985,16 +985,16 @@
       <c r="B6" s="1"/>
     </row>
     <row r="7" spans="1:15" ht="86.25" x14ac:dyDescent="0.25">
-      <c r="B7" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="24" t="s">
+      <c r="B7" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="24" t="s">
+      <c r="D7" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="24" t="s">
+      <c r="E7" s="25" t="s">
         <v>4</v>
       </c>
       <c r="F7" s="5" t="s">
@@ -1012,18 +1012,18 @@
       <c r="J7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="K7" s="26" t="s">
+      <c r="K7" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="L7" s="27"/>
-      <c r="M7" s="27"/>
-      <c r="N7" s="27"/>
+      <c r="L7" s="28"/>
+      <c r="M7" s="28"/>
+      <c r="N7" s="28"/>
     </row>
     <row r="8" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
       <c r="F8" s="6" t="s">
         <v>6</v>
       </c>
@@ -1031,26 +1031,26 @@
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
       <c r="J8" s="11"/>
-      <c r="K8" s="28" t="s">
+      <c r="K8" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="L8" s="29"/>
-      <c r="M8" s="30" t="s">
+      <c r="L8" s="30"/>
+      <c r="M8" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="N8" s="30"/>
+      <c r="N8" s="31"/>
     </row>
     <row r="9" spans="1:15" ht="28.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="32">
+      <c r="C9" s="23">
         <v>0.1</v>
       </c>
-      <c r="D9" s="32">
+      <c r="D9" s="23">
         <v>0.2</v>
       </c>
-      <c r="E9" s="32">
+      <c r="E9" s="23">
         <v>0.5</v>
       </c>
       <c r="F9" s="8">
@@ -1084,13 +1084,13 @@
       <c r="B10" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="32">
+      <c r="C10" s="23">
         <v>0.1</v>
       </c>
-      <c r="D10" s="32">
+      <c r="D10" s="23">
         <v>0.2</v>
       </c>
-      <c r="E10" s="32">
+      <c r="E10" s="23">
         <v>0.5</v>
       </c>
       <c r="F10" s="8">
@@ -1124,13 +1124,13 @@
       <c r="B11" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="32">
+      <c r="C11" s="23">
         <v>0.1</v>
       </c>
-      <c r="D11" s="32">
+      <c r="D11" s="23">
         <v>0.2</v>
       </c>
-      <c r="E11" s="32">
+      <c r="E11" s="23">
         <v>0.5</v>
       </c>
       <c r="F11" s="8">
@@ -1164,13 +1164,13 @@
       <c r="B12" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="32">
+      <c r="C12" s="23">
         <v>0.1</v>
       </c>
-      <c r="D12" s="32">
+      <c r="D12" s="23">
         <v>0.2</v>
       </c>
-      <c r="E12" s="32">
+      <c r="E12" s="23">
         <v>0.5</v>
       </c>
       <c r="F12" s="8">
@@ -1204,13 +1204,13 @@
       <c r="B13" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="32">
+      <c r="C13" s="23">
         <v>0.1</v>
       </c>
-      <c r="D13" s="32">
+      <c r="D13" s="23">
         <v>0.2</v>
       </c>
-      <c r="E13" s="32">
+      <c r="E13" s="23">
         <v>0.5</v>
       </c>
       <c r="F13" s="8">
@@ -1244,13 +1244,13 @@
       <c r="B14" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="32">
+      <c r="C14" s="23">
         <v>0.1</v>
       </c>
-      <c r="D14" s="32">
+      <c r="D14" s="23">
         <v>0.2</v>
       </c>
-      <c r="E14" s="32">
+      <c r="E14" s="23">
         <v>0.5</v>
       </c>
       <c r="F14" s="8">
@@ -1284,13 +1284,13 @@
       <c r="B15" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="32">
+      <c r="C15" s="23">
         <v>0.1</v>
       </c>
-      <c r="D15" s="32">
+      <c r="D15" s="23">
         <v>0.2</v>
       </c>
-      <c r="E15" s="32">
+      <c r="E15" s="23">
         <v>0.5</v>
       </c>
       <c r="F15" s="8">
@@ -1324,13 +1324,13 @@
       <c r="B16" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="32">
+      <c r="C16" s="23">
         <v>0.1</v>
       </c>
-      <c r="D16" s="32">
+      <c r="D16" s="23">
         <v>0.2</v>
       </c>
-      <c r="E16" s="32">
+      <c r="E16" s="23">
         <v>0.5</v>
       </c>
       <c r="F16" s="8">
@@ -1364,13 +1364,13 @@
       <c r="B17" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="32">
+      <c r="C17" s="23">
         <v>0.1</v>
       </c>
-      <c r="D17" s="32">
+      <c r="D17" s="23">
         <v>0.2</v>
       </c>
-      <c r="E17" s="32">
+      <c r="E17" s="23">
         <v>0.5</v>
       </c>
       <c r="F17" s="8">
@@ -1404,13 +1404,13 @@
       <c r="B18" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="32">
+      <c r="C18" s="23">
         <v>0.1</v>
       </c>
-      <c r="D18" s="32">
+      <c r="D18" s="23">
         <v>0.2</v>
       </c>
-      <c r="E18" s="32">
+      <c r="E18" s="23">
         <v>0.5</v>
       </c>
       <c r="F18" s="8">
@@ -1444,13 +1444,13 @@
       <c r="B19" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="32">
+      <c r="C19" s="23">
         <v>0.1</v>
       </c>
-      <c r="D19" s="32">
+      <c r="D19" s="23">
         <v>0.2</v>
       </c>
-      <c r="E19" s="32">
+      <c r="E19" s="23">
         <v>0.5</v>
       </c>
       <c r="F19" s="8">
@@ -1484,13 +1484,13 @@
       <c r="B20" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="32">
+      <c r="C20" s="23">
         <v>0.1</v>
       </c>
-      <c r="D20" s="32">
+      <c r="D20" s="23">
         <v>0.2</v>
       </c>
-      <c r="E20" s="32">
+      <c r="E20" s="23">
         <v>0.5</v>
       </c>
       <c r="F20" s="8">
@@ -1524,13 +1524,13 @@
       <c r="B21" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="32">
+      <c r="C21" s="23">
         <v>0.1</v>
       </c>
-      <c r="D21" s="32">
+      <c r="D21" s="23">
         <v>0.2</v>
       </c>
-      <c r="E21" s="32">
+      <c r="E21" s="23">
         <v>0.5</v>
       </c>
       <c r="F21" s="8">
@@ -1564,13 +1564,13 @@
       <c r="B22" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="C22" s="32">
+      <c r="C22" s="23">
         <v>0.1</v>
       </c>
-      <c r="D22" s="32">
+      <c r="D22" s="23">
         <v>0.2</v>
       </c>
-      <c r="E22" s="32">
+      <c r="E22" s="23">
         <v>0.5</v>
       </c>
       <c r="F22" s="8">
@@ -1604,13 +1604,13 @@
       <c r="B23" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="C23" s="32">
+      <c r="C23" s="23">
         <v>0.1</v>
       </c>
-      <c r="D23" s="32">
+      <c r="D23" s="23">
         <v>0.2</v>
       </c>
-      <c r="E23" s="32">
+      <c r="E23" s="23">
         <v>0.5</v>
       </c>
       <c r="F23" s="8">
@@ -1644,13 +1644,13 @@
       <c r="B24" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="C24" s="32">
+      <c r="C24" s="23">
         <v>0.2</v>
       </c>
-      <c r="D24" s="32">
-        <v>0.5</v>
-      </c>
-      <c r="E24" s="32">
+      <c r="D24" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="E24" s="23">
         <v>1</v>
       </c>
       <c r="F24" s="8">
@@ -1684,13 +1684,13 @@
       <c r="B25" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="C25" s="32">
-        <v>0.5</v>
-      </c>
-      <c r="D25" s="32">
-        <v>1</v>
-      </c>
-      <c r="E25" s="32">
+      <c r="C25" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="D25" s="23">
+        <v>1</v>
+      </c>
+      <c r="E25" s="23">
         <v>1.5</v>
       </c>
       <c r="F25" s="8">
@@ -1724,13 +1724,13 @@
       <c r="B26" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="32">
+      <c r="C26" s="23">
         <v>2</v>
       </c>
-      <c r="D26" s="32">
+      <c r="D26" s="23">
         <v>4</v>
       </c>
-      <c r="E26" s="32">
+      <c r="E26" s="23">
         <v>8</v>
       </c>
       <c r="F26" s="8">
@@ -1764,13 +1764,13 @@
       <c r="B27" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="C27" s="32">
+      <c r="C27" s="23">
         <v>3</v>
       </c>
-      <c r="D27" s="32">
+      <c r="D27" s="23">
         <v>4.5</v>
       </c>
-      <c r="E27" s="32">
+      <c r="E27" s="23">
         <v>8</v>
       </c>
       <c r="F27" s="8">
@@ -1804,13 +1804,13 @@
       <c r="B28" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="C28" s="32">
-        <v>1</v>
-      </c>
-      <c r="D28" s="32">
+      <c r="C28" s="23">
+        <v>1</v>
+      </c>
+      <c r="D28" s="23">
         <v>3</v>
       </c>
-      <c r="E28" s="32">
+      <c r="E28" s="23">
         <v>5</v>
       </c>
       <c r="F28" s="8">
@@ -1844,13 +1844,13 @@
       <c r="B29" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="C29" s="32">
-        <v>0.5</v>
-      </c>
-      <c r="D29" s="32">
-        <v>1</v>
-      </c>
-      <c r="E29" s="32">
+      <c r="C29" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="D29" s="23">
+        <v>1</v>
+      </c>
+      <c r="E29" s="23">
         <v>2</v>
       </c>
       <c r="F29" s="8">
@@ -1884,13 +1884,13 @@
       <c r="B30" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="C30" s="32">
+      <c r="C30" s="23">
         <v>3</v>
       </c>
-      <c r="D30" s="32">
+      <c r="D30" s="23">
         <v>4</v>
       </c>
-      <c r="E30" s="32">
+      <c r="E30" s="23">
         <v>6</v>
       </c>
       <c r="F30" s="8">
@@ -1924,13 +1924,13 @@
       <c r="B31" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="C31" s="32">
-        <v>1</v>
-      </c>
-      <c r="D31" s="32">
-        <v>1.5</v>
-      </c>
-      <c r="E31" s="32">
+      <c r="C31" s="23">
+        <v>1</v>
+      </c>
+      <c r="D31" s="23">
+        <v>1.5</v>
+      </c>
+      <c r="E31" s="23">
         <v>3</v>
       </c>
       <c r="F31" s="8">
@@ -1964,13 +1964,13 @@
       <c r="B32" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="C32" s="32">
+      <c r="C32" s="23">
         <v>2</v>
       </c>
-      <c r="D32" s="32">
+      <c r="D32" s="23">
         <v>4</v>
       </c>
-      <c r="E32" s="32">
+      <c r="E32" s="23">
         <v>6</v>
       </c>
       <c r="F32" s="8">
@@ -2004,13 +2004,13 @@
       <c r="B33" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="C33" s="32">
+      <c r="C33" s="23">
         <v>0.1</v>
       </c>
-      <c r="D33" s="32">
+      <c r="D33" s="23">
         <v>0.2</v>
       </c>
-      <c r="E33" s="32">
+      <c r="E33" s="23">
         <v>0.5</v>
       </c>
       <c r="F33" s="8">
@@ -2044,13 +2044,13 @@
       <c r="B34" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="C34" s="32">
-        <v>1</v>
-      </c>
-      <c r="D34" s="32">
-        <v>1.5</v>
-      </c>
-      <c r="E34" s="32">
+      <c r="C34" s="23">
+        <v>1</v>
+      </c>
+      <c r="D34" s="23">
+        <v>1.5</v>
+      </c>
+      <c r="E34" s="23">
         <v>3</v>
       </c>
       <c r="F34" s="8">
@@ -2084,13 +2084,13 @@
       <c r="B35" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="C35" s="32">
-        <v>1</v>
-      </c>
-      <c r="D35" s="32">
-        <v>1.5</v>
-      </c>
-      <c r="E35" s="32">
+      <c r="C35" s="23">
+        <v>1</v>
+      </c>
+      <c r="D35" s="23">
+        <v>1.5</v>
+      </c>
+      <c r="E35" s="23">
         <v>3</v>
       </c>
       <c r="F35" s="8">
@@ -2124,13 +2124,13 @@
       <c r="B36" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="C36" s="32">
-        <v>1</v>
-      </c>
-      <c r="D36" s="32">
+      <c r="C36" s="23">
+        <v>1</v>
+      </c>
+      <c r="D36" s="23">
         <v>2</v>
       </c>
-      <c r="E36" s="32">
+      <c r="E36" s="23">
         <v>3</v>
       </c>
       <c r="F36" s="8">
@@ -2164,13 +2164,13 @@
       <c r="B37" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="C37" s="32">
+      <c r="C37" s="23">
         <v>2</v>
       </c>
-      <c r="D37" s="32">
+      <c r="D37" s="23">
         <v>2.5</v>
       </c>
-      <c r="E37" s="32">
+      <c r="E37" s="23">
         <v>4</v>
       </c>
       <c r="F37" s="8">
@@ -2204,13 +2204,13 @@
       <c r="B38" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="C38" s="32">
-        <v>1</v>
-      </c>
-      <c r="D38" s="32">
+      <c r="C38" s="23">
+        <v>1</v>
+      </c>
+      <c r="D38" s="23">
         <v>2</v>
       </c>
-      <c r="E38" s="32">
+      <c r="E38" s="23">
         <v>3</v>
       </c>
       <c r="F38" s="8">
@@ -2244,13 +2244,13 @@
       <c r="B39" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="C39" s="32">
+      <c r="C39" s="23">
         <v>2</v>
       </c>
-      <c r="D39" s="32">
+      <c r="D39" s="23">
         <v>2.5</v>
       </c>
-      <c r="E39" s="32">
+      <c r="E39" s="23">
         <v>3</v>
       </c>
       <c r="F39" s="8">
@@ -2284,13 +2284,13 @@
       <c r="B40" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="C40" s="32">
-        <v>0.5</v>
-      </c>
-      <c r="D40" s="32">
-        <v>1</v>
-      </c>
-      <c r="E40" s="32">
+      <c r="C40" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="D40" s="23">
+        <v>1</v>
+      </c>
+      <c r="E40" s="23">
         <v>1.5</v>
       </c>
       <c r="F40" s="8">
@@ -2324,13 +2324,13 @@
       <c r="B41" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="C41" s="32">
+      <c r="C41" s="23">
         <v>3</v>
       </c>
-      <c r="D41" s="32">
+      <c r="D41" s="23">
         <v>5</v>
       </c>
-      <c r="E41" s="32">
+      <c r="E41" s="23">
         <v>7</v>
       </c>
       <c r="F41" s="8">
@@ -2364,13 +2364,13 @@
       <c r="B42" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="C42" s="32">
+      <c r="C42" s="23">
         <v>2</v>
       </c>
-      <c r="D42" s="32">
+      <c r="D42" s="23">
         <v>4</v>
       </c>
-      <c r="E42" s="32">
+      <c r="E42" s="23">
         <v>6</v>
       </c>
       <c r="F42" s="8">
@@ -2404,13 +2404,13 @@
       <c r="B43" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="C43" s="32">
-        <v>0.5</v>
-      </c>
-      <c r="D43" s="32">
-        <v>1</v>
-      </c>
-      <c r="E43" s="32">
+      <c r="C43" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="D43" s="23">
+        <v>1</v>
+      </c>
+      <c r="E43" s="23">
         <v>3</v>
       </c>
       <c r="F43" s="8">
@@ -2444,13 +2444,13 @@
       <c r="B44" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="C44" s="32">
-        <v>1</v>
-      </c>
-      <c r="D44" s="32">
-        <v>1.5</v>
-      </c>
-      <c r="E44" s="32">
+      <c r="C44" s="23">
+        <v>1</v>
+      </c>
+      <c r="D44" s="23">
+        <v>1.5</v>
+      </c>
+      <c r="E44" s="23">
         <v>3</v>
       </c>
       <c r="F44" s="8">
@@ -2484,13 +2484,13 @@
       <c r="B45" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="C45" s="32">
-        <v>1</v>
-      </c>
-      <c r="D45" s="32">
-        <v>1.5</v>
-      </c>
-      <c r="E45" s="32">
+      <c r="C45" s="23">
+        <v>1</v>
+      </c>
+      <c r="D45" s="23">
+        <v>1.5</v>
+      </c>
+      <c r="E45" s="23">
         <v>3</v>
       </c>
       <c r="F45" s="8">
@@ -2524,13 +2524,13 @@
       <c r="B46" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="C46" s="32">
-        <v>0.5</v>
-      </c>
-      <c r="D46" s="32">
-        <v>1</v>
-      </c>
-      <c r="E46" s="32">
+      <c r="C46" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="D46" s="23">
+        <v>1</v>
+      </c>
+      <c r="E46" s="23">
         <v>1.5</v>
       </c>
       <c r="F46" s="8">
@@ -2564,13 +2564,13 @@
       <c r="B47" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="C47" s="32">
-        <v>1</v>
-      </c>
-      <c r="D47" s="32">
-        <v>1.5</v>
-      </c>
-      <c r="E47" s="32">
+      <c r="C47" s="23">
+        <v>1</v>
+      </c>
+      <c r="D47" s="23">
+        <v>1.5</v>
+      </c>
+      <c r="E47" s="23">
         <v>3</v>
       </c>
       <c r="F47" s="8">
@@ -2604,13 +2604,13 @@
       <c r="B48" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="C48" s="32">
-        <v>0.5</v>
-      </c>
-      <c r="D48" s="32">
-        <v>1</v>
-      </c>
-      <c r="E48" s="32">
+      <c r="C48" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="D48" s="23">
+        <v>1</v>
+      </c>
+      <c r="E48" s="23">
         <v>1.5</v>
       </c>
       <c r="F48" s="8">
@@ -2644,13 +2644,13 @@
       <c r="B49" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="C49" s="32">
-        <v>0.5</v>
-      </c>
-      <c r="D49" s="32">
-        <v>1</v>
-      </c>
-      <c r="E49" s="32">
+      <c r="C49" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="D49" s="23">
+        <v>1</v>
+      </c>
+      <c r="E49" s="23">
         <v>1.5</v>
       </c>
       <c r="F49" s="8">
@@ -2684,13 +2684,13 @@
       <c r="B50" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="C50" s="32">
-        <v>0.5</v>
-      </c>
-      <c r="D50" s="32">
-        <v>1</v>
-      </c>
-      <c r="E50" s="32">
+      <c r="C50" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="D50" s="23">
+        <v>1</v>
+      </c>
+      <c r="E50" s="23">
         <v>1.5</v>
       </c>
       <c r="F50" s="8">
@@ -2724,13 +2724,13 @@
       <c r="B51" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="C51" s="32">
-        <v>0.5</v>
-      </c>
-      <c r="D51" s="32">
-        <v>1</v>
-      </c>
-      <c r="E51" s="32">
+      <c r="C51" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="D51" s="23">
+        <v>1</v>
+      </c>
+      <c r="E51" s="23">
         <v>1.5</v>
       </c>
       <c r="F51" s="8">
@@ -2764,13 +2764,13 @@
       <c r="B52" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="C52" s="32">
-        <v>0.5</v>
-      </c>
-      <c r="D52" s="32">
-        <v>1</v>
-      </c>
-      <c r="E52" s="32">
+      <c r="C52" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="D52" s="23">
+        <v>1</v>
+      </c>
+      <c r="E52" s="23">
         <v>1.5</v>
       </c>
       <c r="F52" s="8">
@@ -2804,13 +2804,13 @@
       <c r="B53" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="C53" s="32">
-        <v>1</v>
-      </c>
-      <c r="D53" s="32">
-        <v>1.5</v>
-      </c>
-      <c r="E53" s="32">
+      <c r="C53" s="23">
+        <v>1</v>
+      </c>
+      <c r="D53" s="23">
+        <v>1.5</v>
+      </c>
+      <c r="E53" s="23">
         <v>2</v>
       </c>
       <c r="F53" s="8">
@@ -2844,13 +2844,13 @@
       <c r="B54" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="C54" s="32">
-        <v>1</v>
-      </c>
-      <c r="D54" s="32">
-        <v>1.5</v>
-      </c>
-      <c r="E54" s="32">
+      <c r="C54" s="23">
+        <v>1</v>
+      </c>
+      <c r="D54" s="23">
+        <v>1.5</v>
+      </c>
+      <c r="E54" s="23">
         <v>2</v>
       </c>
       <c r="F54" s="8">
@@ -2884,13 +2884,13 @@
       <c r="B55" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="C55" s="32">
-        <v>1</v>
-      </c>
-      <c r="D55" s="32">
-        <v>1.5</v>
-      </c>
-      <c r="E55" s="32">
+      <c r="C55" s="23">
+        <v>1</v>
+      </c>
+      <c r="D55" s="23">
+        <v>1.5</v>
+      </c>
+      <c r="E55" s="23">
         <v>2</v>
       </c>
       <c r="F55" s="8">
@@ -2924,13 +2924,13 @@
       <c r="B56" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="C56" s="32">
-        <v>1</v>
-      </c>
-      <c r="D56" s="32">
-        <v>1.5</v>
-      </c>
-      <c r="E56" s="32">
+      <c r="C56" s="23">
+        <v>1</v>
+      </c>
+      <c r="D56" s="23">
+        <v>1.5</v>
+      </c>
+      <c r="E56" s="23">
         <v>2</v>
       </c>
       <c r="F56" s="8">
@@ -2964,13 +2964,13 @@
       <c r="B57" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="C57" s="32">
-        <v>1</v>
-      </c>
-      <c r="D57" s="32">
-        <v>1.5</v>
-      </c>
-      <c r="E57" s="32">
+      <c r="C57" s="23">
+        <v>1</v>
+      </c>
+      <c r="D57" s="23">
+        <v>1.5</v>
+      </c>
+      <c r="E57" s="23">
         <v>2</v>
       </c>
       <c r="F57" s="8">
@@ -3004,13 +3004,13 @@
       <c r="B58" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="C58" s="32">
+      <c r="C58" s="23">
         <v>3</v>
       </c>
-      <c r="D58" s="32">
+      <c r="D58" s="23">
         <v>4</v>
       </c>
-      <c r="E58" s="32">
+      <c r="E58" s="23">
         <v>6</v>
       </c>
       <c r="F58" s="8">
@@ -3044,13 +3044,13 @@
       <c r="B59" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="C59" s="32">
+      <c r="C59" s="23">
         <v>3</v>
       </c>
-      <c r="D59" s="32">
+      <c r="D59" s="23">
         <v>4</v>
       </c>
-      <c r="E59" s="32">
+      <c r="E59" s="23">
         <v>6</v>
       </c>
       <c r="F59" s="8">
@@ -3084,13 +3084,13 @@
       <c r="B60" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="C60" s="32">
+      <c r="C60" s="23">
         <v>3</v>
       </c>
-      <c r="D60" s="32">
+      <c r="D60" s="23">
         <v>4</v>
       </c>
-      <c r="E60" s="32">
+      <c r="E60" s="23">
         <v>6</v>
       </c>
       <c r="F60" s="8">
@@ -4211,7 +4211,7 @@
   <dimension ref="A1:D85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4223,36 +4223,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="24" t="s">
+      <c r="A1" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="25" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
     </row>
     <row r="3" spans="1:4" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="32">
+      <c r="B3" s="23">
         <v>0.1</v>
       </c>
-      <c r="C3" s="32">
+      <c r="C3" s="23">
         <v>0.2</v>
       </c>
-      <c r="D3" s="32">
+      <c r="D3" s="23">
         <v>0.5</v>
       </c>
     </row>
@@ -4260,13 +4260,13 @@
       <c r="A4" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="32">
+      <c r="B4" s="23">
         <v>0.1</v>
       </c>
-      <c r="C4" s="32">
+      <c r="C4" s="23">
         <v>0.2</v>
       </c>
-      <c r="D4" s="32">
+      <c r="D4" s="23">
         <v>0.5</v>
       </c>
     </row>
@@ -4274,13 +4274,13 @@
       <c r="A5" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="32">
+      <c r="B5" s="23">
         <v>0.1</v>
       </c>
-      <c r="C5" s="32">
+      <c r="C5" s="23">
         <v>0.2</v>
       </c>
-      <c r="D5" s="32">
+      <c r="D5" s="23">
         <v>0.5</v>
       </c>
     </row>
@@ -4288,13 +4288,13 @@
       <c r="A6" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="32">
+      <c r="B6" s="23">
         <v>0.1</v>
       </c>
-      <c r="C6" s="32">
+      <c r="C6" s="23">
         <v>0.2</v>
       </c>
-      <c r="D6" s="32">
+      <c r="D6" s="23">
         <v>0.5</v>
       </c>
     </row>
@@ -4302,13 +4302,13 @@
       <c r="A7" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="32">
+      <c r="B7" s="23">
         <v>0.1</v>
       </c>
-      <c r="C7" s="32">
+      <c r="C7" s="23">
         <v>0.2</v>
       </c>
-      <c r="D7" s="32">
+      <c r="D7" s="23">
         <v>0.5</v>
       </c>
     </row>
@@ -4316,13 +4316,13 @@
       <c r="A8" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="32">
+      <c r="B8" s="23">
         <v>0.1</v>
       </c>
-      <c r="C8" s="32">
+      <c r="C8" s="23">
         <v>0.2</v>
       </c>
-      <c r="D8" s="32">
+      <c r="D8" s="23">
         <v>0.5</v>
       </c>
     </row>
@@ -4330,13 +4330,13 @@
       <c r="A9" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="32">
+      <c r="B9" s="23">
         <v>0.1</v>
       </c>
-      <c r="C9" s="32">
+      <c r="C9" s="23">
         <v>0.2</v>
       </c>
-      <c r="D9" s="32">
+      <c r="D9" s="23">
         <v>0.5</v>
       </c>
     </row>
@@ -4344,13 +4344,13 @@
       <c r="A10" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="32">
+      <c r="B10" s="23">
         <v>0.1</v>
       </c>
-      <c r="C10" s="32">
+      <c r="C10" s="23">
         <v>0.2</v>
       </c>
-      <c r="D10" s="32">
+      <c r="D10" s="23">
         <v>0.5</v>
       </c>
     </row>
@@ -4358,13 +4358,13 @@
       <c r="A11" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="32">
+      <c r="B11" s="23">
         <v>0.1</v>
       </c>
-      <c r="C11" s="32">
+      <c r="C11" s="23">
         <v>0.2</v>
       </c>
-      <c r="D11" s="32">
+      <c r="D11" s="23">
         <v>0.5</v>
       </c>
     </row>
@@ -4372,13 +4372,13 @@
       <c r="A12" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="32">
+      <c r="B12" s="23">
         <v>0.1</v>
       </c>
-      <c r="C12" s="32">
+      <c r="C12" s="23">
         <v>0.2</v>
       </c>
-      <c r="D12" s="32">
+      <c r="D12" s="23">
         <v>0.5</v>
       </c>
     </row>
@@ -4386,13 +4386,13 @@
       <c r="A13" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="32">
+      <c r="B13" s="23">
         <v>0.1</v>
       </c>
-      <c r="C13" s="32">
+      <c r="C13" s="23">
         <v>0.2</v>
       </c>
-      <c r="D13" s="32">
+      <c r="D13" s="23">
         <v>0.5</v>
       </c>
     </row>
@@ -4400,13 +4400,13 @@
       <c r="A14" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="32">
+      <c r="B14" s="23">
         <v>0.1</v>
       </c>
-      <c r="C14" s="32">
+      <c r="C14" s="23">
         <v>0.2</v>
       </c>
-      <c r="D14" s="32">
+      <c r="D14" s="23">
         <v>0.5</v>
       </c>
     </row>
@@ -4414,13 +4414,13 @@
       <c r="A15" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="32">
+      <c r="B15" s="23">
         <v>0.1</v>
       </c>
-      <c r="C15" s="32">
+      <c r="C15" s="23">
         <v>0.2</v>
       </c>
-      <c r="D15" s="32">
+      <c r="D15" s="23">
         <v>0.5</v>
       </c>
     </row>
@@ -4428,13 +4428,13 @@
       <c r="A16" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="32">
+      <c r="B16" s="23">
         <v>0.1</v>
       </c>
-      <c r="C16" s="32">
+      <c r="C16" s="23">
         <v>0.2</v>
       </c>
-      <c r="D16" s="32">
+      <c r="D16" s="23">
         <v>0.5</v>
       </c>
     </row>
@@ -4442,13 +4442,13 @@
       <c r="A17" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="32">
+      <c r="B17" s="23">
         <v>0.1</v>
       </c>
-      <c r="C17" s="32">
+      <c r="C17" s="23">
         <v>0.2</v>
       </c>
-      <c r="D17" s="32">
+      <c r="D17" s="23">
         <v>0.5</v>
       </c>
     </row>
@@ -4456,13 +4456,13 @@
       <c r="A18" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="32">
+      <c r="B18" s="23">
         <v>0.2</v>
       </c>
-      <c r="C18" s="32">
-        <v>0.5</v>
-      </c>
-      <c r="D18" s="32">
+      <c r="C18" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="D18" s="23">
         <v>1</v>
       </c>
     </row>
@@ -4470,13 +4470,13 @@
       <c r="A19" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="32">
-        <v>0.5</v>
-      </c>
-      <c r="C19" s="32">
-        <v>1</v>
-      </c>
-      <c r="D19" s="32">
+      <c r="B19" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="C19" s="23">
+        <v>1</v>
+      </c>
+      <c r="D19" s="23">
         <v>1.5</v>
       </c>
     </row>
@@ -4484,13 +4484,13 @@
       <c r="A20" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="B20" s="32">
+      <c r="B20" s="23">
         <v>2</v>
       </c>
-      <c r="C20" s="32">
+      <c r="C20" s="23">
         <v>4</v>
       </c>
-      <c r="D20" s="32">
+      <c r="D20" s="23">
         <v>8</v>
       </c>
     </row>
@@ -4498,13 +4498,13 @@
       <c r="A21" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="32">
+      <c r="B21" s="23">
         <v>3</v>
       </c>
-      <c r="C21" s="32">
+      <c r="C21" s="23">
         <v>4.5</v>
       </c>
-      <c r="D21" s="32">
+      <c r="D21" s="23">
         <v>8</v>
       </c>
     </row>
@@ -4512,13 +4512,13 @@
       <c r="A22" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="32">
-        <v>1</v>
-      </c>
-      <c r="C22" s="32">
+      <c r="B22" s="23">
+        <v>1</v>
+      </c>
+      <c r="C22" s="23">
         <v>3</v>
       </c>
-      <c r="D22" s="32">
+      <c r="D22" s="23">
         <v>5</v>
       </c>
     </row>
@@ -4526,13 +4526,13 @@
       <c r="A23" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="B23" s="32">
-        <v>0.5</v>
-      </c>
-      <c r="C23" s="32">
-        <v>1</v>
-      </c>
-      <c r="D23" s="32">
+      <c r="B23" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="C23" s="23">
+        <v>1</v>
+      </c>
+      <c r="D23" s="23">
         <v>2</v>
       </c>
     </row>
@@ -4540,13 +4540,13 @@
       <c r="A24" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="B24" s="32">
+      <c r="B24" s="23">
         <v>3</v>
       </c>
-      <c r="C24" s="32">
+      <c r="C24" s="23">
         <v>4</v>
       </c>
-      <c r="D24" s="32">
+      <c r="D24" s="23">
         <v>6</v>
       </c>
     </row>
@@ -4554,13 +4554,13 @@
       <c r="A25" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="B25" s="32">
-        <v>1</v>
-      </c>
-      <c r="C25" s="32">
-        <v>1.5</v>
-      </c>
-      <c r="D25" s="32">
+      <c r="B25" s="23">
+        <v>1</v>
+      </c>
+      <c r="C25" s="23">
+        <v>1.5</v>
+      </c>
+      <c r="D25" s="23">
         <v>3</v>
       </c>
     </row>
@@ -4568,13 +4568,13 @@
       <c r="A26" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="B26" s="32">
+      <c r="B26" s="23">
         <v>2</v>
       </c>
-      <c r="C26" s="32">
+      <c r="C26" s="23">
         <v>4</v>
       </c>
-      <c r="D26" s="32">
+      <c r="D26" s="23">
         <v>6</v>
       </c>
     </row>
@@ -4582,13 +4582,13 @@
       <c r="A27" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="B27" s="32">
+      <c r="B27" s="23">
         <v>0.1</v>
       </c>
-      <c r="C27" s="32">
+      <c r="C27" s="23">
         <v>0.2</v>
       </c>
-      <c r="D27" s="32">
+      <c r="D27" s="23">
         <v>0.5</v>
       </c>
     </row>
@@ -4596,13 +4596,13 @@
       <c r="A28" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="B28" s="32">
-        <v>1</v>
-      </c>
-      <c r="C28" s="32">
-        <v>1.5</v>
-      </c>
-      <c r="D28" s="32">
+      <c r="B28" s="23">
+        <v>1</v>
+      </c>
+      <c r="C28" s="23">
+        <v>1.5</v>
+      </c>
+      <c r="D28" s="23">
         <v>3</v>
       </c>
     </row>
@@ -4610,13 +4610,13 @@
       <c r="A29" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="B29" s="32">
-        <v>1</v>
-      </c>
-      <c r="C29" s="32">
-        <v>1.5</v>
-      </c>
-      <c r="D29" s="32">
+      <c r="B29" s="23">
+        <v>1</v>
+      </c>
+      <c r="C29" s="23">
+        <v>1.5</v>
+      </c>
+      <c r="D29" s="23">
         <v>3</v>
       </c>
     </row>
@@ -4624,13 +4624,13 @@
       <c r="A30" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="B30" s="32">
-        <v>1</v>
-      </c>
-      <c r="C30" s="32">
+      <c r="B30" s="23">
+        <v>1</v>
+      </c>
+      <c r="C30" s="23">
         <v>2</v>
       </c>
-      <c r="D30" s="32">
+      <c r="D30" s="23">
         <v>3</v>
       </c>
     </row>
@@ -4638,13 +4638,13 @@
       <c r="A31" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="B31" s="32">
+      <c r="B31" s="23">
         <v>2</v>
       </c>
-      <c r="C31" s="32">
+      <c r="C31" s="23">
         <v>2.5</v>
       </c>
-      <c r="D31" s="32">
+      <c r="D31" s="23">
         <v>4</v>
       </c>
     </row>
@@ -4652,13 +4652,13 @@
       <c r="A32" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="B32" s="32">
-        <v>1</v>
-      </c>
-      <c r="C32" s="32">
+      <c r="B32" s="23">
+        <v>1</v>
+      </c>
+      <c r="C32" s="23">
         <v>2</v>
       </c>
-      <c r="D32" s="32">
+      <c r="D32" s="23">
         <v>3</v>
       </c>
     </row>
@@ -4666,13 +4666,13 @@
       <c r="A33" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="B33" s="32">
+      <c r="B33" s="23">
         <v>2</v>
       </c>
-      <c r="C33" s="32">
+      <c r="C33" s="23">
         <v>2.5</v>
       </c>
-      <c r="D33" s="32">
+      <c r="D33" s="23">
         <v>3</v>
       </c>
     </row>
@@ -4680,13 +4680,13 @@
       <c r="A34" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="B34" s="32">
-        <v>0.5</v>
-      </c>
-      <c r="C34" s="32">
-        <v>1</v>
-      </c>
-      <c r="D34" s="32">
+      <c r="B34" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="C34" s="23">
+        <v>1</v>
+      </c>
+      <c r="D34" s="23">
         <v>1.5</v>
       </c>
     </row>
@@ -4694,13 +4694,13 @@
       <c r="A35" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="B35" s="32">
+      <c r="B35" s="23">
         <v>3</v>
       </c>
-      <c r="C35" s="32">
+      <c r="C35" s="23">
         <v>5</v>
       </c>
-      <c r="D35" s="32">
+      <c r="D35" s="23">
         <v>7</v>
       </c>
     </row>
@@ -4708,13 +4708,13 @@
       <c r="A36" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="B36" s="32">
+      <c r="B36" s="23">
         <v>2</v>
       </c>
-      <c r="C36" s="32">
+      <c r="C36" s="23">
         <v>4</v>
       </c>
-      <c r="D36" s="32">
+      <c r="D36" s="23">
         <v>6</v>
       </c>
     </row>
@@ -4722,13 +4722,13 @@
       <c r="A37" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="B37" s="32">
-        <v>0.5</v>
-      </c>
-      <c r="C37" s="32">
-        <v>1</v>
-      </c>
-      <c r="D37" s="32">
+      <c r="B37" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="C37" s="23">
+        <v>1</v>
+      </c>
+      <c r="D37" s="23">
         <v>3</v>
       </c>
     </row>
@@ -4736,13 +4736,13 @@
       <c r="A38" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="B38" s="32">
-        <v>1</v>
-      </c>
-      <c r="C38" s="32">
-        <v>1.5</v>
-      </c>
-      <c r="D38" s="32">
+      <c r="B38" s="23">
+        <v>1</v>
+      </c>
+      <c r="C38" s="23">
+        <v>1.5</v>
+      </c>
+      <c r="D38" s="23">
         <v>3</v>
       </c>
     </row>
@@ -4750,13 +4750,13 @@
       <c r="A39" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="B39" s="32">
-        <v>1</v>
-      </c>
-      <c r="C39" s="32">
-        <v>1.5</v>
-      </c>
-      <c r="D39" s="32">
+      <c r="B39" s="23">
+        <v>1</v>
+      </c>
+      <c r="C39" s="23">
+        <v>1.5</v>
+      </c>
+      <c r="D39" s="23">
         <v>3</v>
       </c>
     </row>
@@ -4764,13 +4764,13 @@
       <c r="A40" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="B40" s="32">
-        <v>0.5</v>
-      </c>
-      <c r="C40" s="32">
-        <v>1</v>
-      </c>
-      <c r="D40" s="32">
+      <c r="B40" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="C40" s="23">
+        <v>1</v>
+      </c>
+      <c r="D40" s="23">
         <v>1.5</v>
       </c>
     </row>
@@ -4778,13 +4778,13 @@
       <c r="A41" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="B41" s="32">
-        <v>1</v>
-      </c>
-      <c r="C41" s="32">
-        <v>1.5</v>
-      </c>
-      <c r="D41" s="32">
+      <c r="B41" s="23">
+        <v>1</v>
+      </c>
+      <c r="C41" s="23">
+        <v>1.5</v>
+      </c>
+      <c r="D41" s="23">
         <v>3</v>
       </c>
     </row>
@@ -4792,13 +4792,13 @@
       <c r="A42" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="B42" s="32">
-        <v>0.5</v>
-      </c>
-      <c r="C42" s="32">
-        <v>1</v>
-      </c>
-      <c r="D42" s="32">
+      <c r="B42" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="C42" s="23">
+        <v>1</v>
+      </c>
+      <c r="D42" s="23">
         <v>1.5</v>
       </c>
     </row>
@@ -4806,13 +4806,13 @@
       <c r="A43" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="B43" s="32">
-        <v>0.5</v>
-      </c>
-      <c r="C43" s="32">
-        <v>1</v>
-      </c>
-      <c r="D43" s="32">
+      <c r="B43" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="C43" s="23">
+        <v>1</v>
+      </c>
+      <c r="D43" s="23">
         <v>1.5</v>
       </c>
     </row>
@@ -4820,13 +4820,13 @@
       <c r="A44" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="B44" s="32">
-        <v>0.5</v>
-      </c>
-      <c r="C44" s="32">
-        <v>1</v>
-      </c>
-      <c r="D44" s="32">
+      <c r="B44" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="C44" s="23">
+        <v>1</v>
+      </c>
+      <c r="D44" s="23">
         <v>1.5</v>
       </c>
     </row>
@@ -4834,13 +4834,13 @@
       <c r="A45" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="B45" s="32">
-        <v>0.5</v>
-      </c>
-      <c r="C45" s="32">
-        <v>1</v>
-      </c>
-      <c r="D45" s="32">
+      <c r="B45" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="C45" s="23">
+        <v>1</v>
+      </c>
+      <c r="D45" s="23">
         <v>1.5</v>
       </c>
     </row>
@@ -4848,13 +4848,13 @@
       <c r="A46" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="B46" s="32">
-        <v>0.5</v>
-      </c>
-      <c r="C46" s="32">
-        <v>1</v>
-      </c>
-      <c r="D46" s="32">
+      <c r="B46" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="C46" s="23">
+        <v>1</v>
+      </c>
+      <c r="D46" s="23">
         <v>1.5</v>
       </c>
     </row>
@@ -4862,13 +4862,13 @@
       <c r="A47" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="B47" s="32">
-        <v>1</v>
-      </c>
-      <c r="C47" s="32">
-        <v>1.5</v>
-      </c>
-      <c r="D47" s="32">
+      <c r="B47" s="23">
+        <v>1</v>
+      </c>
+      <c r="C47" s="23">
+        <v>1.5</v>
+      </c>
+      <c r="D47" s="23">
         <v>2</v>
       </c>
     </row>
@@ -4876,13 +4876,13 @@
       <c r="A48" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="B48" s="32">
-        <v>1</v>
-      </c>
-      <c r="C48" s="32">
-        <v>1.5</v>
-      </c>
-      <c r="D48" s="32">
+      <c r="B48" s="23">
+        <v>1</v>
+      </c>
+      <c r="C48" s="23">
+        <v>1.5</v>
+      </c>
+      <c r="D48" s="23">
         <v>2</v>
       </c>
     </row>
@@ -4890,13 +4890,13 @@
       <c r="A49" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="B49" s="32">
-        <v>1</v>
-      </c>
-      <c r="C49" s="32">
-        <v>1.5</v>
-      </c>
-      <c r="D49" s="32">
+      <c r="B49" s="23">
+        <v>1</v>
+      </c>
+      <c r="C49" s="23">
+        <v>1.5</v>
+      </c>
+      <c r="D49" s="23">
         <v>2</v>
       </c>
     </row>
@@ -4904,13 +4904,13 @@
       <c r="A50" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="B50" s="32">
-        <v>1</v>
-      </c>
-      <c r="C50" s="32">
-        <v>1.5</v>
-      </c>
-      <c r="D50" s="32">
+      <c r="B50" s="23">
+        <v>1</v>
+      </c>
+      <c r="C50" s="23">
+        <v>1.5</v>
+      </c>
+      <c r="D50" s="23">
         <v>2</v>
       </c>
     </row>
@@ -4918,13 +4918,13 @@
       <c r="A51" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="B51" s="32">
-        <v>1</v>
-      </c>
-      <c r="C51" s="32">
-        <v>1.5</v>
-      </c>
-      <c r="D51" s="32">
+      <c r="B51" s="23">
+        <v>1</v>
+      </c>
+      <c r="C51" s="23">
+        <v>1.5</v>
+      </c>
+      <c r="D51" s="23">
         <v>2</v>
       </c>
     </row>
@@ -4932,13 +4932,13 @@
       <c r="A52" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="B52" s="32">
+      <c r="B52" s="23">
         <v>3</v>
       </c>
-      <c r="C52" s="32">
+      <c r="C52" s="23">
         <v>4</v>
       </c>
-      <c r="D52" s="32">
+      <c r="D52" s="23">
         <v>6</v>
       </c>
     </row>
@@ -4946,13 +4946,13 @@
       <c r="A53" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="B53" s="32">
+      <c r="B53" s="23">
         <v>3</v>
       </c>
-      <c r="C53" s="32">
+      <c r="C53" s="23">
         <v>4</v>
       </c>
-      <c r="D53" s="32">
+      <c r="D53" s="23">
         <v>6</v>
       </c>
     </row>
@@ -4960,13 +4960,13 @@
       <c r="A54" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="B54" s="32">
+      <c r="B54" s="23">
         <v>3</v>
       </c>
-      <c r="C54" s="32">
+      <c r="C54" s="23">
         <v>4</v>
       </c>
-      <c r="D54" s="32">
+      <c r="D54" s="23">
         <v>6</v>
       </c>
     </row>
@@ -5171,8 +5171,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5184,440 +5184,752 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="24" t="s">
+      <c r="A1" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="25" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
     </row>
     <row r="3" spans="1:4" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
+      <c r="B3" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="C3" s="23">
+        <v>1</v>
+      </c>
+      <c r="D3" s="23">
+        <v>3</v>
+      </c>
     </row>
     <row r="4" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
+      <c r="B4" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="C4" s="23">
+        <v>1</v>
+      </c>
+      <c r="D4" s="23">
+        <v>3</v>
+      </c>
     </row>
     <row r="5" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="32"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
+      <c r="B5" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="C5" s="23">
+        <v>1</v>
+      </c>
+      <c r="D5" s="23">
+        <v>3</v>
+      </c>
     </row>
     <row r="6" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
+      <c r="B6" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="C6" s="23">
+        <v>1</v>
+      </c>
+      <c r="D6" s="23">
+        <v>3</v>
+      </c>
     </row>
     <row r="7" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="32"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
+      <c r="B7" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="C7" s="23">
+        <v>1</v>
+      </c>
+      <c r="D7" s="23">
+        <v>3</v>
+      </c>
     </row>
     <row r="8" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="32"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
+      <c r="B8" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="C8" s="23">
+        <v>1</v>
+      </c>
+      <c r="D8" s="23">
+        <v>3</v>
+      </c>
     </row>
     <row r="9" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="32"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
+      <c r="B9" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="C9" s="23">
+        <v>1</v>
+      </c>
+      <c r="D9" s="23">
+        <v>3</v>
+      </c>
     </row>
     <row r="10" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="32"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
+      <c r="B10" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="C10" s="23">
+        <v>1</v>
+      </c>
+      <c r="D10" s="23">
+        <v>3</v>
+      </c>
     </row>
     <row r="11" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="32"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
+      <c r="B11" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="C11" s="23">
+        <v>1</v>
+      </c>
+      <c r="D11" s="23">
+        <v>3</v>
+      </c>
     </row>
     <row r="12" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="32"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="32"/>
+      <c r="B12" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="C12" s="23">
+        <v>1</v>
+      </c>
+      <c r="D12" s="23">
+        <v>3</v>
+      </c>
     </row>
     <row r="13" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="32"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="32"/>
+      <c r="B13" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="C13" s="23">
+        <v>1</v>
+      </c>
+      <c r="D13" s="23">
+        <v>3</v>
+      </c>
     </row>
     <row r="14" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="32"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
+      <c r="B14" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="C14" s="23">
+        <v>1</v>
+      </c>
+      <c r="D14" s="23">
+        <v>3</v>
+      </c>
     </row>
     <row r="15" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="32"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="32"/>
+      <c r="B15" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="C15" s="23">
+        <v>1</v>
+      </c>
+      <c r="D15" s="23">
+        <v>3</v>
+      </c>
     </row>
     <row r="16" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="32"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="32"/>
+      <c r="B16" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="C16" s="23">
+        <v>1</v>
+      </c>
+      <c r="D16" s="23">
+        <v>3</v>
+      </c>
     </row>
     <row r="17" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="32"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="32"/>
+      <c r="B17" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="C17" s="23">
+        <v>1</v>
+      </c>
+      <c r="D17" s="23">
+        <v>3</v>
+      </c>
     </row>
     <row r="18" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="32"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="32"/>
+      <c r="B18" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="C18" s="23">
+        <v>1</v>
+      </c>
+      <c r="D18" s="23">
+        <v>3</v>
+      </c>
     </row>
     <row r="19" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="32"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="32"/>
+      <c r="B19" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="C19" s="23">
+        <v>1.5</v>
+      </c>
+      <c r="D19" s="23">
+        <v>3</v>
+      </c>
     </row>
     <row r="20" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="B20" s="32"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="32"/>
+      <c r="B20" s="23">
+        <v>3</v>
+      </c>
+      <c r="C20" s="23">
+        <v>6</v>
+      </c>
+      <c r="D20" s="23">
+        <v>9</v>
+      </c>
     </row>
     <row r="21" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="32"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="32"/>
+      <c r="B21" s="23">
+        <v>1</v>
+      </c>
+      <c r="C21" s="23">
+        <v>3</v>
+      </c>
+      <c r="D21" s="23">
+        <v>5</v>
+      </c>
     </row>
     <row r="22" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="32"/>
-      <c r="C22" s="32"/>
-      <c r="D22" s="32"/>
+      <c r="B22" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="C22" s="23">
+        <v>1.5</v>
+      </c>
+      <c r="D22" s="23">
+        <v>4</v>
+      </c>
     </row>
     <row r="23" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="B23" s="32"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="32"/>
+      <c r="B23" s="23">
+        <v>0.1</v>
+      </c>
+      <c r="C23" s="23">
+        <v>0.3</v>
+      </c>
+      <c r="D23" s="23">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="24" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="B24" s="32"/>
-      <c r="C24" s="32"/>
-      <c r="D24" s="32"/>
+      <c r="B24" s="23">
+        <v>1</v>
+      </c>
+      <c r="C24" s="23">
+        <v>2</v>
+      </c>
+      <c r="D24" s="23">
+        <v>6</v>
+      </c>
     </row>
     <row r="25" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="B25" s="32"/>
-      <c r="C25" s="32"/>
-      <c r="D25" s="32"/>
+      <c r="B25" s="23">
+        <v>1</v>
+      </c>
+      <c r="C25" s="23">
+        <v>2</v>
+      </c>
+      <c r="D25" s="23">
+        <v>6</v>
+      </c>
     </row>
     <row r="26" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="B26" s="32"/>
-      <c r="C26" s="32"/>
-      <c r="D26" s="32"/>
+      <c r="B26" s="23">
+        <v>1</v>
+      </c>
+      <c r="C26" s="23">
+        <v>2</v>
+      </c>
+      <c r="D26" s="23">
+        <v>6</v>
+      </c>
     </row>
     <row r="27" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="B27" s="32"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="32"/>
+      <c r="B27" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="C27" s="23">
+        <v>1</v>
+      </c>
+      <c r="D27" s="23">
+        <v>3</v>
+      </c>
     </row>
     <row r="28" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="B28" s="32"/>
-      <c r="C28" s="32"/>
-      <c r="D28" s="32"/>
+      <c r="B28" s="23">
+        <v>1</v>
+      </c>
+      <c r="C28" s="23">
+        <v>2</v>
+      </c>
+      <c r="D28" s="23">
+        <v>4</v>
+      </c>
     </row>
     <row r="29" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="B29" s="32"/>
-      <c r="C29" s="32"/>
-      <c r="D29" s="32"/>
+      <c r="B29" s="23">
+        <v>0.2</v>
+      </c>
+      <c r="C29" s="23">
+        <v>1</v>
+      </c>
+      <c r="D29" s="23">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="30" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="B30" s="32"/>
-      <c r="C30" s="32"/>
-      <c r="D30" s="32"/>
+      <c r="B30" s="23">
+        <v>1</v>
+      </c>
+      <c r="C30" s="23">
+        <v>1.5</v>
+      </c>
+      <c r="D30" s="23">
+        <v>3</v>
+      </c>
     </row>
     <row r="31" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="B31" s="32"/>
-      <c r="C31" s="32"/>
-      <c r="D31" s="32"/>
+      <c r="B31" s="23">
+        <v>0.2</v>
+      </c>
+      <c r="C31" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="D31" s="23">
+        <v>2</v>
+      </c>
     </row>
     <row r="32" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="B32" s="32"/>
-      <c r="C32" s="32"/>
-      <c r="D32" s="32"/>
+      <c r="B32" s="23">
+        <v>0.1</v>
+      </c>
+      <c r="C32" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="D32" s="23">
+        <v>1</v>
+      </c>
     </row>
     <row r="33" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="B33" s="32"/>
-      <c r="C33" s="32"/>
-      <c r="D33" s="32"/>
+      <c r="B33" s="23">
+        <v>0.3</v>
+      </c>
+      <c r="C33" s="23">
+        <v>1</v>
+      </c>
+      <c r="D33" s="23">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="34" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="B34" s="32"/>
-      <c r="C34" s="32"/>
-      <c r="D34" s="32"/>
+      <c r="B34" s="23">
+        <v>0.2</v>
+      </c>
+      <c r="C34" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="D34" s="23">
+        <v>1</v>
+      </c>
     </row>
     <row r="35" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="B35" s="32"/>
-      <c r="C35" s="32"/>
-      <c r="D35" s="32"/>
+      <c r="B35" s="23">
+        <v>2</v>
+      </c>
+      <c r="C35" s="23">
+        <v>3</v>
+      </c>
+      <c r="D35" s="23">
+        <v>5</v>
+      </c>
     </row>
     <row r="36" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="B36" s="32"/>
-      <c r="C36" s="32"/>
-      <c r="D36" s="32"/>
+      <c r="B36" s="23">
+        <v>1</v>
+      </c>
+      <c r="C36" s="23">
+        <v>2.5</v>
+      </c>
+      <c r="D36" s="23">
+        <v>4</v>
+      </c>
     </row>
     <row r="37" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="B37" s="32"/>
-      <c r="C37" s="32"/>
-      <c r="D37" s="32"/>
+      <c r="B37" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="C37" s="23">
+        <v>1</v>
+      </c>
+      <c r="D37" s="23">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="38" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="B38" s="32"/>
-      <c r="C38" s="32"/>
-      <c r="D38" s="32"/>
+      <c r="B38" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="C38" s="23">
+        <v>1</v>
+      </c>
+      <c r="D38" s="23">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="39" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="B39" s="32"/>
-      <c r="C39" s="32"/>
-      <c r="D39" s="32"/>
+      <c r="B39" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="C39" s="23">
+        <v>1</v>
+      </c>
+      <c r="D39" s="23">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="40" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="B40" s="32"/>
-      <c r="C40" s="32"/>
-      <c r="D40" s="32"/>
+      <c r="B40" s="23">
+        <v>0.2</v>
+      </c>
+      <c r="C40" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="D40" s="23">
+        <v>1</v>
+      </c>
     </row>
     <row r="41" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="B41" s="32"/>
-      <c r="C41" s="32"/>
-      <c r="D41" s="32"/>
+      <c r="B41" s="23">
+        <v>1</v>
+      </c>
+      <c r="C41" s="23">
+        <v>2</v>
+      </c>
+      <c r="D41" s="23">
+        <v>3</v>
+      </c>
     </row>
     <row r="42" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="B42" s="32"/>
-      <c r="C42" s="32"/>
-      <c r="D42" s="32"/>
+      <c r="B42" s="23">
+        <v>0.2</v>
+      </c>
+      <c r="C42" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="D42" s="23">
+        <v>1</v>
+      </c>
     </row>
     <row r="43" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="B43" s="32"/>
-      <c r="C43" s="32"/>
-      <c r="D43" s="32"/>
+      <c r="B43" s="23">
+        <v>1</v>
+      </c>
+      <c r="C43" s="23">
+        <v>1.5</v>
+      </c>
+      <c r="D43" s="23">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="44" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="B44" s="32"/>
-      <c r="C44" s="32"/>
-      <c r="D44" s="32"/>
+      <c r="B44" s="23">
+        <v>0.2</v>
+      </c>
+      <c r="C44" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="D44" s="23">
+        <v>1</v>
+      </c>
     </row>
     <row r="45" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="B45" s="32"/>
-      <c r="C45" s="32"/>
-      <c r="D45" s="32"/>
+      <c r="B45" s="23">
+        <v>3</v>
+      </c>
+      <c r="C45" s="23">
+        <v>4</v>
+      </c>
+      <c r="D45" s="23">
+        <v>6</v>
+      </c>
     </row>
     <row r="46" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="B46" s="32"/>
-      <c r="C46" s="32"/>
-      <c r="D46" s="32"/>
+      <c r="B46" s="23">
+        <v>1</v>
+      </c>
+      <c r="C46" s="23">
+        <v>2</v>
+      </c>
+      <c r="D46" s="23">
+        <v>3</v>
+      </c>
     </row>
     <row r="47" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="B47" s="32"/>
-      <c r="C47" s="32"/>
-      <c r="D47" s="32"/>
+      <c r="B47" s="23">
+        <v>1</v>
+      </c>
+      <c r="C47" s="23">
+        <v>1.5</v>
+      </c>
+      <c r="D47" s="23">
+        <v>2</v>
+      </c>
     </row>
     <row r="48" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="B48" s="32"/>
-      <c r="C48" s="32"/>
-      <c r="D48" s="32"/>
+      <c r="B48" s="23">
+        <v>1</v>
+      </c>
+      <c r="C48" s="23">
+        <v>1.5</v>
+      </c>
+      <c r="D48" s="23">
+        <v>2</v>
+      </c>
     </row>
     <row r="49" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="B49" s="32"/>
-      <c r="C49" s="32"/>
-      <c r="D49" s="32"/>
+      <c r="B49" s="23">
+        <v>1</v>
+      </c>
+      <c r="C49" s="23">
+        <v>1.5</v>
+      </c>
+      <c r="D49" s="23">
+        <v>2</v>
+      </c>
     </row>
     <row r="50" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="B50" s="32"/>
-      <c r="C50" s="32"/>
-      <c r="D50" s="32"/>
+      <c r="B50" s="23">
+        <v>1</v>
+      </c>
+      <c r="C50" s="23">
+        <v>1.5</v>
+      </c>
+      <c r="D50" s="23">
+        <v>2</v>
+      </c>
     </row>
     <row r="51" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="B51" s="32"/>
-      <c r="C51" s="32"/>
-      <c r="D51" s="32"/>
+      <c r="B51" s="23">
+        <v>1</v>
+      </c>
+      <c r="C51" s="23">
+        <v>1.5</v>
+      </c>
+      <c r="D51" s="23">
+        <v>2</v>
+      </c>
     </row>
     <row r="52" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="B52" s="32"/>
-      <c r="C52" s="32"/>
-      <c r="D52" s="32"/>
+      <c r="B52" s="23">
+        <v>2</v>
+      </c>
+      <c r="C52" s="23">
+        <v>3</v>
+      </c>
+      <c r="D52" s="23">
+        <v>6</v>
+      </c>
     </row>
     <row r="53" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="B53" s="32"/>
-      <c r="C53" s="32"/>
-      <c r="D53" s="32"/>
+      <c r="B53" s="23">
+        <v>2</v>
+      </c>
+      <c r="C53" s="23">
+        <v>3</v>
+      </c>
+      <c r="D53" s="23">
+        <v>6</v>
+      </c>
     </row>
     <row r="54" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="B54" s="32"/>
-      <c r="C54" s="32"/>
-      <c r="D54" s="32"/>
+      <c r="B54" s="23">
+        <v>2</v>
+      </c>
+      <c r="C54" s="23">
+        <v>3</v>
+      </c>
+      <c r="D54" s="23">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -5634,8 +5946,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G55" sqref="G55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5644,1496 +5956,1496 @@
     <col min="2" max="2" width="23.85546875" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="22.28515625" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="24.7109375" hidden="1" customWidth="1"/>
-    <col min="5" max="6" width="0" hidden="1" customWidth="1"/>
+    <col min="5" max="6" width="9.140625" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="23.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="24" t="s">
+      <c r="A1" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="33" t="s">
+      <c r="E1" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="34" t="s">
+      <c r="F1" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="34" t="s">
+      <c r="G1" s="33" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
     </row>
     <row r="3" spans="1:7" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="32">
+      <c r="B3" s="23">
         <f>(Nathan!B3+Tyler!B3)/2</f>
-        <v>0.05</v>
-      </c>
-      <c r="C3" s="32">
+        <v>0.3</v>
+      </c>
+      <c r="C3" s="23">
         <f>(Nathan!C3+Tyler!C3)/2</f>
-        <v>0.1</v>
-      </c>
-      <c r="D3" s="32">
+        <v>0.6</v>
+      </c>
+      <c r="D3" s="23">
         <f>(Nathan!D3+Tyler!D3)/2</f>
-        <v>0.25</v>
+        <v>1.75</v>
       </c>
       <c r="E3" s="8">
         <f>(B3+4*C3+D3)/6</f>
-        <v>0.11666666666666665</v>
+        <v>0.74166666666666659</v>
       </c>
       <c r="F3" s="3">
         <v>0</v>
       </c>
       <c r="G3" s="8">
-        <f ca="1">$F3+$G3</f>
-        <v>0.23333333333333331</v>
+        <f>$F3+$E3</f>
+        <v>0.74166666666666659</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="32">
+      <c r="B4" s="23">
         <f>(Nathan!B4+Tyler!B4)/2</f>
-        <v>0.05</v>
-      </c>
-      <c r="C4" s="32">
+        <v>0.3</v>
+      </c>
+      <c r="C4" s="23">
         <f>(Nathan!C4+Tyler!C4)/2</f>
-        <v>0.1</v>
-      </c>
-      <c r="D4" s="32">
+        <v>0.6</v>
+      </c>
+      <c r="D4" s="23">
         <f>(Nathan!D4+Tyler!D4)/2</f>
-        <v>0.25</v>
+        <v>1.75</v>
       </c>
       <c r="E4" s="8">
         <f>(B4+4*C4+D4)/6</f>
-        <v>0.11666666666666665</v>
+        <v>0.74166666666666659</v>
       </c>
       <c r="F4" s="3">
         <v>0</v>
       </c>
       <c r="G4" s="8">
-        <f t="shared" ref="G4:G54" si="0">E4+F4</f>
-        <v>0.11666666666666665</v>
+        <f t="shared" ref="G4:G54" si="0">$F4+$E4</f>
+        <v>0.74166666666666659</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="32">
+      <c r="B5" s="23">
         <f>(Nathan!B5+Tyler!B5)/2</f>
-        <v>0.05</v>
-      </c>
-      <c r="C5" s="32">
+        <v>0.3</v>
+      </c>
+      <c r="C5" s="23">
         <f>(Nathan!C5+Tyler!C5)/2</f>
-        <v>0.1</v>
-      </c>
-      <c r="D5" s="32">
+        <v>0.6</v>
+      </c>
+      <c r="D5" s="23">
         <f>(Nathan!D5+Tyler!D5)/2</f>
-        <v>0.25</v>
+        <v>1.75</v>
       </c>
       <c r="E5" s="8">
         <f t="shared" ref="E5:E8" si="1">(B5+4*C5+D5)/6</f>
-        <v>0.11666666666666665</v>
+        <v>0.74166666666666659</v>
       </c>
       <c r="F5" s="3">
         <v>0</v>
       </c>
       <c r="G5" s="8">
         <f t="shared" si="0"/>
-        <v>0.11666666666666665</v>
+        <v>0.74166666666666659</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="32">
+      <c r="B6" s="23">
         <f>(Nathan!B6+Tyler!B6)/2</f>
-        <v>0.05</v>
-      </c>
-      <c r="C6" s="32">
+        <v>0.3</v>
+      </c>
+      <c r="C6" s="23">
         <f>(Nathan!C6+Tyler!C6)/2</f>
-        <v>0.1</v>
-      </c>
-      <c r="D6" s="32">
+        <v>0.6</v>
+      </c>
+      <c r="D6" s="23">
         <f>(Nathan!D6+Tyler!D6)/2</f>
-        <v>0.25</v>
+        <v>1.75</v>
       </c>
       <c r="E6" s="8">
         <f t="shared" si="1"/>
-        <v>0.11666666666666665</v>
+        <v>0.74166666666666659</v>
       </c>
       <c r="F6" s="3">
         <v>0</v>
       </c>
       <c r="G6" s="8">
         <f t="shared" si="0"/>
-        <v>0.11666666666666665</v>
+        <v>0.74166666666666659</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="32">
+      <c r="B7" s="23">
         <f>(Nathan!B7+Tyler!B7)/2</f>
-        <v>0.05</v>
-      </c>
-      <c r="C7" s="32">
+        <v>0.3</v>
+      </c>
+      <c r="C7" s="23">
         <f>(Nathan!C7+Tyler!C7)/2</f>
-        <v>0.1</v>
-      </c>
-      <c r="D7" s="32">
+        <v>0.6</v>
+      </c>
+      <c r="D7" s="23">
         <f>(Nathan!D7+Tyler!D7)/2</f>
-        <v>0.25</v>
+        <v>1.75</v>
       </c>
       <c r="E7" s="8">
         <f t="shared" si="1"/>
-        <v>0.11666666666666665</v>
+        <v>0.74166666666666659</v>
       </c>
       <c r="F7" s="3">
         <v>0</v>
       </c>
       <c r="G7" s="8">
         <f t="shared" si="0"/>
-        <v>0.11666666666666665</v>
+        <v>0.74166666666666659</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="32">
+      <c r="B8" s="23">
         <f>(Nathan!B8+Tyler!B8)/2</f>
-        <v>0.05</v>
-      </c>
-      <c r="C8" s="32">
+        <v>0.3</v>
+      </c>
+      <c r="C8" s="23">
         <f>(Nathan!C8+Tyler!C8)/2</f>
-        <v>0.1</v>
-      </c>
-      <c r="D8" s="32">
+        <v>0.6</v>
+      </c>
+      <c r="D8" s="23">
         <f>(Nathan!D8+Tyler!D8)/2</f>
-        <v>0.25</v>
+        <v>1.75</v>
       </c>
       <c r="E8" s="8">
         <f t="shared" si="1"/>
-        <v>0.11666666666666665</v>
+        <v>0.74166666666666659</v>
       </c>
       <c r="F8" s="3">
         <v>0</v>
       </c>
       <c r="G8" s="8">
         <f t="shared" si="0"/>
-        <v>0.11666666666666665</v>
+        <v>0.74166666666666659</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="32">
+      <c r="B9" s="23">
         <f>(Nathan!B9+Tyler!B9)/2</f>
-        <v>0.05</v>
-      </c>
-      <c r="C9" s="32">
+        <v>0.3</v>
+      </c>
+      <c r="C9" s="23">
         <f>(Nathan!C9+Tyler!C9)/2</f>
-        <v>0.1</v>
-      </c>
-      <c r="D9" s="32">
+        <v>0.6</v>
+      </c>
+      <c r="D9" s="23">
         <f>(Nathan!D9+Tyler!D9)/2</f>
-        <v>0.25</v>
+        <v>1.75</v>
       </c>
       <c r="E9" s="8">
         <f>(B9+4*C9+D9)/6</f>
-        <v>0.11666666666666665</v>
+        <v>0.74166666666666659</v>
       </c>
       <c r="F9" s="3">
         <v>0</v>
       </c>
       <c r="G9" s="8">
         <f t="shared" si="0"/>
-        <v>0.11666666666666665</v>
+        <v>0.74166666666666659</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="32">
+      <c r="B10" s="23">
         <f>(Nathan!B10+Tyler!B10)/2</f>
-        <v>0.05</v>
-      </c>
-      <c r="C10" s="32">
+        <v>0.3</v>
+      </c>
+      <c r="C10" s="23">
         <f>(Nathan!C10+Tyler!C10)/2</f>
-        <v>0.1</v>
-      </c>
-      <c r="D10" s="32">
+        <v>0.6</v>
+      </c>
+      <c r="D10" s="23">
         <f>(Nathan!D10+Tyler!D10)/2</f>
-        <v>0.25</v>
+        <v>1.75</v>
       </c>
       <c r="E10" s="8">
         <f t="shared" ref="E10:E13" si="2">(B10+4*C10+D10)/6</f>
-        <v>0.11666666666666665</v>
+        <v>0.74166666666666659</v>
       </c>
       <c r="F10" s="3">
         <v>0</v>
       </c>
       <c r="G10" s="8">
         <f t="shared" si="0"/>
-        <v>0.11666666666666665</v>
+        <v>0.74166666666666659</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="32">
+      <c r="B11" s="23">
         <f>(Nathan!B11+Tyler!B11)/2</f>
-        <v>0.05</v>
-      </c>
-      <c r="C11" s="32">
+        <v>0.3</v>
+      </c>
+      <c r="C11" s="23">
         <f>(Nathan!C11+Tyler!C11)/2</f>
-        <v>0.1</v>
-      </c>
-      <c r="D11" s="32">
+        <v>0.6</v>
+      </c>
+      <c r="D11" s="23">
         <f>(Nathan!D11+Tyler!D11)/2</f>
-        <v>0.25</v>
+        <v>1.75</v>
       </c>
       <c r="E11" s="8">
         <f t="shared" si="2"/>
-        <v>0.11666666666666665</v>
+        <v>0.74166666666666659</v>
       </c>
       <c r="F11" s="3">
         <v>0</v>
       </c>
       <c r="G11" s="8">
         <f t="shared" si="0"/>
-        <v>0.11666666666666665</v>
+        <v>0.74166666666666659</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="32">
+      <c r="B12" s="23">
         <f>(Nathan!B12+Tyler!B12)/2</f>
-        <v>0.05</v>
-      </c>
-      <c r="C12" s="32">
+        <v>0.3</v>
+      </c>
+      <c r="C12" s="23">
         <f>(Nathan!C12+Tyler!C12)/2</f>
-        <v>0.1</v>
-      </c>
-      <c r="D12" s="32">
+        <v>0.6</v>
+      </c>
+      <c r="D12" s="23">
         <f>(Nathan!D12+Tyler!D12)/2</f>
-        <v>0.25</v>
+        <v>1.75</v>
       </c>
       <c r="E12" s="8">
         <f t="shared" si="2"/>
-        <v>0.11666666666666665</v>
+        <v>0.74166666666666659</v>
       </c>
       <c r="F12" s="3">
         <v>0</v>
       </c>
       <c r="G12" s="8">
         <f t="shared" si="0"/>
-        <v>0.11666666666666665</v>
+        <v>0.74166666666666659</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="32">
+      <c r="B13" s="23">
         <f>(Nathan!B13+Tyler!B13)/2</f>
-        <v>0.05</v>
-      </c>
-      <c r="C13" s="32">
+        <v>0.3</v>
+      </c>
+      <c r="C13" s="23">
         <f>(Nathan!C13+Tyler!C13)/2</f>
-        <v>0.1</v>
-      </c>
-      <c r="D13" s="32">
+        <v>0.6</v>
+      </c>
+      <c r="D13" s="23">
         <f>(Nathan!D13+Tyler!D13)/2</f>
-        <v>0.25</v>
+        <v>1.75</v>
       </c>
       <c r="E13" s="8">
         <f t="shared" si="2"/>
-        <v>0.11666666666666665</v>
+        <v>0.74166666666666659</v>
       </c>
       <c r="F13" s="3">
         <v>0</v>
       </c>
       <c r="G13" s="8">
         <f t="shared" si="0"/>
-        <v>0.11666666666666665</v>
+        <v>0.74166666666666659</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="32">
+      <c r="B14" s="23">
         <f>(Nathan!B14+Tyler!B14)/2</f>
-        <v>0.05</v>
-      </c>
-      <c r="C14" s="32">
+        <v>0.3</v>
+      </c>
+      <c r="C14" s="23">
         <f>(Nathan!C14+Tyler!C14)/2</f>
-        <v>0.1</v>
-      </c>
-      <c r="D14" s="32">
+        <v>0.6</v>
+      </c>
+      <c r="D14" s="23">
         <f>(Nathan!D14+Tyler!D14)/2</f>
-        <v>0.25</v>
+        <v>1.75</v>
       </c>
       <c r="E14" s="8">
         <f>(B14+4*C14+D14)/6</f>
-        <v>0.11666666666666665</v>
+        <v>0.74166666666666659</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
       <c r="G14" s="8">
         <f t="shared" si="0"/>
-        <v>0.11666666666666665</v>
+        <v>0.74166666666666659</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="32">
+      <c r="B15" s="23">
         <f>(Nathan!B15+Tyler!B15)/2</f>
-        <v>0.05</v>
-      </c>
-      <c r="C15" s="32">
+        <v>0.3</v>
+      </c>
+      <c r="C15" s="23">
         <f>(Nathan!C15+Tyler!C15)/2</f>
-        <v>0.1</v>
-      </c>
-      <c r="D15" s="32">
+        <v>0.6</v>
+      </c>
+      <c r="D15" s="23">
         <f>(Nathan!D15+Tyler!D15)/2</f>
-        <v>0.25</v>
+        <v>1.75</v>
       </c>
       <c r="E15" s="8">
         <f t="shared" ref="E15:E18" si="3">(B15+4*C15+D15)/6</f>
-        <v>0.11666666666666665</v>
+        <v>0.74166666666666659</v>
       </c>
       <c r="F15" s="3">
         <v>0</v>
       </c>
       <c r="G15" s="8">
         <f t="shared" si="0"/>
-        <v>0.11666666666666665</v>
+        <v>0.74166666666666659</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="32">
+      <c r="B16" s="23">
         <f>(Nathan!B16+Tyler!B16)/2</f>
-        <v>0.05</v>
-      </c>
-      <c r="C16" s="32">
+        <v>0.3</v>
+      </c>
+      <c r="C16" s="23">
         <f>(Nathan!C16+Tyler!C16)/2</f>
-        <v>0.1</v>
-      </c>
-      <c r="D16" s="32">
+        <v>0.6</v>
+      </c>
+      <c r="D16" s="23">
         <f>(Nathan!D16+Tyler!D16)/2</f>
-        <v>0.25</v>
+        <v>1.75</v>
       </c>
       <c r="E16" s="8">
         <f t="shared" si="3"/>
-        <v>0.11666666666666665</v>
+        <v>0.74166666666666659</v>
       </c>
       <c r="F16" s="3">
         <v>0</v>
       </c>
       <c r="G16" s="8">
         <f t="shared" si="0"/>
-        <v>0.11666666666666665</v>
+        <v>0.74166666666666659</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="32">
+      <c r="B17" s="23">
         <f>(Nathan!B17+Tyler!B17)/2</f>
-        <v>0.05</v>
-      </c>
-      <c r="C17" s="32">
+        <v>0.3</v>
+      </c>
+      <c r="C17" s="23">
         <f>(Nathan!C17+Tyler!C17)/2</f>
-        <v>0.1</v>
-      </c>
-      <c r="D17" s="32">
+        <v>0.6</v>
+      </c>
+      <c r="D17" s="23">
         <f>(Nathan!D17+Tyler!D17)/2</f>
-        <v>0.25</v>
+        <v>1.75</v>
       </c>
       <c r="E17" s="8">
         <f t="shared" si="3"/>
-        <v>0.11666666666666665</v>
+        <v>0.74166666666666659</v>
       </c>
       <c r="F17" s="3">
         <v>0</v>
       </c>
       <c r="G17" s="8">
         <f t="shared" si="0"/>
-        <v>0.11666666666666665</v>
+        <v>0.74166666666666659</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="32">
+      <c r="B18" s="23">
         <f>(Nathan!B18+Tyler!B18)/2</f>
-        <v>0.1</v>
-      </c>
-      <c r="C18" s="32">
+        <v>0.35</v>
+      </c>
+      <c r="C18" s="23">
         <f>(Nathan!C18+Tyler!C18)/2</f>
-        <v>0.25</v>
-      </c>
-      <c r="D18" s="32">
+        <v>0.75</v>
+      </c>
+      <c r="D18" s="23">
         <f>(Nathan!D18+Tyler!D18)/2</f>
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="E18" s="8">
         <f t="shared" si="3"/>
-        <v>0.26666666666666666</v>
+        <v>0.89166666666666661</v>
       </c>
       <c r="F18" s="3">
         <v>0</v>
       </c>
       <c r="G18" s="8">
         <f t="shared" si="0"/>
-        <v>0.26666666666666666</v>
+        <v>0.89166666666666661</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="32">
+      <c r="B19" s="23">
         <f>(Nathan!B19+Tyler!B19)/2</f>
-        <v>0.25</v>
-      </c>
-      <c r="C19" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="C19" s="23">
         <f>(Nathan!C19+Tyler!C19)/2</f>
-        <v>0.5</v>
-      </c>
-      <c r="D19" s="32">
+        <v>1.25</v>
+      </c>
+      <c r="D19" s="23">
         <f>(Nathan!D19+Tyler!D19)/2</f>
-        <v>0.75</v>
+        <v>2.25</v>
       </c>
       <c r="E19" s="8">
         <f>(B19+4*C19+D19)/6</f>
-        <v>0.5</v>
+        <v>1.2916666666666667</v>
       </c>
       <c r="F19" s="3">
         <v>0</v>
       </c>
       <c r="G19" s="8">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>1.2916666666666667</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="B20" s="32">
+      <c r="B20" s="23">
         <f>(Nathan!B20+Tyler!B20)/2</f>
-        <v>1</v>
-      </c>
-      <c r="C20" s="32">
+        <v>2.5</v>
+      </c>
+      <c r="C20" s="23">
         <f>(Nathan!C20+Tyler!C20)/2</f>
-        <v>2</v>
-      </c>
-      <c r="D20" s="32">
+        <v>5</v>
+      </c>
+      <c r="D20" s="23">
         <f>(Nathan!D20+Tyler!D20)/2</f>
-        <v>4</v>
+        <v>8.5</v>
       </c>
       <c r="E20" s="8">
         <f t="shared" ref="E20:E23" si="4">(B20+4*C20+D20)/6</f>
-        <v>2.1666666666666665</v>
+        <v>5.166666666666667</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
       </c>
       <c r="G20" s="8">
         <f t="shared" si="0"/>
-        <v>2.1666666666666665</v>
+        <v>5.166666666666667</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="32">
+      <c r="B21" s="23">
         <f>(Nathan!B21+Tyler!B21)/2</f>
-        <v>1.5</v>
-      </c>
-      <c r="C21" s="32">
+        <v>2</v>
+      </c>
+      <c r="C21" s="23">
         <f>(Nathan!C21+Tyler!C21)/2</f>
-        <v>2.25</v>
-      </c>
-      <c r="D21" s="32">
+        <v>3.75</v>
+      </c>
+      <c r="D21" s="23">
         <f>(Nathan!D21+Tyler!D21)/2</f>
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="E21" s="8">
         <f t="shared" si="4"/>
-        <v>2.4166666666666665</v>
+        <v>3.9166666666666665</v>
       </c>
       <c r="F21" s="3">
         <v>0</v>
       </c>
       <c r="G21" s="8">
         <f t="shared" si="0"/>
-        <v>2.4166666666666665</v>
+        <v>3.9166666666666665</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="32">
+      <c r="B22" s="23">
         <f>(Nathan!B22+Tyler!B22)/2</f>
-        <v>0.5</v>
-      </c>
-      <c r="C22" s="32">
+        <v>0.75</v>
+      </c>
+      <c r="C22" s="23">
         <f>(Nathan!C22+Tyler!C22)/2</f>
-        <v>1.5</v>
-      </c>
-      <c r="D22" s="32">
+        <v>2.25</v>
+      </c>
+      <c r="D22" s="23">
         <f>(Nathan!D22+Tyler!D22)/2</f>
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="E22" s="8">
         <f t="shared" si="4"/>
-        <v>1.5</v>
+        <v>2.375</v>
       </c>
       <c r="F22" s="3">
         <v>0</v>
       </c>
       <c r="G22" s="8">
         <f t="shared" si="0"/>
-        <v>1.5</v>
+        <v>2.375</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="B23" s="32">
+      <c r="B23" s="23">
         <f>(Nathan!B23+Tyler!B23)/2</f>
-        <v>0.25</v>
-      </c>
-      <c r="C23" s="32">
+        <v>0.3</v>
+      </c>
+      <c r="C23" s="23">
         <f>(Nathan!C23+Tyler!C23)/2</f>
-        <v>0.5</v>
-      </c>
-      <c r="D23" s="32">
+        <v>0.65</v>
+      </c>
+      <c r="D23" s="23">
         <f>(Nathan!D23+Tyler!D23)/2</f>
-        <v>1</v>
+        <v>1.75</v>
       </c>
       <c r="E23" s="8">
         <f t="shared" si="4"/>
-        <v>0.54166666666666663</v>
+        <v>0.77500000000000002</v>
       </c>
       <c r="F23" s="3">
         <v>0</v>
       </c>
       <c r="G23" s="8">
         <f t="shared" si="0"/>
-        <v>0.54166666666666663</v>
+        <v>0.77500000000000002</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="B24" s="32">
+      <c r="B24" s="23">
         <f>(Nathan!B24+Tyler!B24)/2</f>
-        <v>1.5</v>
-      </c>
-      <c r="C24" s="32">
+        <v>2</v>
+      </c>
+      <c r="C24" s="23">
         <f>(Nathan!C24+Tyler!C24)/2</f>
-        <v>2</v>
-      </c>
-      <c r="D24" s="32">
+        <v>3</v>
+      </c>
+      <c r="D24" s="23">
         <f>(Nathan!D24+Tyler!D24)/2</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E24" s="8">
         <f>(B24+4*C24+D24)/6</f>
-        <v>2.0833333333333335</v>
+        <v>3.3333333333333335</v>
       </c>
       <c r="F24" s="3">
         <v>0</v>
       </c>
       <c r="G24" s="8">
         <f t="shared" si="0"/>
-        <v>2.0833333333333335</v>
+        <v>3.3333333333333335</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="B25" s="32">
+      <c r="B25" s="23">
         <f>(Nathan!B25+Tyler!B25)/2</f>
-        <v>0.5</v>
-      </c>
-      <c r="C25" s="32">
+        <v>1</v>
+      </c>
+      <c r="C25" s="23">
         <f>(Nathan!C25+Tyler!C25)/2</f>
-        <v>0.75</v>
-      </c>
-      <c r="D25" s="32">
+        <v>1.75</v>
+      </c>
+      <c r="D25" s="23">
         <f>(Nathan!D25+Tyler!D25)/2</f>
-        <v>1.5</v>
+        <v>4.5</v>
       </c>
       <c r="E25" s="8">
         <f t="shared" ref="E25:E28" si="5">(B25+4*C25+D25)/6</f>
-        <v>0.83333333333333337</v>
+        <v>2.0833333333333335</v>
       </c>
       <c r="F25" s="3">
         <v>0</v>
       </c>
       <c r="G25" s="8">
         <f t="shared" si="0"/>
-        <v>0.83333333333333337</v>
+        <v>2.0833333333333335</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="B26" s="32">
+      <c r="B26" s="23">
         <f>(Nathan!B26+Tyler!B26)/2</f>
-        <v>1</v>
-      </c>
-      <c r="C26" s="32">
+        <v>1.5</v>
+      </c>
+      <c r="C26" s="23">
         <f>(Nathan!C26+Tyler!C26)/2</f>
-        <v>2</v>
-      </c>
-      <c r="D26" s="32">
+        <v>3</v>
+      </c>
+      <c r="D26" s="23">
         <f>(Nathan!D26+Tyler!D26)/2</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E26" s="8">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>3.25</v>
       </c>
       <c r="F26" s="3">
         <v>0</v>
       </c>
       <c r="G26" s="8">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="B27" s="32">
+      <c r="B27" s="23">
         <f>(Nathan!B27+Tyler!B27)/2</f>
-        <v>0.05</v>
-      </c>
-      <c r="C27" s="32">
+        <v>0.3</v>
+      </c>
+      <c r="C27" s="23">
         <f>(Nathan!C27+Tyler!C27)/2</f>
-        <v>0.1</v>
-      </c>
-      <c r="D27" s="32">
+        <v>0.6</v>
+      </c>
+      <c r="D27" s="23">
         <f>(Nathan!D27+Tyler!D27)/2</f>
-        <v>0.25</v>
+        <v>1.75</v>
       </c>
       <c r="E27" s="8">
         <f t="shared" si="5"/>
-        <v>0.11666666666666665</v>
+        <v>0.74166666666666659</v>
       </c>
       <c r="F27" s="3">
         <v>0</v>
       </c>
       <c r="G27" s="8">
         <f t="shared" si="0"/>
-        <v>0.11666666666666665</v>
+        <v>0.74166666666666659</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="B28" s="32">
+      <c r="B28" s="23">
         <f>(Nathan!B28+Tyler!B28)/2</f>
-        <v>0.5</v>
-      </c>
-      <c r="C28" s="32">
+        <v>1</v>
+      </c>
+      <c r="C28" s="23">
         <f>(Nathan!C28+Tyler!C28)/2</f>
-        <v>0.75</v>
-      </c>
-      <c r="D28" s="32">
+        <v>1.75</v>
+      </c>
+      <c r="D28" s="23">
         <f>(Nathan!D28+Tyler!D28)/2</f>
-        <v>1.5</v>
+        <v>3.5</v>
       </c>
       <c r="E28" s="8">
         <f t="shared" si="5"/>
-        <v>0.83333333333333337</v>
+        <v>1.9166666666666667</v>
       </c>
       <c r="F28" s="3">
         <v>0</v>
       </c>
       <c r="G28" s="8">
         <f t="shared" si="0"/>
-        <v>0.83333333333333337</v>
+        <v>1.9166666666666667</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="B29" s="32">
+      <c r="B29" s="23">
         <f>(Nathan!B29+Tyler!B29)/2</f>
-        <v>0.5</v>
-      </c>
-      <c r="C29" s="32">
+        <v>0.6</v>
+      </c>
+      <c r="C29" s="23">
         <f>(Nathan!C29+Tyler!C29)/2</f>
-        <v>0.75</v>
-      </c>
-      <c r="D29" s="32">
+        <v>1.25</v>
+      </c>
+      <c r="D29" s="23">
         <f>(Nathan!D29+Tyler!D29)/2</f>
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="E29" s="8">
         <f>(B29+4*C29+D29)/6</f>
-        <v>0.83333333333333337</v>
+        <v>1.3083333333333333</v>
       </c>
       <c r="F29" s="3">
         <v>0</v>
       </c>
       <c r="G29" s="8">
         <f t="shared" si="0"/>
-        <v>0.83333333333333337</v>
+        <v>1.3083333333333333</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="B30" s="32">
+      <c r="B30" s="23">
         <f>(Nathan!B30+Tyler!B30)/2</f>
-        <v>0.5</v>
-      </c>
-      <c r="C30" s="32">
+        <v>1</v>
+      </c>
+      <c r="C30" s="23">
         <f>(Nathan!C30+Tyler!C30)/2</f>
-        <v>1</v>
-      </c>
-      <c r="D30" s="32">
+        <v>1.75</v>
+      </c>
+      <c r="D30" s="23">
         <f>(Nathan!D30+Tyler!D30)/2</f>
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="E30" s="8">
         <f t="shared" ref="E30:E33" si="6">(B30+4*C30+D30)/6</f>
-        <v>1</v>
+        <v>1.8333333333333333</v>
       </c>
       <c r="F30" s="3">
         <v>0</v>
       </c>
       <c r="G30" s="8">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>1.8333333333333333</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="B31" s="32">
+      <c r="B31" s="23">
         <f>(Nathan!B31+Tyler!B31)/2</f>
-        <v>1</v>
-      </c>
-      <c r="C31" s="32">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C31" s="23">
         <f>(Nathan!C31+Tyler!C31)/2</f>
-        <v>1.25</v>
-      </c>
-      <c r="D31" s="32">
+        <v>1.5</v>
+      </c>
+      <c r="D31" s="23">
         <f>(Nathan!D31+Tyler!D31)/2</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E31" s="8">
         <f t="shared" si="6"/>
-        <v>1.3333333333333333</v>
+        <v>1.6833333333333333</v>
       </c>
       <c r="F31" s="3">
         <v>0</v>
       </c>
       <c r="G31" s="8">
         <f t="shared" si="0"/>
-        <v>1.3333333333333333</v>
+        <v>1.6833333333333333</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="B32" s="32">
+      <c r="B32" s="23">
         <f>(Nathan!B32+Tyler!B32)/2</f>
-        <v>0.5</v>
-      </c>
-      <c r="C32" s="32">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="C32" s="23">
         <f>(Nathan!C32+Tyler!C32)/2</f>
-        <v>1</v>
-      </c>
-      <c r="D32" s="32">
+        <v>1.25</v>
+      </c>
+      <c r="D32" s="23">
         <f>(Nathan!D32+Tyler!D32)/2</f>
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="E32" s="8">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>1.2583333333333333</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
       </c>
       <c r="G32" s="8">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>1.2583333333333333</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="B33" s="32">
+      <c r="B33" s="23">
         <f>(Nathan!B33+Tyler!B33)/2</f>
-        <v>1</v>
-      </c>
-      <c r="C33" s="32">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="C33" s="23">
         <f>(Nathan!C33+Tyler!C33)/2</f>
-        <v>1.25</v>
-      </c>
-      <c r="D33" s="32">
+        <v>1.75</v>
+      </c>
+      <c r="D33" s="23">
         <f>(Nathan!D33+Tyler!D33)/2</f>
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="E33" s="8">
         <f t="shared" si="6"/>
-        <v>1.25</v>
+        <v>1.7333333333333334</v>
       </c>
       <c r="F33" s="3">
         <v>0</v>
       </c>
       <c r="G33" s="8">
         <f t="shared" si="0"/>
-        <v>1.25</v>
+        <v>1.7333333333333334</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="B34" s="32">
+      <c r="B34" s="23">
         <f>(Nathan!B34+Tyler!B34)/2</f>
-        <v>0.25</v>
-      </c>
-      <c r="C34" s="32">
+        <v>0.35</v>
+      </c>
+      <c r="C34" s="23">
         <f>(Nathan!C34+Tyler!C34)/2</f>
-        <v>0.5</v>
-      </c>
-      <c r="D34" s="32">
+        <v>0.75</v>
+      </c>
+      <c r="D34" s="23">
         <f>(Nathan!D34+Tyler!D34)/2</f>
-        <v>0.75</v>
+        <v>1.25</v>
       </c>
       <c r="E34" s="8">
         <f>(B34+4*C34+D34)/6</f>
-        <v>0.5</v>
+        <v>0.76666666666666661</v>
       </c>
       <c r="F34" s="3">
         <v>0</v>
       </c>
       <c r="G34" s="8">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>0.76666666666666661</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="B35" s="32">
+      <c r="B35" s="23">
         <f>(Nathan!B35+Tyler!B35)/2</f>
-        <v>1.5</v>
-      </c>
-      <c r="C35" s="32">
+        <v>2.5</v>
+      </c>
+      <c r="C35" s="23">
         <f>(Nathan!C35+Tyler!C35)/2</f>
-        <v>2.5</v>
-      </c>
-      <c r="D35" s="32">
+        <v>4</v>
+      </c>
+      <c r="D35" s="23">
         <f>(Nathan!D35+Tyler!D35)/2</f>
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="E35" s="8">
         <f t="shared" ref="E35:E38" si="7">(B35+4*C35+D35)/6</f>
-        <v>2.5</v>
+        <v>4.083333333333333</v>
       </c>
       <c r="F35" s="3">
         <v>0</v>
       </c>
       <c r="G35" s="8">
         <f t="shared" si="0"/>
-        <v>2.5</v>
+        <v>4.083333333333333</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="B36" s="32">
+      <c r="B36" s="23">
         <f>(Nathan!B36+Tyler!B36)/2</f>
-        <v>1</v>
-      </c>
-      <c r="C36" s="32">
+        <v>1.5</v>
+      </c>
+      <c r="C36" s="23">
         <f>(Nathan!C36+Tyler!C36)/2</f>
-        <v>2</v>
-      </c>
-      <c r="D36" s="32">
+        <v>3.25</v>
+      </c>
+      <c r="D36" s="23">
         <f>(Nathan!D36+Tyler!D36)/2</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E36" s="8">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>3.25</v>
       </c>
       <c r="F36" s="3">
         <v>0</v>
       </c>
       <c r="G36" s="8">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="B37" s="32">
+      <c r="B37" s="23">
         <f>(Nathan!B37+Tyler!B37)/2</f>
-        <v>0.25</v>
-      </c>
-      <c r="C37" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="C37" s="23">
         <f>(Nathan!C37+Tyler!C37)/2</f>
-        <v>0.5</v>
-      </c>
-      <c r="D37" s="32">
+        <v>1</v>
+      </c>
+      <c r="D37" s="23">
         <f>(Nathan!D37+Tyler!D37)/2</f>
-        <v>1.5</v>
+        <v>2.75</v>
       </c>
       <c r="E37" s="8">
         <f t="shared" si="7"/>
-        <v>0.625</v>
+        <v>1.2083333333333333</v>
       </c>
       <c r="F37" s="3">
         <v>0</v>
       </c>
       <c r="G37" s="8">
         <f t="shared" si="0"/>
-        <v>0.625</v>
+        <v>1.2083333333333333</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="B38" s="32">
+      <c r="B38" s="23">
         <f>(Nathan!B38+Tyler!B38)/2</f>
-        <v>0.5</v>
-      </c>
-      <c r="C38" s="32">
+        <v>0.75</v>
+      </c>
+      <c r="C38" s="23">
         <f>(Nathan!C38+Tyler!C38)/2</f>
-        <v>0.75</v>
-      </c>
-      <c r="D38" s="32">
+        <v>1.25</v>
+      </c>
+      <c r="D38" s="23">
         <f>(Nathan!D38+Tyler!D38)/2</f>
-        <v>1.5</v>
+        <v>2.75</v>
       </c>
       <c r="E38" s="8">
         <f t="shared" si="7"/>
-        <v>0.83333333333333337</v>
+        <v>1.4166666666666667</v>
       </c>
       <c r="F38" s="3">
         <v>0</v>
       </c>
       <c r="G38" s="8">
         <f t="shared" si="0"/>
-        <v>0.83333333333333337</v>
+        <v>1.4166666666666667</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="B39" s="32">
+      <c r="B39" s="23">
         <f>(Nathan!B39+Tyler!B39)/2</f>
-        <v>0.5</v>
-      </c>
-      <c r="C39" s="32">
+        <v>0.75</v>
+      </c>
+      <c r="C39" s="23">
         <f>(Nathan!C39+Tyler!C39)/2</f>
-        <v>0.75</v>
-      </c>
-      <c r="D39" s="32">
+        <v>1.25</v>
+      </c>
+      <c r="D39" s="23">
         <f>(Nathan!D39+Tyler!D39)/2</f>
-        <v>1.5</v>
+        <v>2.75</v>
       </c>
       <c r="E39" s="8">
         <f>(B39+4*C39+D39)/6</f>
-        <v>0.83333333333333337</v>
+        <v>1.4166666666666667</v>
       </c>
       <c r="F39" s="3">
         <v>0</v>
       </c>
       <c r="G39" s="8">
         <f t="shared" si="0"/>
-        <v>0.83333333333333337</v>
+        <v>1.4166666666666667</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="B40" s="32">
+      <c r="B40" s="23">
         <f>(Nathan!B40+Tyler!B40)/2</f>
-        <v>0.25</v>
-      </c>
-      <c r="C40" s="32">
+        <v>0.35</v>
+      </c>
+      <c r="C40" s="23">
         <f>(Nathan!C40+Tyler!C40)/2</f>
-        <v>0.5</v>
-      </c>
-      <c r="D40" s="32">
+        <v>0.75</v>
+      </c>
+      <c r="D40" s="23">
         <f>(Nathan!D40+Tyler!D40)/2</f>
-        <v>0.75</v>
+        <v>1.25</v>
       </c>
       <c r="E40" s="8">
         <f t="shared" ref="E40:E43" si="8">(B40+4*C40+D40)/6</f>
-        <v>0.5</v>
+        <v>0.76666666666666661</v>
       </c>
       <c r="F40" s="3">
         <v>0</v>
       </c>
       <c r="G40" s="8">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>0.76666666666666661</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="B41" s="32">
+      <c r="B41" s="23">
         <f>(Nathan!B41+Tyler!B41)/2</f>
-        <v>0.5</v>
-      </c>
-      <c r="C41" s="32">
+        <v>1</v>
+      </c>
+      <c r="C41" s="23">
         <f>(Nathan!C41+Tyler!C41)/2</f>
-        <v>0.75</v>
-      </c>
-      <c r="D41" s="32">
+        <v>1.75</v>
+      </c>
+      <c r="D41" s="23">
         <f>(Nathan!D41+Tyler!D41)/2</f>
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="E41" s="8">
         <f t="shared" si="8"/>
-        <v>0.83333333333333337</v>
+        <v>1.8333333333333333</v>
       </c>
       <c r="F41" s="3">
         <v>0</v>
       </c>
       <c r="G41" s="8">
         <f t="shared" si="0"/>
-        <v>0.83333333333333337</v>
+        <v>1.8333333333333333</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="B42" s="32">
+      <c r="B42" s="23">
         <f>(Nathan!B42+Tyler!B42)/2</f>
-        <v>0.25</v>
-      </c>
-      <c r="C42" s="32">
+        <v>0.35</v>
+      </c>
+      <c r="C42" s="23">
         <f>(Nathan!C42+Tyler!C42)/2</f>
-        <v>0.5</v>
-      </c>
-      <c r="D42" s="32">
+        <v>0.75</v>
+      </c>
+      <c r="D42" s="23">
         <f>(Nathan!D42+Tyler!D42)/2</f>
-        <v>0.75</v>
+        <v>1.25</v>
       </c>
       <c r="E42" s="8">
         <f t="shared" si="8"/>
-        <v>0.5</v>
+        <v>0.76666666666666661</v>
       </c>
       <c r="F42" s="3">
         <v>0</v>
       </c>
       <c r="G42" s="8">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>0.76666666666666661</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="B43" s="32">
+      <c r="B43" s="23">
         <f>(Nathan!B43+Tyler!B43)/2</f>
-        <v>0.25</v>
-      </c>
-      <c r="C43" s="32">
+        <v>0.75</v>
+      </c>
+      <c r="C43" s="23">
         <f>(Nathan!C43+Tyler!C43)/2</f>
-        <v>0.5</v>
-      </c>
-      <c r="D43" s="32">
+        <v>1.25</v>
+      </c>
+      <c r="D43" s="23">
         <f>(Nathan!D43+Tyler!D43)/2</f>
-        <v>0.75</v>
+        <v>2</v>
       </c>
       <c r="E43" s="8">
         <f t="shared" si="8"/>
-        <v>0.5</v>
+        <v>1.2916666666666667</v>
       </c>
       <c r="F43" s="3">
         <v>0</v>
       </c>
       <c r="G43" s="8">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>1.2916666666666667</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="B44" s="32">
+      <c r="B44" s="23">
         <f>(Nathan!B44+Tyler!B44)/2</f>
-        <v>0.25</v>
-      </c>
-      <c r="C44" s="32">
+        <v>0.35</v>
+      </c>
+      <c r="C44" s="23">
         <f>(Nathan!C44+Tyler!C44)/2</f>
-        <v>0.5</v>
-      </c>
-      <c r="D44" s="32">
+        <v>0.75</v>
+      </c>
+      <c r="D44" s="23">
         <f>(Nathan!D44+Tyler!D44)/2</f>
-        <v>0.75</v>
+        <v>1.25</v>
       </c>
       <c r="E44" s="8">
         <f>(B44+4*C44+D44)/6</f>
-        <v>0.5</v>
+        <v>0.76666666666666661</v>
       </c>
       <c r="F44" s="3">
         <v>0</v>
       </c>
       <c r="G44" s="8">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>0.76666666666666661</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="B45" s="32">
+      <c r="B45" s="23">
         <f>(Nathan!B45+Tyler!B45)/2</f>
-        <v>0.25</v>
-      </c>
-      <c r="C45" s="32">
+        <v>1.75</v>
+      </c>
+      <c r="C45" s="23">
         <f>(Nathan!C45+Tyler!C45)/2</f>
-        <v>0.5</v>
-      </c>
-      <c r="D45" s="32">
+        <v>2.5</v>
+      </c>
+      <c r="D45" s="23">
         <f>(Nathan!D45+Tyler!D45)/2</f>
-        <v>0.75</v>
+        <v>3.75</v>
       </c>
       <c r="E45" s="8">
         <f t="shared" ref="E45:E48" si="9">(B45+4*C45+D45)/6</f>
-        <v>0.5</v>
+        <v>2.5833333333333335</v>
       </c>
       <c r="F45" s="3">
         <v>0</v>
       </c>
       <c r="G45" s="8">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>2.5833333333333335</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="B46" s="32">
+      <c r="B46" s="23">
         <f>(Nathan!B46+Tyler!B46)/2</f>
-        <v>0.25</v>
-      </c>
-      <c r="C46" s="32">
+        <v>0.75</v>
+      </c>
+      <c r="C46" s="23">
         <f>(Nathan!C46+Tyler!C46)/2</f>
-        <v>0.5</v>
-      </c>
-      <c r="D46" s="32">
+        <v>1.5</v>
+      </c>
+      <c r="D46" s="23">
         <f>(Nathan!D46+Tyler!D46)/2</f>
-        <v>0.75</v>
+        <v>2.25</v>
       </c>
       <c r="E46" s="8">
         <f t="shared" si="9"/>
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="F46" s="3">
         <v>0</v>
       </c>
       <c r="G46" s="8">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="B47" s="32">
+      <c r="B47" s="23">
         <f>(Nathan!B47+Tyler!B47)/2</f>
-        <v>0.5</v>
-      </c>
-      <c r="C47" s="32">
+        <v>1</v>
+      </c>
+      <c r="C47" s="23">
         <f>(Nathan!C47+Tyler!C47)/2</f>
-        <v>0.75</v>
-      </c>
-      <c r="D47" s="32">
+        <v>1.5</v>
+      </c>
+      <c r="D47" s="23">
         <f>(Nathan!D47+Tyler!D47)/2</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E47" s="8">
         <f t="shared" si="9"/>
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="F47" s="3">
         <v>0</v>
       </c>
       <c r="G47" s="8">
         <f t="shared" si="0"/>
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="B48" s="32">
+      <c r="B48" s="23">
         <f>(Nathan!B48+Tyler!B48)/2</f>
-        <v>0.5</v>
-      </c>
-      <c r="C48" s="32">
+        <v>1</v>
+      </c>
+      <c r="C48" s="23">
         <f>(Nathan!C48+Tyler!C48)/2</f>
-        <v>0.75</v>
-      </c>
-      <c r="D48" s="32">
+        <v>1.5</v>
+      </c>
+      <c r="D48" s="23">
         <f>(Nathan!D48+Tyler!D48)/2</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E48" s="8">
         <f t="shared" si="9"/>
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="F48" s="3">
         <v>0</v>
       </c>
       <c r="G48" s="8">
         <f t="shared" si="0"/>
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="B49" s="32">
+      <c r="B49" s="23">
         <f>(Nathan!B49+Tyler!B49)/2</f>
-        <v>0.5</v>
-      </c>
-      <c r="C49" s="32">
+        <v>1</v>
+      </c>
+      <c r="C49" s="23">
         <f>(Nathan!C49+Tyler!C49)/2</f>
-        <v>0.75</v>
-      </c>
-      <c r="D49" s="32">
+        <v>1.5</v>
+      </c>
+      <c r="D49" s="23">
         <f>(Nathan!D49+Tyler!D49)/2</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E49" s="8">
         <f>(B49+4*C49+D49)/6</f>
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="F49" s="3">
         <v>0</v>
       </c>
       <c r="G49" s="8">
         <f t="shared" si="0"/>
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="B50" s="32">
+      <c r="B50" s="23">
         <f>(Nathan!B50+Tyler!B50)/2</f>
-        <v>0.5</v>
-      </c>
-      <c r="C50" s="32">
+        <v>1</v>
+      </c>
+      <c r="C50" s="23">
         <f>(Nathan!C50+Tyler!C50)/2</f>
-        <v>0.75</v>
-      </c>
-      <c r="D50" s="32">
+        <v>1.5</v>
+      </c>
+      <c r="D50" s="23">
         <f>(Nathan!D50+Tyler!D50)/2</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E50" s="8">
         <f t="shared" ref="E50:E53" si="10">(B50+4*C50+D50)/6</f>
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="F50" s="3">
         <v>0</v>
       </c>
       <c r="G50" s="8">
         <f t="shared" si="0"/>
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="B51" s="32">
+      <c r="B51" s="23">
         <f>(Nathan!B51+Tyler!B51)/2</f>
-        <v>0.5</v>
-      </c>
-      <c r="C51" s="32">
+        <v>1</v>
+      </c>
+      <c r="C51" s="23">
         <f>(Nathan!C51+Tyler!C51)/2</f>
-        <v>0.75</v>
-      </c>
-      <c r="D51" s="32">
+        <v>1.5</v>
+      </c>
+      <c r="D51" s="23">
         <f>(Nathan!D51+Tyler!D51)/2</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E51" s="8">
         <f t="shared" si="10"/>
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="F51" s="3">
         <v>0</v>
       </c>
       <c r="G51" s="8">
         <f t="shared" si="0"/>
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="B52" s="32">
+      <c r="B52" s="23">
         <f>(Nathan!B52+Tyler!B52)/2</f>
-        <v>1.5</v>
-      </c>
-      <c r="C52" s="32">
+        <v>2.5</v>
+      </c>
+      <c r="C52" s="23">
         <f>(Nathan!C52+Tyler!C52)/2</f>
-        <v>2</v>
-      </c>
-      <c r="D52" s="32">
+        <v>3.5</v>
+      </c>
+      <c r="D52" s="23">
         <f>(Nathan!D52+Tyler!D52)/2</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E52" s="8">
         <f t="shared" si="10"/>
-        <v>2.0833333333333335</v>
+        <v>3.75</v>
       </c>
       <c r="F52" s="3">
         <v>0</v>
       </c>
       <c r="G52" s="8">
         <f t="shared" si="0"/>
-        <v>2.0833333333333335</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="B53" s="32">
+      <c r="B53" s="23">
         <f>(Nathan!B53+Tyler!B53)/2</f>
-        <v>1.5</v>
-      </c>
-      <c r="C53" s="32">
+        <v>2.5</v>
+      </c>
+      <c r="C53" s="23">
         <f>(Nathan!C53+Tyler!C53)/2</f>
-        <v>2</v>
-      </c>
-      <c r="D53" s="32">
+        <v>3.5</v>
+      </c>
+      <c r="D53" s="23">
         <f>(Nathan!D53+Tyler!D53)/2</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E53" s="8">
         <f t="shared" si="10"/>
-        <v>2.0833333333333335</v>
+        <v>3.75</v>
       </c>
       <c r="F53" s="3">
         <v>0</v>
       </c>
       <c r="G53" s="8">
         <f t="shared" si="0"/>
-        <v>2.0833333333333335</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="B54" s="32">
+      <c r="B54" s="23">
         <f>(Nathan!B54+Tyler!B54)/2</f>
-        <v>1.5</v>
-      </c>
-      <c r="C54" s="32">
+        <v>2.5</v>
+      </c>
+      <c r="C54" s="23">
         <f>(Nathan!C54+Tyler!C54)/2</f>
-        <v>2</v>
-      </c>
-      <c r="D54" s="32">
+        <v>3.5</v>
+      </c>
+      <c r="D54" s="23">
         <f>(Nathan!D54+Tyler!D54)/2</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E54" s="8">
         <f>(B54+4*C54+D54)/6</f>
-        <v>2.0833333333333335</v>
+        <v>3.75</v>
       </c>
       <c r="F54" s="3">
         <v>0</v>
       </c>
       <c r="G54" s="8">
         <f t="shared" si="0"/>
-        <v>2.0833333333333335</v>
+        <v>3.75</v>
       </c>
     </row>
   </sheetData>
